--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC96E5-3F29-FE40-A75E-DAFCBBB64B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F59C6E-2EBA-CD4F-AFC1-20F6B04D31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="1" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" activeTab="1" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>https://online-quzi-2.vercel.app/quiz</t>
   </si>
+  <si>
+    <t>Answers on 6th Sep class</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +323,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,6 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1110,7 @@
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F13" s="4"/>
@@ -1303,7 +1313,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -28311,20 +28323,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B700801-C5A7-E248-947B-370713DC0001}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F59C6E-2EBA-CD4F-AFC1-20F6B04D31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4294A-8575-D043-9CFE-DEDBCA0F55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" activeTab="1" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>Answers on 6th Sep class</t>
+  </si>
+  <si>
+    <t>Equivalent subarrays</t>
+  </si>
+  <si>
+    <t>Debug your code check answer class</t>
   </si>
 </sst>
 </file>
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1701,8 +1707,13 @@
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -28325,7 +28336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B700801-C5A7-E248-947B-370713DC0001}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4294A-8575-D043-9CFE-DEDBCA0F55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27714B87-EFD2-FA46-8E04-1B8D847E5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -283,12 +283,18 @@
   <si>
     <t>Debug your code check answer class</t>
   </si>
+  <si>
+    <t>Good question</t>
+  </si>
+  <si>
+    <t>2 test cases failing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +334,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -362,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,10 +382,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -700,14 +727,14 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -731,11 +758,11 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -768,7 +795,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
@@ -804,7 +831,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -840,7 +867,7 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4"/>
@@ -876,7 +903,7 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
@@ -905,7 +932,7 @@
     <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -931,11 +958,11 @@
     </row>
     <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -969,7 +996,7 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
@@ -1005,7 +1032,7 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="4"/>
@@ -1041,7 +1068,7 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="4"/>
@@ -1077,7 +1104,7 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
@@ -1113,10 +1140,10 @@
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F13" s="4"/>
@@ -1151,7 +1178,7 @@
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4"/>
@@ -1187,7 +1214,7 @@
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="4"/>
@@ -1223,7 +1250,7 @@
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4"/>
@@ -1252,7 +1279,7 @@
     <row r="17" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1278,11 +1305,11 @@
     </row>
     <row r="18" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1316,7 +1343,7 @@
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1354,7 +1381,7 @@
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4"/>
@@ -1383,7 +1410,7 @@
     <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1409,11 +1436,11 @@
     </row>
     <row r="22" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1447,7 +1474,7 @@
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="4"/>
@@ -1483,10 +1510,12 @@
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1519,7 +1548,7 @@
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="4"/>
@@ -1555,7 +1584,7 @@
       <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1593,7 +1622,7 @@
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1624,7 +1653,7 @@
     <row r="28" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1650,11 +1679,11 @@
     </row>
     <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1681,7 +1710,7 @@
     <row r="30" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1705,16 +1734,18 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1740,7 +1771,7 @@
     <row r="32" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1767,7 +1798,7 @@
     <row r="33" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1794,7 +1825,7 @@
     <row r="34" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1821,7 +1852,7 @@
     <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1847,11 +1878,11 @@
     </row>
     <row r="36" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1883,7 +1914,7 @@
       <c r="C37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1910,7 +1941,7 @@
     <row r="38" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1937,7 +1968,7 @@
     <row r="39" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1963,11 +1994,11 @@
     </row>
     <row r="40" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1999,7 +2030,7 @@
       <c r="C41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2035,7 +2066,7 @@
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2071,7 +2102,7 @@
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="4" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2136,7 @@
       <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2170,7 @@
       <c r="C45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2204,7 @@
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -2204,7 +2235,7 @@
     <row r="47" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2234,7 +2265,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2266,7 +2297,7 @@
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="4"/>
@@ -2300,7 +2331,7 @@
       <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2334,7 +2365,7 @@
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="4"/>
@@ -2368,7 +2399,7 @@
       <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="4"/>
@@ -2397,7 +2428,7 @@
     <row r="53" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2423,11 +2454,11 @@
     </row>
     <row r="54" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2459,7 +2490,7 @@
       <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2493,7 +2524,7 @@
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="4"/>
@@ -2527,7 +2558,7 @@
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="4"/>
@@ -2561,7 +2592,7 @@
       <c r="C58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="4"/>
@@ -2595,7 +2626,7 @@
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="4"/>
@@ -2629,7 +2660,7 @@
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E60" s="4"/>
@@ -2658,7 +2689,7 @@
     <row r="61" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2684,11 +2715,11 @@
     </row>
     <row r="62" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2720,7 +2751,7 @@
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2754,7 +2785,7 @@
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="4"/>
@@ -2788,7 +2819,7 @@
       <c r="C65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2822,7 +2853,7 @@
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="4"/>
@@ -2851,7 +2882,7 @@
     <row r="67" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2877,11 +2908,11 @@
     </row>
     <row r="68" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -2913,7 +2944,7 @@
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2947,7 +2978,7 @@
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E70" s="4"/>
@@ -2981,7 +3012,7 @@
       <c r="C71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="4"/>
@@ -3015,7 +3046,7 @@
       <c r="C72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="4"/>
@@ -3049,7 +3080,7 @@
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E73" s="4"/>
@@ -3083,7 +3114,7 @@
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="4"/>
@@ -3112,7 +3143,7 @@
     <row r="75" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3144,7 +3175,7 @@
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3174,7 +3205,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3204,7 +3235,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3234,7 +3265,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3261,7 +3292,7 @@
     <row r="80" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -3288,7 +3319,7 @@
     <row r="81" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3315,7 +3346,7 @@
     <row r="82" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3342,7 +3373,7 @@
     <row r="83" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -3369,7 +3400,7 @@
     <row r="84" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -3396,7 +3427,7 @@
     <row r="85" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -3423,7 +3454,7 @@
     <row r="86" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -3450,7 +3481,7 @@
     <row r="87" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -3477,7 +3508,7 @@
     <row r="88" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3504,7 +3535,7 @@
     <row r="89" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -3531,7 +3562,7 @@
     <row r="90" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -3558,7 +3589,7 @@
     <row r="91" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -3585,7 +3616,7 @@
     <row r="92" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3612,7 +3643,7 @@
     <row r="93" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -3639,7 +3670,7 @@
     <row r="94" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -3666,7 +3697,7 @@
     <row r="95" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -3693,7 +3724,7 @@
     <row r="96" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -3720,7 +3751,7 @@
     <row r="97" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -3747,7 +3778,7 @@
     <row r="98" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -3774,7 +3805,7 @@
     <row r="99" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -3801,7 +3832,7 @@
     <row r="100" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3828,7 +3859,7 @@
     <row r="101" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -3855,7 +3886,7 @@
     <row r="102" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -3882,7 +3913,7 @@
     <row r="103" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -3909,7 +3940,7 @@
     <row r="104" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -3936,7 +3967,7 @@
     <row r="105" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -3963,7 +3994,7 @@
     <row r="106" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -3990,7 +4021,7 @@
     <row r="107" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -4017,7 +4048,7 @@
     <row r="108" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -4044,7 +4075,7 @@
     <row r="109" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -4071,7 +4102,7 @@
     <row r="110" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -4098,7 +4129,7 @@
     <row r="111" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -4125,7 +4156,7 @@
     <row r="112" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -4152,7 +4183,7 @@
     <row r="113" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -4179,7 +4210,7 @@
     <row r="114" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -4206,7 +4237,7 @@
     <row r="115" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -4233,7 +4264,7 @@
     <row r="116" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -4260,7 +4291,7 @@
     <row r="117" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -4287,7 +4318,7 @@
     <row r="118" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -4314,7 +4345,7 @@
     <row r="119" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -4341,7 +4372,7 @@
     <row r="120" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -4368,7 +4399,7 @@
     <row r="121" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -4395,7 +4426,7 @@
     <row r="122" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -4422,7 +4453,7 @@
     <row r="123" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -4449,7 +4480,7 @@
     <row r="124" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -4476,7 +4507,7 @@
     <row r="125" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -4503,7 +4534,7 @@
     <row r="126" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -4530,7 +4561,7 @@
     <row r="127" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -4557,7 +4588,7 @@
     <row r="128" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -4584,7 +4615,7 @@
     <row r="129" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -4611,7 +4642,7 @@
     <row r="130" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -4638,7 +4669,7 @@
     <row r="131" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -4665,7 +4696,7 @@
     <row r="132" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -4692,7 +4723,7 @@
     <row r="133" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -4719,7 +4750,7 @@
     <row r="134" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -4746,7 +4777,7 @@
     <row r="135" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -4773,7 +4804,7 @@
     <row r="136" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="8"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
@@ -4800,7 +4831,7 @@
     <row r="137" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -4827,7 +4858,7 @@
     <row r="138" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -4854,7 +4885,7 @@
     <row r="139" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="8"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -4881,7 +4912,7 @@
     <row r="140" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
@@ -4908,7 +4939,7 @@
     <row r="141" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -4935,7 +4966,7 @@
     <row r="142" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -4962,7 +4993,7 @@
     <row r="143" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -4989,7 +5020,7 @@
     <row r="144" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -5016,7 +5047,7 @@
     <row r="145" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -5043,7 +5074,7 @@
     <row r="146" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -5070,7 +5101,7 @@
     <row r="147" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -5097,7 +5128,7 @@
     <row r="148" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -5124,7 +5155,7 @@
     <row r="149" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -5151,7 +5182,7 @@
     <row r="150" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -5178,7 +5209,7 @@
     <row r="151" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -5205,7 +5236,7 @@
     <row r="152" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -5232,7 +5263,7 @@
     <row r="153" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -5259,7 +5290,7 @@
     <row r="154" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -5286,7 +5317,7 @@
     <row r="155" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -5313,7 +5344,7 @@
     <row r="156" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -5340,7 +5371,7 @@
     <row r="157" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -5367,7 +5398,7 @@
     <row r="158" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -5394,7 +5425,7 @@
     <row r="159" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -5421,7 +5452,7 @@
     <row r="160" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -5448,7 +5479,7 @@
     <row r="161" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -5475,7 +5506,7 @@
     <row r="162" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -5502,7 +5533,7 @@
     <row r="163" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -5529,7 +5560,7 @@
     <row r="164" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="8"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -5556,7 +5587,7 @@
     <row r="165" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="8"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -5583,7 +5614,7 @@
     <row r="166" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="8"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -5610,7 +5641,7 @@
     <row r="167" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="8"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -5637,7 +5668,7 @@
     <row r="168" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -5664,7 +5695,7 @@
     <row r="169" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="8"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -5691,7 +5722,7 @@
     <row r="170" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -5718,7 +5749,7 @@
     <row r="171" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="8"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -5745,7 +5776,7 @@
     <row r="172" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="8"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -5772,7 +5803,7 @@
     <row r="173" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="8"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -5799,7 +5830,7 @@
     <row r="174" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -5826,7 +5857,7 @@
     <row r="175" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -5853,7 +5884,7 @@
     <row r="176" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="8"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -5880,7 +5911,7 @@
     <row r="177" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="8"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -5907,7 +5938,7 @@
     <row r="178" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="8"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -5934,7 +5965,7 @@
     <row r="179" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="8"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -5961,7 +5992,7 @@
     <row r="180" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="D180" s="8"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -5988,7 +6019,7 @@
     <row r="181" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="D181" s="8"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -6015,7 +6046,7 @@
     <row r="182" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="D182" s="8"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -6042,7 +6073,7 @@
     <row r="183" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="D183" s="8"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -6069,7 +6100,7 @@
     <row r="184" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -6096,7 +6127,7 @@
     <row r="185" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="8"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -6123,7 +6154,7 @@
     <row r="186" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="8"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -6150,7 +6181,7 @@
     <row r="187" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="8"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -6177,7 +6208,7 @@
     <row r="188" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -6204,7 +6235,7 @@
     <row r="189" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="8"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -6231,7 +6262,7 @@
     <row r="190" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="8"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -6258,7 +6289,7 @@
     <row r="191" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="D191" s="8"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -6285,7 +6316,7 @@
     <row r="192" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="D192" s="8"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -6312,7 +6343,7 @@
     <row r="193" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="D193" s="8"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -6339,7 +6370,7 @@
     <row r="194" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="8"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -6366,7 +6397,7 @@
     <row r="195" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="8"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -6393,7 +6424,7 @@
     <row r="196" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="8"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -6420,7 +6451,7 @@
     <row r="197" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="8"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -6447,7 +6478,7 @@
     <row r="198" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="8"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -6474,7 +6505,7 @@
     <row r="199" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="8"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -6501,7 +6532,7 @@
     <row r="200" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="8"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -6528,7 +6559,7 @@
     <row r="201" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="8"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -6555,7 +6586,7 @@
     <row r="202" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="8"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -6582,7 +6613,7 @@
     <row r="203" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="8"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -6609,7 +6640,7 @@
     <row r="204" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="8"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -6636,7 +6667,7 @@
     <row r="205" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="8"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -6663,7 +6694,7 @@
     <row r="206" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="8"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -6690,7 +6721,7 @@
     <row r="207" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="D207" s="8"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -6717,7 +6748,7 @@
     <row r="208" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="D208" s="8"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -6744,7 +6775,7 @@
     <row r="209" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="8"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -6771,7 +6802,7 @@
     <row r="210" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="D210" s="8"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -6798,7 +6829,7 @@
     <row r="211" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="D211" s="8"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -6825,7 +6856,7 @@
     <row r="212" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="8"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -6852,7 +6883,7 @@
     <row r="213" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="D213" s="8"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -6879,7 +6910,7 @@
     <row r="214" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="8"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -6906,7 +6937,7 @@
     <row r="215" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="8"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -6933,7 +6964,7 @@
     <row r="216" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="8"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -6960,7 +6991,7 @@
     <row r="217" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="8"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -6987,7 +7018,7 @@
     <row r="218" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="D218" s="8"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -7014,7 +7045,7 @@
     <row r="219" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="8"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -7041,7 +7072,7 @@
     <row r="220" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="D220" s="8"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -7068,7 +7099,7 @@
     <row r="221" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="D221" s="8"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -7095,7 +7126,7 @@
     <row r="222" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="D222" s="8"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -7122,7 +7153,7 @@
     <row r="223" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="D223" s="8"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -7149,7 +7180,7 @@
     <row r="224" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="D224" s="8"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -7176,7 +7207,7 @@
     <row r="225" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="D225" s="8"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -7203,7 +7234,7 @@
     <row r="226" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="D226" s="8"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -7230,7 +7261,7 @@
     <row r="227" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="D227" s="8"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -7257,7 +7288,7 @@
     <row r="228" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="D228" s="8"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -7284,7 +7315,7 @@
     <row r="229" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="D229" s="8"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -7311,7 +7342,7 @@
     <row r="230" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="8"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -7338,7 +7369,7 @@
     <row r="231" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="D231" s="8"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -7365,7 +7396,7 @@
     <row r="232" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="8"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -7392,7 +7423,7 @@
     <row r="233" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="D233" s="8"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -7419,7 +7450,7 @@
     <row r="234" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="8"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -7446,7 +7477,7 @@
     <row r="235" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="D235" s="8"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -7473,7 +7504,7 @@
     <row r="236" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="8"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -7500,7 +7531,7 @@
     <row r="237" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="D237" s="8"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -7527,7 +7558,7 @@
     <row r="238" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="D238" s="8"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -7554,7 +7585,7 @@
     <row r="239" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="D239" s="8"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -7581,7 +7612,7 @@
     <row r="240" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="D240" s="8"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -7608,7 +7639,7 @@
     <row r="241" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="D241" s="8"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -7635,7 +7666,7 @@
     <row r="242" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="D242" s="8"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -7662,7 +7693,7 @@
     <row r="243" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="D243" s="8"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -7689,7 +7720,7 @@
     <row r="244" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="8"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -7716,7 +7747,7 @@
     <row r="245" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="8"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -7743,7 +7774,7 @@
     <row r="246" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="D246" s="8"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -7770,7 +7801,7 @@
     <row r="247" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="D247" s="8"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -7797,7 +7828,7 @@
     <row r="248" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="8"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -7824,7 +7855,7 @@
     <row r="249" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="8"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -7851,7 +7882,7 @@
     <row r="250" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="D250" s="8"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -7878,7 +7909,7 @@
     <row r="251" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="D251" s="8"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -7905,7 +7936,7 @@
     <row r="252" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="D252" s="8"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -7932,7 +7963,7 @@
     <row r="253" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="D253" s="8"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -7959,7 +7990,7 @@
     <row r="254" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="8"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -7986,7 +8017,7 @@
     <row r="255" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="D255" s="8"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -8013,7 +8044,7 @@
     <row r="256" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="8"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -8040,7 +8071,7 @@
     <row r="257" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="8"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -8067,7 +8098,7 @@
     <row r="258" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="8"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -8094,7 +8125,7 @@
     <row r="259" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="D259" s="8"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -8121,7 +8152,7 @@
     <row r="260" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="D260" s="8"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -8148,7 +8179,7 @@
     <row r="261" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="D261" s="8"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -8175,7 +8206,7 @@
     <row r="262" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="D262" s="8"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -8202,7 +8233,7 @@
     <row r="263" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="D263" s="8"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -8229,7 +8260,7 @@
     <row r="264" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="D264" s="8"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -8256,7 +8287,7 @@
     <row r="265" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="D265" s="8"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -8283,7 +8314,7 @@
     <row r="266" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="D266" s="8"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -8310,7 +8341,7 @@
     <row r="267" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="D267" s="8"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -8337,7 +8368,7 @@
     <row r="268" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="D268" s="8"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -8364,7 +8395,7 @@
     <row r="269" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="D269" s="8"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -8391,7 +8422,7 @@
     <row r="270" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="D270" s="8"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -8418,7 +8449,7 @@
     <row r="271" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="D271" s="8"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -8445,7 +8476,7 @@
     <row r="272" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="D272" s="8"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -8472,7 +8503,7 @@
     <row r="273" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="8"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -8499,7 +8530,7 @@
     <row r="274" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="D274" s="8"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -8526,7 +8557,7 @@
     <row r="275" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="D275" s="8"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -8553,7 +8584,7 @@
     <row r="276" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="D276" s="8"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -8580,7 +8611,7 @@
     <row r="277" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="D277" s="8"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -8607,7 +8638,7 @@
     <row r="278" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="D278" s="8"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -8634,7 +8665,7 @@
     <row r="279" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="D279" s="8"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -8661,7 +8692,7 @@
     <row r="280" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="D280" s="8"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -8688,7 +8719,7 @@
     <row r="281" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="D281" s="8"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -8715,7 +8746,7 @@
     <row r="282" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="D282" s="8"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -8742,7 +8773,7 @@
     <row r="283" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="D283" s="8"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -8769,7 +8800,7 @@
     <row r="284" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="D284" s="8"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -8796,7 +8827,7 @@
     <row r="285" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="D285" s="8"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -8823,7 +8854,7 @@
     <row r="286" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="D286" s="8"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -8850,7 +8881,7 @@
     <row r="287" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="D287" s="8"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -8877,7 +8908,7 @@
     <row r="288" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="D288" s="8"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -8904,7 +8935,7 @@
     <row r="289" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="D289" s="8"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -8931,7 +8962,7 @@
     <row r="290" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="D290" s="8"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -8958,7 +8989,7 @@
     <row r="291" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="D291" s="8"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -8985,7 +9016,7 @@
     <row r="292" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="D292" s="8"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -9012,7 +9043,7 @@
     <row r="293" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="D293" s="8"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -9039,7 +9070,7 @@
     <row r="294" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="8"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -9066,7 +9097,7 @@
     <row r="295" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="D295" s="8"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -9093,7 +9124,7 @@
     <row r="296" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="D296" s="8"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -9120,7 +9151,7 @@
     <row r="297" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="D297" s="8"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -9147,7 +9178,7 @@
     <row r="298" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="D298" s="8"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -9174,7 +9205,7 @@
     <row r="299" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="D299" s="8"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -9201,7 +9232,7 @@
     <row r="300" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="D300" s="8"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -9228,7 +9259,7 @@
     <row r="301" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="D301" s="8"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -9255,7 +9286,7 @@
     <row r="302" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="D302" s="8"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -9282,7 +9313,7 @@
     <row r="303" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="D303" s="8"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -9309,7 +9340,7 @@
     <row r="304" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="8"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -9336,7 +9367,7 @@
     <row r="305" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="D305" s="8"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -9363,7 +9394,7 @@
     <row r="306" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="D306" s="8"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -9390,7 +9421,7 @@
     <row r="307" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="D307" s="8"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -9417,7 +9448,7 @@
     <row r="308" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="D308" s="8"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -9444,7 +9475,7 @@
     <row r="309" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="D309" s="8"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -9471,7 +9502,7 @@
     <row r="310" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="D310" s="8"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -9498,7 +9529,7 @@
     <row r="311" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="D311" s="8"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -9525,7 +9556,7 @@
     <row r="312" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="D312" s="8"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -9552,7 +9583,7 @@
     <row r="313" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="D313" s="8"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -9579,7 +9610,7 @@
     <row r="314" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="D314" s="8"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -9606,7 +9637,7 @@
     <row r="315" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="D315" s="8"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -9633,7 +9664,7 @@
     <row r="316" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="D316" s="8"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -9660,7 +9691,7 @@
     <row r="317" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="D317" s="8"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -9687,7 +9718,7 @@
     <row r="318" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="D318" s="8"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -9714,7 +9745,7 @@
     <row r="319" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="D319" s="8"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -9741,7 +9772,7 @@
     <row r="320" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="D320" s="8"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -9768,7 +9799,7 @@
     <row r="321" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="D321" s="8"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -9795,7 +9826,7 @@
     <row r="322" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="D322" s="8"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -9822,7 +9853,7 @@
     <row r="323" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="D323" s="8"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -9849,7 +9880,7 @@
     <row r="324" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="D324" s="8"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -9876,7 +9907,7 @@
     <row r="325" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="D325" s="8"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -9903,7 +9934,7 @@
     <row r="326" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="D326" s="8"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -9930,7 +9961,7 @@
     <row r="327" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="D327" s="8"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -9957,7 +9988,7 @@
     <row r="328" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="D328" s="8"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -9984,7 +10015,7 @@
     <row r="329" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="D329" s="8"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -10011,7 +10042,7 @@
     <row r="330" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="D330" s="8"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -10038,7 +10069,7 @@
     <row r="331" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="D331" s="8"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -10065,7 +10096,7 @@
     <row r="332" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="D332" s="8"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -10092,7 +10123,7 @@
     <row r="333" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="D333" s="8"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -10119,7 +10150,7 @@
     <row r="334" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="8"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -10146,7 +10177,7 @@
     <row r="335" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="D335" s="8"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -10173,7 +10204,7 @@
     <row r="336" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="D336" s="8"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -10200,7 +10231,7 @@
     <row r="337" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="D337" s="8"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -10227,7 +10258,7 @@
     <row r="338" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="D338" s="8"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -10254,7 +10285,7 @@
     <row r="339" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="D339" s="8"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -10281,7 +10312,7 @@
     <row r="340" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="D340" s="8"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -10308,7 +10339,7 @@
     <row r="341" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="D341" s="8"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -10335,7 +10366,7 @@
     <row r="342" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="D342" s="8"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -10362,7 +10393,7 @@
     <row r="343" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="D343" s="8"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -10389,7 +10420,7 @@
     <row r="344" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="D344" s="8"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -10416,7 +10447,7 @@
     <row r="345" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="D345" s="8"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -10443,7 +10474,7 @@
     <row r="346" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="D346" s="8"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -10470,7 +10501,7 @@
     <row r="347" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="D347" s="8"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -10497,7 +10528,7 @@
     <row r="348" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="D348" s="8"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
@@ -10524,7 +10555,7 @@
     <row r="349" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="D349" s="8"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -10551,7 +10582,7 @@
     <row r="350" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="D350" s="8"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -10578,7 +10609,7 @@
     <row r="351" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="D351" s="8"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
@@ -10605,7 +10636,7 @@
     <row r="352" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="D352" s="8"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -10632,7 +10663,7 @@
     <row r="353" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="D353" s="8"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -10659,7 +10690,7 @@
     <row r="354" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="D354" s="8"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -10686,7 +10717,7 @@
     <row r="355" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="D355" s="8"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -10713,7 +10744,7 @@
     <row r="356" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="D356" s="8"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -10740,7 +10771,7 @@
     <row r="357" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="D357" s="8"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -10767,7 +10798,7 @@
     <row r="358" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="D358" s="8"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -10794,7 +10825,7 @@
     <row r="359" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="D359" s="8"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -10821,7 +10852,7 @@
     <row r="360" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="D360" s="8"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -10848,7 +10879,7 @@
     <row r="361" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="D361" s="8"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -10875,7 +10906,7 @@
     <row r="362" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="D362" s="8"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
@@ -10902,7 +10933,7 @@
     <row r="363" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="D363" s="8"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -10929,7 +10960,7 @@
     <row r="364" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="D364" s="8"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -10956,7 +10987,7 @@
     <row r="365" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="D365" s="8"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -10983,7 +11014,7 @@
     <row r="366" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="D366" s="8"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -11010,7 +11041,7 @@
     <row r="367" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
+      <c r="D367" s="8"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -11037,7 +11068,7 @@
     <row r="368" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
+      <c r="D368" s="8"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -11064,7 +11095,7 @@
     <row r="369" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
+      <c r="D369" s="8"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -11091,7 +11122,7 @@
     <row r="370" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+      <c r="D370" s="8"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -11118,7 +11149,7 @@
     <row r="371" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
+      <c r="D371" s="8"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -11145,7 +11176,7 @@
     <row r="372" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
+      <c r="D372" s="8"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -11172,7 +11203,7 @@
     <row r="373" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
+      <c r="D373" s="8"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -11199,7 +11230,7 @@
     <row r="374" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
+      <c r="D374" s="8"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -11226,7 +11257,7 @@
     <row r="375" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
+      <c r="D375" s="8"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
@@ -11253,7 +11284,7 @@
     <row r="376" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
+      <c r="D376" s="8"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
@@ -11280,7 +11311,7 @@
     <row r="377" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
+      <c r="D377" s="8"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -11307,7 +11338,7 @@
     <row r="378" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
+      <c r="D378" s="8"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
@@ -11334,7 +11365,7 @@
     <row r="379" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
+      <c r="D379" s="8"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
@@ -11361,7 +11392,7 @@
     <row r="380" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+      <c r="D380" s="8"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
@@ -11388,7 +11419,7 @@
     <row r="381" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
+      <c r="D381" s="8"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -11415,7 +11446,7 @@
     <row r="382" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
+      <c r="D382" s="8"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -11442,7 +11473,7 @@
     <row r="383" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
+      <c r="D383" s="8"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
@@ -11469,7 +11500,7 @@
     <row r="384" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
+      <c r="D384" s="8"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
@@ -11496,7 +11527,7 @@
     <row r="385" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
+      <c r="D385" s="8"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
@@ -11523,7 +11554,7 @@
     <row r="386" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="D386" s="8"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
@@ -11550,7 +11581,7 @@
     <row r="387" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="D387" s="8"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
@@ -11577,7 +11608,7 @@
     <row r="388" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
+      <c r="D388" s="8"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
@@ -11604,7 +11635,7 @@
     <row r="389" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="D389" s="8"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
@@ -11631,7 +11662,7 @@
     <row r="390" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="D390" s="8"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
@@ -11658,7 +11689,7 @@
     <row r="391" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="D391" s="8"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
@@ -11685,7 +11716,7 @@
     <row r="392" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="D392" s="8"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
@@ -11712,7 +11743,7 @@
     <row r="393" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="D393" s="8"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
@@ -11739,7 +11770,7 @@
     <row r="394" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
+      <c r="D394" s="8"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
@@ -11766,7 +11797,7 @@
     <row r="395" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
+      <c r="D395" s="8"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
@@ -11793,7 +11824,7 @@
     <row r="396" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
+      <c r="D396" s="8"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
@@ -11820,7 +11851,7 @@
     <row r="397" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
+      <c r="D397" s="8"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
@@ -11847,7 +11878,7 @@
     <row r="398" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
+      <c r="D398" s="8"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
@@ -11874,7 +11905,7 @@
     <row r="399" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
+      <c r="D399" s="8"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
@@ -11901,7 +11932,7 @@
     <row r="400" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="8"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
@@ -11928,7 +11959,7 @@
     <row r="401" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
+      <c r="D401" s="8"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
@@ -11955,7 +11986,7 @@
     <row r="402" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
+      <c r="D402" s="8"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
@@ -11982,7 +12013,7 @@
     <row r="403" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
+      <c r="D403" s="8"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
@@ -12009,7 +12040,7 @@
     <row r="404" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
+      <c r="D404" s="8"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
@@ -12036,7 +12067,7 @@
     <row r="405" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="8"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
@@ -12063,7 +12094,7 @@
     <row r="406" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="D406" s="8"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
@@ -12090,7 +12121,7 @@
     <row r="407" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="D407" s="8"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
@@ -12117,7 +12148,7 @@
     <row r="408" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="8"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
@@ -12144,7 +12175,7 @@
     <row r="409" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="D409" s="8"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
@@ -12171,7 +12202,7 @@
     <row r="410" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="D410" s="8"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
@@ -12198,7 +12229,7 @@
     <row r="411" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="D411" s="8"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
@@ -12225,7 +12256,7 @@
     <row r="412" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="D412" s="8"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
@@ -12252,7 +12283,7 @@
     <row r="413" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="D413" s="8"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
@@ -12279,7 +12310,7 @@
     <row r="414" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="D414" s="8"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
@@ -12306,7 +12337,7 @@
     <row r="415" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="D415" s="8"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
@@ -12333,7 +12364,7 @@
     <row r="416" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="D416" s="8"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
@@ -12360,7 +12391,7 @@
     <row r="417" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="D417" s="8"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -12387,7 +12418,7 @@
     <row r="418" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="D418" s="8"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -12414,7 +12445,7 @@
     <row r="419" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="8"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
@@ -12441,7 +12472,7 @@
     <row r="420" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
+      <c r="D420" s="8"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
@@ -12468,7 +12499,7 @@
     <row r="421" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
+      <c r="D421" s="8"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -12495,7 +12526,7 @@
     <row r="422" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
+      <c r="D422" s="8"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -12522,7 +12553,7 @@
     <row r="423" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="D423" s="8"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
@@ -12549,7 +12580,7 @@
     <row r="424" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="D424" s="8"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
@@ -12576,7 +12607,7 @@
     <row r="425" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="D425" s="8"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -12603,7 +12634,7 @@
     <row r="426" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="D426" s="8"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
@@ -12630,7 +12661,7 @@
     <row r="427" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="D427" s="8"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -12657,7 +12688,7 @@
     <row r="428" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="D428" s="8"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -12684,7 +12715,7 @@
     <row r="429" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="D429" s="8"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -12711,7 +12742,7 @@
     <row r="430" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="D430" s="8"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -12738,7 +12769,7 @@
     <row r="431" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="D431" s="8"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
@@ -12765,7 +12796,7 @@
     <row r="432" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="D432" s="8"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
@@ -12792,7 +12823,7 @@
     <row r="433" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="D433" s="8"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
@@ -12819,7 +12850,7 @@
     <row r="434" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="D434" s="8"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
@@ -12846,7 +12877,7 @@
     <row r="435" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="D435" s="8"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
@@ -12873,7 +12904,7 @@
     <row r="436" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="D436" s="8"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
@@ -12900,7 +12931,7 @@
     <row r="437" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="D437" s="8"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
@@ -12927,7 +12958,7 @@
     <row r="438" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="D438" s="8"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
@@ -12954,7 +12985,7 @@
     <row r="439" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="D439" s="8"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -12981,7 +13012,7 @@
     <row r="440" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="D440" s="8"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -13008,7 +13039,7 @@
     <row r="441" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="D441" s="8"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
@@ -13035,7 +13066,7 @@
     <row r="442" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="D442" s="8"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
@@ -13062,7 +13093,7 @@
     <row r="443" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="D443" s="8"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
@@ -13089,7 +13120,7 @@
     <row r="444" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="D444" s="8"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
@@ -13116,7 +13147,7 @@
     <row r="445" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="D445" s="8"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
@@ -13143,7 +13174,7 @@
     <row r="446" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="D446" s="8"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
@@ -13170,7 +13201,7 @@
     <row r="447" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="D447" s="8"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
@@ -13197,7 +13228,7 @@
     <row r="448" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="8"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
@@ -13224,7 +13255,7 @@
     <row r="449" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="D449" s="8"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
@@ -13251,7 +13282,7 @@
     <row r="450" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
+      <c r="D450" s="8"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
@@ -13278,7 +13309,7 @@
     <row r="451" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="D451" s="8"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
@@ -13305,7 +13336,7 @@
     <row r="452" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="D452" s="8"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
@@ -13332,7 +13363,7 @@
     <row r="453" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="D453" s="8"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
@@ -13359,7 +13390,7 @@
     <row r="454" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
+      <c r="D454" s="8"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -13386,7 +13417,7 @@
     <row r="455" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="D455" s="8"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -13413,7 +13444,7 @@
     <row r="456" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="D456" s="8"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
@@ -13440,7 +13471,7 @@
     <row r="457" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="D457" s="8"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
@@ -13467,7 +13498,7 @@
     <row r="458" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="D458" s="8"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -13494,7 +13525,7 @@
     <row r="459" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="D459" s="8"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
@@ -13521,7 +13552,7 @@
     <row r="460" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="D460" s="8"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -13548,7 +13579,7 @@
     <row r="461" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="D461" s="8"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
@@ -13575,7 +13606,7 @@
     <row r="462" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="D462" s="8"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -13602,7 +13633,7 @@
     <row r="463" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="D463" s="8"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
@@ -13629,7 +13660,7 @@
     <row r="464" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="D464" s="8"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -13656,7 +13687,7 @@
     <row r="465" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="D465" s="8"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
@@ -13683,7 +13714,7 @@
     <row r="466" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="D466" s="8"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
@@ -13710,7 +13741,7 @@
     <row r="467" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
+      <c r="D467" s="8"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
@@ -13737,7 +13768,7 @@
     <row r="468" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
+      <c r="D468" s="8"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
@@ -13764,7 +13795,7 @@
     <row r="469" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
+      <c r="D469" s="8"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
@@ -13791,7 +13822,7 @@
     <row r="470" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
+      <c r="D470" s="8"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
@@ -13818,7 +13849,7 @@
     <row r="471" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
+      <c r="D471" s="8"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
@@ -13845,7 +13876,7 @@
     <row r="472" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
+      <c r="D472" s="8"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -13872,7 +13903,7 @@
     <row r="473" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
+      <c r="D473" s="8"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
@@ -13899,7 +13930,7 @@
     <row r="474" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
+      <c r="D474" s="8"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
@@ -13926,7 +13957,7 @@
     <row r="475" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
+      <c r="D475" s="8"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
@@ -13953,7 +13984,7 @@
     <row r="476" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="C476" s="4"/>
-      <c r="D476" s="4"/>
+      <c r="D476" s="8"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
@@ -13980,7 +14011,7 @@
     <row r="477" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
+      <c r="D477" s="8"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -14007,7 +14038,7 @@
     <row r="478" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
+      <c r="D478" s="8"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -14034,7 +14065,7 @@
     <row r="479" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
+      <c r="D479" s="8"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
@@ -14061,7 +14092,7 @@
     <row r="480" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
+      <c r="D480" s="8"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
@@ -14088,7 +14119,7 @@
     <row r="481" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
+      <c r="D481" s="8"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
@@ -14115,7 +14146,7 @@
     <row r="482" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
+      <c r="D482" s="8"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
@@ -14142,7 +14173,7 @@
     <row r="483" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
+      <c r="D483" s="8"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -14169,7 +14200,7 @@
     <row r="484" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
+      <c r="D484" s="8"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
@@ -14196,7 +14227,7 @@
     <row r="485" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
+      <c r="D485" s="8"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
@@ -14223,7 +14254,7 @@
     <row r="486" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
+      <c r="D486" s="8"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
@@ -14250,7 +14281,7 @@
     <row r="487" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
+      <c r="D487" s="8"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -14277,7 +14308,7 @@
     <row r="488" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
+      <c r="D488" s="8"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
@@ -14304,7 +14335,7 @@
     <row r="489" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
+      <c r="D489" s="8"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -14331,7 +14362,7 @@
     <row r="490" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
+      <c r="D490" s="8"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
@@ -14358,7 +14389,7 @@
     <row r="491" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
+      <c r="D491" s="8"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
@@ -14385,7 +14416,7 @@
     <row r="492" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="C492" s="4"/>
-      <c r="D492" s="4"/>
+      <c r="D492" s="8"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -14412,7 +14443,7 @@
     <row r="493" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
+      <c r="D493" s="8"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
@@ -14439,7 +14470,7 @@
     <row r="494" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
+      <c r="D494" s="8"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -14466,7 +14497,7 @@
     <row r="495" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="C495" s="4"/>
-      <c r="D495" s="4"/>
+      <c r="D495" s="8"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -14493,7 +14524,7 @@
     <row r="496" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="C496" s="4"/>
-      <c r="D496" s="4"/>
+      <c r="D496" s="8"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
@@ -14520,7 +14551,7 @@
     <row r="497" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="C497" s="4"/>
-      <c r="D497" s="4"/>
+      <c r="D497" s="8"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
@@ -14547,7 +14578,7 @@
     <row r="498" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="C498" s="4"/>
-      <c r="D498" s="4"/>
+      <c r="D498" s="8"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
@@ -14574,7 +14605,7 @@
     <row r="499" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
+      <c r="D499" s="8"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -14601,7 +14632,7 @@
     <row r="500" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
+      <c r="D500" s="8"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
@@ -14628,7 +14659,7 @@
     <row r="501" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="C501" s="4"/>
-      <c r="D501" s="4"/>
+      <c r="D501" s="8"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
@@ -14655,7 +14686,7 @@
     <row r="502" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
+      <c r="D502" s="8"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
@@ -14682,7 +14713,7 @@
     <row r="503" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
+      <c r="D503" s="8"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
@@ -14709,7 +14740,7 @@
     <row r="504" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="C504" s="4"/>
-      <c r="D504" s="4"/>
+      <c r="D504" s="8"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
@@ -14736,7 +14767,7 @@
     <row r="505" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
+      <c r="D505" s="8"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
@@ -14763,7 +14794,7 @@
     <row r="506" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
+      <c r="D506" s="8"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
@@ -14790,7 +14821,7 @@
     <row r="507" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
+      <c r="D507" s="8"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
@@ -14817,7 +14848,7 @@
     <row r="508" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="C508" s="4"/>
-      <c r="D508" s="4"/>
+      <c r="D508" s="8"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
@@ -14844,7 +14875,7 @@
     <row r="509" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="C509" s="4"/>
-      <c r="D509" s="4"/>
+      <c r="D509" s="8"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
@@ -14871,7 +14902,7 @@
     <row r="510" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="C510" s="4"/>
-      <c r="D510" s="4"/>
+      <c r="D510" s="8"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
@@ -14898,7 +14929,7 @@
     <row r="511" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
+      <c r="D511" s="8"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
@@ -14925,7 +14956,7 @@
     <row r="512" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="C512" s="4"/>
-      <c r="D512" s="4"/>
+      <c r="D512" s="8"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
@@ -14952,7 +14983,7 @@
     <row r="513" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="C513" s="4"/>
-      <c r="D513" s="4"/>
+      <c r="D513" s="8"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
@@ -14979,7 +15010,7 @@
     <row r="514" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
+      <c r="D514" s="8"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
@@ -15006,7 +15037,7 @@
     <row r="515" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
+      <c r="D515" s="8"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
@@ -15033,7 +15064,7 @@
     <row r="516" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
+      <c r="D516" s="8"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
@@ -15060,7 +15091,7 @@
     <row r="517" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="C517" s="4"/>
-      <c r="D517" s="4"/>
+      <c r="D517" s="8"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
@@ -15087,7 +15118,7 @@
     <row r="518" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="C518" s="4"/>
-      <c r="D518" s="4"/>
+      <c r="D518" s="8"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
@@ -15114,7 +15145,7 @@
     <row r="519" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="C519" s="4"/>
-      <c r="D519" s="4"/>
+      <c r="D519" s="8"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
@@ -15141,7 +15172,7 @@
     <row r="520" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="C520" s="4"/>
-      <c r="D520" s="4"/>
+      <c r="D520" s="8"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
@@ -15168,7 +15199,7 @@
     <row r="521" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
+      <c r="D521" s="8"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
@@ -15195,7 +15226,7 @@
     <row r="522" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
+      <c r="D522" s="8"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
@@ -15222,7 +15253,7 @@
     <row r="523" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="C523" s="4"/>
-      <c r="D523" s="4"/>
+      <c r="D523" s="8"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
@@ -15249,7 +15280,7 @@
     <row r="524" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="C524" s="4"/>
-      <c r="D524" s="4"/>
+      <c r="D524" s="8"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
@@ -15276,7 +15307,7 @@
     <row r="525" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="C525" s="4"/>
-      <c r="D525" s="4"/>
+      <c r="D525" s="8"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
@@ -15303,7 +15334,7 @@
     <row r="526" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
+      <c r="D526" s="8"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
@@ -15330,7 +15361,7 @@
     <row r="527" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="4"/>
+      <c r="D527" s="8"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
@@ -15357,7 +15388,7 @@
     <row r="528" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="C528" s="4"/>
-      <c r="D528" s="4"/>
+      <c r="D528" s="8"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
@@ -15384,7 +15415,7 @@
     <row r="529" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
+      <c r="D529" s="8"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
@@ -15411,7 +15442,7 @@
     <row r="530" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
+      <c r="D530" s="8"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
@@ -15438,7 +15469,7 @@
     <row r="531" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="C531" s="4"/>
-      <c r="D531" s="4"/>
+      <c r="D531" s="8"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
@@ -15465,7 +15496,7 @@
     <row r="532" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="C532" s="4"/>
-      <c r="D532" s="4"/>
+      <c r="D532" s="8"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -15492,7 +15523,7 @@
     <row r="533" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="C533" s="4"/>
-      <c r="D533" s="4"/>
+      <c r="D533" s="8"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
@@ -15519,7 +15550,7 @@
     <row r="534" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
+      <c r="D534" s="8"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
@@ -15546,7 +15577,7 @@
     <row r="535" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
+      <c r="D535" s="8"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
@@ -15573,7 +15604,7 @@
     <row r="536" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
+      <c r="D536" s="8"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
@@ -15600,7 +15631,7 @@
     <row r="537" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
+      <c r="D537" s="8"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
@@ -15627,7 +15658,7 @@
     <row r="538" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
+      <c r="D538" s="8"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
@@ -15654,7 +15685,7 @@
     <row r="539" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="D539" s="8"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
@@ -15681,7 +15712,7 @@
     <row r="540" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
+      <c r="D540" s="8"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
@@ -15708,7 +15739,7 @@
     <row r="541" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
+      <c r="D541" s="8"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -15735,7 +15766,7 @@
     <row r="542" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
+      <c r="D542" s="8"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -15762,7 +15793,7 @@
     <row r="543" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="D543" s="8"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
@@ -15789,7 +15820,7 @@
     <row r="544" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="8"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -15816,7 +15847,7 @@
     <row r="545" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="D545" s="8"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
@@ -15843,7 +15874,7 @@
     <row r="546" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="D546" s="8"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
@@ -15870,7 +15901,7 @@
     <row r="547" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="D547" s="8"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
@@ -15897,7 +15928,7 @@
     <row r="548" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
+      <c r="D548" s="8"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
@@ -15924,7 +15955,7 @@
     <row r="549" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
+      <c r="D549" s="8"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
@@ -15951,7 +15982,7 @@
     <row r="550" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
+      <c r="D550" s="8"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
@@ -15978,7 +16009,7 @@
     <row r="551" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
+      <c r="D551" s="8"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
@@ -16005,7 +16036,7 @@
     <row r="552" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
+      <c r="D552" s="8"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -16032,7 +16063,7 @@
     <row r="553" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
+      <c r="D553" s="8"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -16059,7 +16090,7 @@
     <row r="554" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
+      <c r="D554" s="8"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -16086,7 +16117,7 @@
     <row r="555" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
+      <c r="D555" s="8"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
@@ -16113,7 +16144,7 @@
     <row r="556" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
+      <c r="D556" s="8"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -16140,7 +16171,7 @@
     <row r="557" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
+      <c r="D557" s="8"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
@@ -16167,7 +16198,7 @@
     <row r="558" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
+      <c r="D558" s="8"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
@@ -16194,7 +16225,7 @@
     <row r="559" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
+      <c r="D559" s="8"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
@@ -16221,7 +16252,7 @@
     <row r="560" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
+      <c r="D560" s="8"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
@@ -16248,7 +16279,7 @@
     <row r="561" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
+      <c r="D561" s="8"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
@@ -16275,7 +16306,7 @@
     <row r="562" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
+      <c r="D562" s="8"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
@@ -16302,7 +16333,7 @@
     <row r="563" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
+      <c r="D563" s="8"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
@@ -16329,7 +16360,7 @@
     <row r="564" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
+      <c r="D564" s="8"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
@@ -16356,7 +16387,7 @@
     <row r="565" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
+      <c r="D565" s="8"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
@@ -16383,7 +16414,7 @@
     <row r="566" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
+      <c r="D566" s="8"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
@@ -16410,7 +16441,7 @@
     <row r="567" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
+      <c r="D567" s="8"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -16437,7 +16468,7 @@
     <row r="568" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
+      <c r="D568" s="8"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
@@ -16464,7 +16495,7 @@
     <row r="569" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
+      <c r="D569" s="8"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
@@ -16491,7 +16522,7 @@
     <row r="570" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
+      <c r="D570" s="8"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -16518,7 +16549,7 @@
     <row r="571" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
+      <c r="D571" s="8"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
@@ -16545,7 +16576,7 @@
     <row r="572" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
+      <c r="D572" s="8"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
@@ -16572,7 +16603,7 @@
     <row r="573" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
+      <c r="D573" s="8"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
@@ -16599,7 +16630,7 @@
     <row r="574" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
+      <c r="D574" s="8"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -16626,7 +16657,7 @@
     <row r="575" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
+      <c r="D575" s="8"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
@@ -16653,7 +16684,7 @@
     <row r="576" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
+      <c r="D576" s="8"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
@@ -16680,7 +16711,7 @@
     <row r="577" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
+      <c r="D577" s="8"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
@@ -16707,7 +16738,7 @@
     <row r="578" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
+      <c r="D578" s="8"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
@@ -16734,7 +16765,7 @@
     <row r="579" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
+      <c r="D579" s="8"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -16761,7 +16792,7 @@
     <row r="580" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
+      <c r="D580" s="8"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
@@ -16788,7 +16819,7 @@
     <row r="581" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
+      <c r="D581" s="8"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -16815,7 +16846,7 @@
     <row r="582" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
+      <c r="D582" s="8"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
@@ -16842,7 +16873,7 @@
     <row r="583" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
+      <c r="D583" s="8"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
@@ -16869,7 +16900,7 @@
     <row r="584" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
+      <c r="D584" s="8"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
@@ -16896,7 +16927,7 @@
     <row r="585" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
+      <c r="D585" s="8"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
@@ -16923,7 +16954,7 @@
     <row r="586" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
+      <c r="D586" s="8"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
@@ -16950,7 +16981,7 @@
     <row r="587" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
+      <c r="D587" s="8"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
@@ -16977,7 +17008,7 @@
     <row r="588" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
+      <c r="D588" s="8"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
@@ -17004,7 +17035,7 @@
     <row r="589" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
+      <c r="D589" s="8"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -17031,7 +17062,7 @@
     <row r="590" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
+      <c r="D590" s="8"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
@@ -17058,7 +17089,7 @@
     <row r="591" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
+      <c r="D591" s="8"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
@@ -17085,7 +17116,7 @@
     <row r="592" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
+      <c r="D592" s="8"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
@@ -17112,7 +17143,7 @@
     <row r="593" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
+      <c r="D593" s="8"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
@@ -17139,7 +17170,7 @@
     <row r="594" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
+      <c r="D594" s="8"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
@@ -17166,7 +17197,7 @@
     <row r="595" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
+      <c r="D595" s="8"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
@@ -17193,7 +17224,7 @@
     <row r="596" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="C596" s="4"/>
-      <c r="D596" s="4"/>
+      <c r="D596" s="8"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -17220,7 +17251,7 @@
     <row r="597" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
+      <c r="D597" s="8"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
@@ -17247,7 +17278,7 @@
     <row r="598" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="C598" s="4"/>
-      <c r="D598" s="4"/>
+      <c r="D598" s="8"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
@@ -17274,7 +17305,7 @@
     <row r="599" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="C599" s="4"/>
-      <c r="D599" s="4"/>
+      <c r="D599" s="8"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
@@ -17301,7 +17332,7 @@
     <row r="600" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="C600" s="4"/>
-      <c r="D600" s="4"/>
+      <c r="D600" s="8"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
@@ -17328,7 +17359,7 @@
     <row r="601" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="C601" s="4"/>
-      <c r="D601" s="4"/>
+      <c r="D601" s="8"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
@@ -17355,7 +17386,7 @@
     <row r="602" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="C602" s="4"/>
-      <c r="D602" s="4"/>
+      <c r="D602" s="8"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
@@ -17382,7 +17413,7 @@
     <row r="603" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="C603" s="4"/>
-      <c r="D603" s="4"/>
+      <c r="D603" s="8"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
@@ -17409,7 +17440,7 @@
     <row r="604" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="C604" s="4"/>
-      <c r="D604" s="4"/>
+      <c r="D604" s="8"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
@@ -17436,7 +17467,7 @@
     <row r="605" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="C605" s="4"/>
-      <c r="D605" s="4"/>
+      <c r="D605" s="8"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
@@ -17463,7 +17494,7 @@
     <row r="606" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="C606" s="4"/>
-      <c r="D606" s="4"/>
+      <c r="D606" s="8"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
@@ -17490,7 +17521,7 @@
     <row r="607" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="C607" s="4"/>
-      <c r="D607" s="4"/>
+      <c r="D607" s="8"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
@@ -17517,7 +17548,7 @@
     <row r="608" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="C608" s="4"/>
-      <c r="D608" s="4"/>
+      <c r="D608" s="8"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
@@ -17544,7 +17575,7 @@
     <row r="609" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="C609" s="4"/>
-      <c r="D609" s="4"/>
+      <c r="D609" s="8"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
@@ -17571,7 +17602,7 @@
     <row r="610" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="C610" s="4"/>
-      <c r="D610" s="4"/>
+      <c r="D610" s="8"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
@@ -17598,7 +17629,7 @@
     <row r="611" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="C611" s="4"/>
-      <c r="D611" s="4"/>
+      <c r="D611" s="8"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
@@ -17625,7 +17656,7 @@
     <row r="612" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="C612" s="4"/>
-      <c r="D612" s="4"/>
+      <c r="D612" s="8"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
@@ -17652,7 +17683,7 @@
     <row r="613" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="C613" s="4"/>
-      <c r="D613" s="4"/>
+      <c r="D613" s="8"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
@@ -17679,7 +17710,7 @@
     <row r="614" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
+      <c r="D614" s="8"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
@@ -17706,7 +17737,7 @@
     <row r="615" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="C615" s="4"/>
-      <c r="D615" s="4"/>
+      <c r="D615" s="8"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
@@ -17733,7 +17764,7 @@
     <row r="616" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="C616" s="4"/>
-      <c r="D616" s="4"/>
+      <c r="D616" s="8"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
@@ -17760,7 +17791,7 @@
     <row r="617" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="C617" s="4"/>
-      <c r="D617" s="4"/>
+      <c r="D617" s="8"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
@@ -17787,7 +17818,7 @@
     <row r="618" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="C618" s="4"/>
-      <c r="D618" s="4"/>
+      <c r="D618" s="8"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
@@ -17814,7 +17845,7 @@
     <row r="619" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="C619" s="4"/>
-      <c r="D619" s="4"/>
+      <c r="D619" s="8"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
@@ -17841,7 +17872,7 @@
     <row r="620" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="C620" s="4"/>
-      <c r="D620" s="4"/>
+      <c r="D620" s="8"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
@@ -17868,7 +17899,7 @@
     <row r="621" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="C621" s="4"/>
-      <c r="D621" s="4"/>
+      <c r="D621" s="8"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
@@ -17895,7 +17926,7 @@
     <row r="622" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="C622" s="4"/>
-      <c r="D622" s="4"/>
+      <c r="D622" s="8"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
@@ -17922,7 +17953,7 @@
     <row r="623" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="C623" s="4"/>
-      <c r="D623" s="4"/>
+      <c r="D623" s="8"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -17949,7 +17980,7 @@
     <row r="624" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="C624" s="4"/>
-      <c r="D624" s="4"/>
+      <c r="D624" s="8"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
@@ -17976,7 +18007,7 @@
     <row r="625" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
+      <c r="D625" s="8"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
@@ -18003,7 +18034,7 @@
     <row r="626" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
+      <c r="D626" s="8"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
@@ -18030,7 +18061,7 @@
     <row r="627" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="C627" s="4"/>
-      <c r="D627" s="4"/>
+      <c r="D627" s="8"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
@@ -18057,7 +18088,7 @@
     <row r="628" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="C628" s="4"/>
-      <c r="D628" s="4"/>
+      <c r="D628" s="8"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
@@ -18084,7 +18115,7 @@
     <row r="629" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="C629" s="4"/>
-      <c r="D629" s="4"/>
+      <c r="D629" s="8"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
@@ -18111,7 +18142,7 @@
     <row r="630" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="C630" s="4"/>
-      <c r="D630" s="4"/>
+      <c r="D630" s="8"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
@@ -18138,7 +18169,7 @@
     <row r="631" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="C631" s="4"/>
-      <c r="D631" s="4"/>
+      <c r="D631" s="8"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
@@ -18165,7 +18196,7 @@
     <row r="632" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="C632" s="4"/>
-      <c r="D632" s="4"/>
+      <c r="D632" s="8"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
@@ -18192,7 +18223,7 @@
     <row r="633" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="C633" s="4"/>
-      <c r="D633" s="4"/>
+      <c r="D633" s="8"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
@@ -18219,7 +18250,7 @@
     <row r="634" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="C634" s="4"/>
-      <c r="D634" s="4"/>
+      <c r="D634" s="8"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
@@ -18246,7 +18277,7 @@
     <row r="635" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="C635" s="4"/>
-      <c r="D635" s="4"/>
+      <c r="D635" s="8"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
@@ -18273,7 +18304,7 @@
     <row r="636" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="C636" s="4"/>
-      <c r="D636" s="4"/>
+      <c r="D636" s="8"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
@@ -18300,7 +18331,7 @@
     <row r="637" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="C637" s="4"/>
-      <c r="D637" s="4"/>
+      <c r="D637" s="8"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
@@ -18327,7 +18358,7 @@
     <row r="638" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="C638" s="4"/>
-      <c r="D638" s="4"/>
+      <c r="D638" s="8"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
@@ -18354,7 +18385,7 @@
     <row r="639" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="C639" s="4"/>
-      <c r="D639" s="4"/>
+      <c r="D639" s="8"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
@@ -18381,7 +18412,7 @@
     <row r="640" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="C640" s="4"/>
-      <c r="D640" s="4"/>
+      <c r="D640" s="8"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
@@ -18408,7 +18439,7 @@
     <row r="641" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="C641" s="4"/>
-      <c r="D641" s="4"/>
+      <c r="D641" s="8"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
@@ -18435,7 +18466,7 @@
     <row r="642" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="C642" s="4"/>
-      <c r="D642" s="4"/>
+      <c r="D642" s="8"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
@@ -18462,7 +18493,7 @@
     <row r="643" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="C643" s="4"/>
-      <c r="D643" s="4"/>
+      <c r="D643" s="8"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
@@ -18489,7 +18520,7 @@
     <row r="644" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="C644" s="4"/>
-      <c r="D644" s="4"/>
+      <c r="D644" s="8"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
@@ -18516,7 +18547,7 @@
     <row r="645" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="C645" s="4"/>
-      <c r="D645" s="4"/>
+      <c r="D645" s="8"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
@@ -18543,7 +18574,7 @@
     <row r="646" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="C646" s="4"/>
-      <c r="D646" s="4"/>
+      <c r="D646" s="8"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
@@ -18570,7 +18601,7 @@
     <row r="647" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="C647" s="4"/>
-      <c r="D647" s="4"/>
+      <c r="D647" s="8"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
@@ -18597,7 +18628,7 @@
     <row r="648" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="C648" s="4"/>
-      <c r="D648" s="4"/>
+      <c r="D648" s="8"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
@@ -18624,7 +18655,7 @@
     <row r="649" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="C649" s="4"/>
-      <c r="D649" s="4"/>
+      <c r="D649" s="8"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
@@ -18651,7 +18682,7 @@
     <row r="650" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="C650" s="4"/>
-      <c r="D650" s="4"/>
+      <c r="D650" s="8"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
@@ -18678,7 +18709,7 @@
     <row r="651" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="C651" s="4"/>
-      <c r="D651" s="4"/>
+      <c r="D651" s="8"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
@@ -18705,7 +18736,7 @@
     <row r="652" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="C652" s="4"/>
-      <c r="D652" s="4"/>
+      <c r="D652" s="8"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
@@ -18732,7 +18763,7 @@
     <row r="653" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="C653" s="4"/>
-      <c r="D653" s="4"/>
+      <c r="D653" s="8"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
@@ -18759,7 +18790,7 @@
     <row r="654" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="C654" s="4"/>
-      <c r="D654" s="4"/>
+      <c r="D654" s="8"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
@@ -18786,7 +18817,7 @@
     <row r="655" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="C655" s="4"/>
-      <c r="D655" s="4"/>
+      <c r="D655" s="8"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
@@ -18813,7 +18844,7 @@
     <row r="656" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="C656" s="4"/>
-      <c r="D656" s="4"/>
+      <c r="D656" s="8"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
@@ -18840,7 +18871,7 @@
     <row r="657" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="C657" s="4"/>
-      <c r="D657" s="4"/>
+      <c r="D657" s="8"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
@@ -18867,7 +18898,7 @@
     <row r="658" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="C658" s="4"/>
-      <c r="D658" s="4"/>
+      <c r="D658" s="8"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
@@ -18894,7 +18925,7 @@
     <row r="659" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="C659" s="4"/>
-      <c r="D659" s="4"/>
+      <c r="D659" s="8"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
@@ -18921,7 +18952,7 @@
     <row r="660" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="C660" s="4"/>
-      <c r="D660" s="4"/>
+      <c r="D660" s="8"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
@@ -18948,7 +18979,7 @@
     <row r="661" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="C661" s="4"/>
-      <c r="D661" s="4"/>
+      <c r="D661" s="8"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
@@ -18975,7 +19006,7 @@
     <row r="662" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="C662" s="4"/>
-      <c r="D662" s="4"/>
+      <c r="D662" s="8"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
@@ -19002,7 +19033,7 @@
     <row r="663" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="C663" s="4"/>
-      <c r="D663" s="4"/>
+      <c r="D663" s="8"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
@@ -19029,7 +19060,7 @@
     <row r="664" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="C664" s="4"/>
-      <c r="D664" s="4"/>
+      <c r="D664" s="8"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
@@ -19056,7 +19087,7 @@
     <row r="665" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="C665" s="4"/>
-      <c r="D665" s="4"/>
+      <c r="D665" s="8"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
@@ -19083,7 +19114,7 @@
     <row r="666" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="C666" s="4"/>
-      <c r="D666" s="4"/>
+      <c r="D666" s="8"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
@@ -19110,7 +19141,7 @@
     <row r="667" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="C667" s="4"/>
-      <c r="D667" s="4"/>
+      <c r="D667" s="8"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
@@ -19137,7 +19168,7 @@
     <row r="668" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="C668" s="4"/>
-      <c r="D668" s="4"/>
+      <c r="D668" s="8"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
@@ -19164,7 +19195,7 @@
     <row r="669" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="C669" s="4"/>
-      <c r="D669" s="4"/>
+      <c r="D669" s="8"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
@@ -19191,7 +19222,7 @@
     <row r="670" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="C670" s="4"/>
-      <c r="D670" s="4"/>
+      <c r="D670" s="8"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
@@ -19218,7 +19249,7 @@
     <row r="671" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="C671" s="4"/>
-      <c r="D671" s="4"/>
+      <c r="D671" s="8"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
@@ -19245,7 +19276,7 @@
     <row r="672" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="C672" s="4"/>
-      <c r="D672" s="4"/>
+      <c r="D672" s="8"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
@@ -19272,7 +19303,7 @@
     <row r="673" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="C673" s="4"/>
-      <c r="D673" s="4"/>
+      <c r="D673" s="8"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
@@ -19299,7 +19330,7 @@
     <row r="674" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="C674" s="4"/>
-      <c r="D674" s="4"/>
+      <c r="D674" s="8"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
@@ -19326,7 +19357,7 @@
     <row r="675" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="C675" s="4"/>
-      <c r="D675" s="4"/>
+      <c r="D675" s="8"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
@@ -19353,7 +19384,7 @@
     <row r="676" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="C676" s="4"/>
-      <c r="D676" s="4"/>
+      <c r="D676" s="8"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
@@ -19380,7 +19411,7 @@
     <row r="677" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="C677" s="4"/>
-      <c r="D677" s="4"/>
+      <c r="D677" s="8"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
@@ -19407,7 +19438,7 @@
     <row r="678" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="C678" s="4"/>
-      <c r="D678" s="4"/>
+      <c r="D678" s="8"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
@@ -19434,7 +19465,7 @@
     <row r="679" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="C679" s="4"/>
-      <c r="D679" s="4"/>
+      <c r="D679" s="8"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
@@ -19461,7 +19492,7 @@
     <row r="680" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="C680" s="4"/>
-      <c r="D680" s="4"/>
+      <c r="D680" s="8"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
@@ -19488,7 +19519,7 @@
     <row r="681" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="C681" s="4"/>
-      <c r="D681" s="4"/>
+      <c r="D681" s="8"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
@@ -19515,7 +19546,7 @@
     <row r="682" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="C682" s="4"/>
-      <c r="D682" s="4"/>
+      <c r="D682" s="8"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
@@ -19542,7 +19573,7 @@
     <row r="683" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="C683" s="4"/>
-      <c r="D683" s="4"/>
+      <c r="D683" s="8"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
@@ -19569,7 +19600,7 @@
     <row r="684" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="C684" s="4"/>
-      <c r="D684" s="4"/>
+      <c r="D684" s="8"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
@@ -19596,7 +19627,7 @@
     <row r="685" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="C685" s="4"/>
-      <c r="D685" s="4"/>
+      <c r="D685" s="8"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -19623,7 +19654,7 @@
     <row r="686" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="C686" s="4"/>
-      <c r="D686" s="4"/>
+      <c r="D686" s="8"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -19650,7 +19681,7 @@
     <row r="687" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="C687" s="4"/>
-      <c r="D687" s="4"/>
+      <c r="D687" s="8"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -19677,7 +19708,7 @@
     <row r="688" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="C688" s="4"/>
-      <c r="D688" s="4"/>
+      <c r="D688" s="8"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
@@ -19704,7 +19735,7 @@
     <row r="689" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="C689" s="4"/>
-      <c r="D689" s="4"/>
+      <c r="D689" s="8"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
@@ -19731,7 +19762,7 @@
     <row r="690" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="C690" s="4"/>
-      <c r="D690" s="4"/>
+      <c r="D690" s="8"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
@@ -19758,7 +19789,7 @@
     <row r="691" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="C691" s="4"/>
-      <c r="D691" s="4"/>
+      <c r="D691" s="8"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
@@ -19785,7 +19816,7 @@
     <row r="692" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="C692" s="4"/>
-      <c r="D692" s="4"/>
+      <c r="D692" s="8"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
@@ -19812,7 +19843,7 @@
     <row r="693" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="C693" s="4"/>
-      <c r="D693" s="4"/>
+      <c r="D693" s="8"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
@@ -19839,7 +19870,7 @@
     <row r="694" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="C694" s="4"/>
-      <c r="D694" s="4"/>
+      <c r="D694" s="8"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -19866,7 +19897,7 @@
     <row r="695" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="C695" s="4"/>
-      <c r="D695" s="4"/>
+      <c r="D695" s="8"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -19893,7 +19924,7 @@
     <row r="696" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="C696" s="4"/>
-      <c r="D696" s="4"/>
+      <c r="D696" s="8"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -19920,7 +19951,7 @@
     <row r="697" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="C697" s="4"/>
-      <c r="D697" s="4"/>
+      <c r="D697" s="8"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -19947,7 +19978,7 @@
     <row r="698" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="C698" s="4"/>
-      <c r="D698" s="4"/>
+      <c r="D698" s="8"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -19974,7 +20005,7 @@
     <row r="699" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="C699" s="4"/>
-      <c r="D699" s="4"/>
+      <c r="D699" s="8"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -20001,7 +20032,7 @@
     <row r="700" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="C700" s="4"/>
-      <c r="D700" s="4"/>
+      <c r="D700" s="8"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
@@ -20028,7 +20059,7 @@
     <row r="701" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="C701" s="4"/>
-      <c r="D701" s="4"/>
+      <c r="D701" s="8"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
@@ -20055,7 +20086,7 @@
     <row r="702" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="C702" s="4"/>
-      <c r="D702" s="4"/>
+      <c r="D702" s="8"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
@@ -20082,7 +20113,7 @@
     <row r="703" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="C703" s="4"/>
-      <c r="D703" s="4"/>
+      <c r="D703" s="8"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -20109,7 +20140,7 @@
     <row r="704" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="C704" s="4"/>
-      <c r="D704" s="4"/>
+      <c r="D704" s="8"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -20136,7 +20167,7 @@
     <row r="705" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="C705" s="4"/>
-      <c r="D705" s="4"/>
+      <c r="D705" s="8"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -20163,7 +20194,7 @@
     <row r="706" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="C706" s="4"/>
-      <c r="D706" s="4"/>
+      <c r="D706" s="8"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -20190,7 +20221,7 @@
     <row r="707" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="C707" s="4"/>
-      <c r="D707" s="4"/>
+      <c r="D707" s="8"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
@@ -20217,7 +20248,7 @@
     <row r="708" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="C708" s="4"/>
-      <c r="D708" s="4"/>
+      <c r="D708" s="8"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
@@ -20244,7 +20275,7 @@
     <row r="709" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="C709" s="4"/>
-      <c r="D709" s="4"/>
+      <c r="D709" s="8"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
@@ -20271,7 +20302,7 @@
     <row r="710" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="C710" s="4"/>
-      <c r="D710" s="4"/>
+      <c r="D710" s="8"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
@@ -20298,7 +20329,7 @@
     <row r="711" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="C711" s="4"/>
-      <c r="D711" s="4"/>
+      <c r="D711" s="8"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
@@ -20325,7 +20356,7 @@
     <row r="712" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="C712" s="4"/>
-      <c r="D712" s="4"/>
+      <c r="D712" s="8"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
@@ -20352,7 +20383,7 @@
     <row r="713" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="C713" s="4"/>
-      <c r="D713" s="4"/>
+      <c r="D713" s="8"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -20379,7 +20410,7 @@
     <row r="714" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="C714" s="4"/>
-      <c r="D714" s="4"/>
+      <c r="D714" s="8"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -20406,7 +20437,7 @@
     <row r="715" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="C715" s="4"/>
-      <c r="D715" s="4"/>
+      <c r="D715" s="8"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -20433,7 +20464,7 @@
     <row r="716" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="C716" s="4"/>
-      <c r="D716" s="4"/>
+      <c r="D716" s="8"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -20460,7 +20491,7 @@
     <row r="717" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="C717" s="4"/>
-      <c r="D717" s="4"/>
+      <c r="D717" s="8"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -20487,7 +20518,7 @@
     <row r="718" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="C718" s="4"/>
-      <c r="D718" s="4"/>
+      <c r="D718" s="8"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -20514,7 +20545,7 @@
     <row r="719" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="C719" s="4"/>
-      <c r="D719" s="4"/>
+      <c r="D719" s="8"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
@@ -20541,7 +20572,7 @@
     <row r="720" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="C720" s="4"/>
-      <c r="D720" s="4"/>
+      <c r="D720" s="8"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
@@ -20568,7 +20599,7 @@
     <row r="721" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="C721" s="4"/>
-      <c r="D721" s="4"/>
+      <c r="D721" s="8"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
@@ -20595,7 +20626,7 @@
     <row r="722" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="C722" s="4"/>
-      <c r="D722" s="4"/>
+      <c r="D722" s="8"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -20622,7 +20653,7 @@
     <row r="723" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="C723" s="4"/>
-      <c r="D723" s="4"/>
+      <c r="D723" s="8"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
@@ -20649,7 +20680,7 @@
     <row r="724" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="C724" s="4"/>
-      <c r="D724" s="4"/>
+      <c r="D724" s="8"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -20676,7 +20707,7 @@
     <row r="725" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="C725" s="4"/>
-      <c r="D725" s="4"/>
+      <c r="D725" s="8"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
@@ -20703,7 +20734,7 @@
     <row r="726" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="C726" s="4"/>
-      <c r="D726" s="4"/>
+      <c r="D726" s="8"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -20730,7 +20761,7 @@
     <row r="727" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="C727" s="4"/>
-      <c r="D727" s="4"/>
+      <c r="D727" s="8"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -20757,7 +20788,7 @@
     <row r="728" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="C728" s="4"/>
-      <c r="D728" s="4"/>
+      <c r="D728" s="8"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -20784,7 +20815,7 @@
     <row r="729" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
+      <c r="D729" s="8"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
@@ -20811,7 +20842,7 @@
     <row r="730" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="C730" s="4"/>
-      <c r="D730" s="4"/>
+      <c r="D730" s="8"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
@@ -20838,7 +20869,7 @@
     <row r="731" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="C731" s="4"/>
-      <c r="D731" s="4"/>
+      <c r="D731" s="8"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
@@ -20865,7 +20896,7 @@
     <row r="732" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="C732" s="4"/>
-      <c r="D732" s="4"/>
+      <c r="D732" s="8"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
@@ -20892,7 +20923,7 @@
     <row r="733" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="C733" s="4"/>
-      <c r="D733" s="4"/>
+      <c r="D733" s="8"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
@@ -20919,7 +20950,7 @@
     <row r="734" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="C734" s="4"/>
-      <c r="D734" s="4"/>
+      <c r="D734" s="8"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
@@ -20946,7 +20977,7 @@
     <row r="735" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="C735" s="4"/>
-      <c r="D735" s="4"/>
+      <c r="D735" s="8"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
@@ -20973,7 +21004,7 @@
     <row r="736" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="C736" s="4"/>
-      <c r="D736" s="4"/>
+      <c r="D736" s="8"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -21000,7 +21031,7 @@
     <row r="737" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="C737" s="4"/>
-      <c r="D737" s="4"/>
+      <c r="D737" s="8"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
@@ -21027,7 +21058,7 @@
     <row r="738" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="C738" s="4"/>
-      <c r="D738" s="4"/>
+      <c r="D738" s="8"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
@@ -21054,7 +21085,7 @@
     <row r="739" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="C739" s="4"/>
-      <c r="D739" s="4"/>
+      <c r="D739" s="8"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
@@ -21081,7 +21112,7 @@
     <row r="740" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="C740" s="4"/>
-      <c r="D740" s="4"/>
+      <c r="D740" s="8"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
@@ -21108,7 +21139,7 @@
     <row r="741" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="C741" s="4"/>
-      <c r="D741" s="4"/>
+      <c r="D741" s="8"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
@@ -21135,7 +21166,7 @@
     <row r="742" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="C742" s="4"/>
-      <c r="D742" s="4"/>
+      <c r="D742" s="8"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
@@ -21162,7 +21193,7 @@
     <row r="743" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="C743" s="4"/>
-      <c r="D743" s="4"/>
+      <c r="D743" s="8"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
@@ -21189,7 +21220,7 @@
     <row r="744" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="C744" s="4"/>
-      <c r="D744" s="4"/>
+      <c r="D744" s="8"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
@@ -21216,7 +21247,7 @@
     <row r="745" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="C745" s="4"/>
-      <c r="D745" s="4"/>
+      <c r="D745" s="8"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
@@ -21243,7 +21274,7 @@
     <row r="746" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="C746" s="4"/>
-      <c r="D746" s="4"/>
+      <c r="D746" s="8"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -21270,7 +21301,7 @@
     <row r="747" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="C747" s="4"/>
-      <c r="D747" s="4"/>
+      <c r="D747" s="8"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -21297,7 +21328,7 @@
     <row r="748" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="C748" s="4"/>
-      <c r="D748" s="4"/>
+      <c r="D748" s="8"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -21324,7 +21355,7 @@
     <row r="749" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="C749" s="4"/>
-      <c r="D749" s="4"/>
+      <c r="D749" s="8"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -21351,7 +21382,7 @@
     <row r="750" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="C750" s="4"/>
-      <c r="D750" s="4"/>
+      <c r="D750" s="8"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -21378,7 +21409,7 @@
     <row r="751" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="C751" s="4"/>
-      <c r="D751" s="4"/>
+      <c r="D751" s="8"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -21405,7 +21436,7 @@
     <row r="752" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="C752" s="4"/>
-      <c r="D752" s="4"/>
+      <c r="D752" s="8"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -21432,7 +21463,7 @@
     <row r="753" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="C753" s="4"/>
-      <c r="D753" s="4"/>
+      <c r="D753" s="8"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
@@ -21459,7 +21490,7 @@
     <row r="754" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="C754" s="4"/>
-      <c r="D754" s="4"/>
+      <c r="D754" s="8"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
@@ -21486,7 +21517,7 @@
     <row r="755" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="C755" s="4"/>
-      <c r="D755" s="4"/>
+      <c r="D755" s="8"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
@@ -21513,7 +21544,7 @@
     <row r="756" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="C756" s="4"/>
-      <c r="D756" s="4"/>
+      <c r="D756" s="8"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
@@ -21540,7 +21571,7 @@
     <row r="757" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="C757" s="4"/>
-      <c r="D757" s="4"/>
+      <c r="D757" s="8"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
@@ -21567,7 +21598,7 @@
     <row r="758" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="C758" s="4"/>
-      <c r="D758" s="4"/>
+      <c r="D758" s="8"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
@@ -21594,7 +21625,7 @@
     <row r="759" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="C759" s="4"/>
-      <c r="D759" s="4"/>
+      <c r="D759" s="8"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
@@ -21621,7 +21652,7 @@
     <row r="760" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="C760" s="4"/>
-      <c r="D760" s="4"/>
+      <c r="D760" s="8"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
@@ -21648,7 +21679,7 @@
     <row r="761" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="C761" s="4"/>
-      <c r="D761" s="4"/>
+      <c r="D761" s="8"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
@@ -21675,7 +21706,7 @@
     <row r="762" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="C762" s="4"/>
-      <c r="D762" s="4"/>
+      <c r="D762" s="8"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
@@ -21702,7 +21733,7 @@
     <row r="763" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="C763" s="4"/>
-      <c r="D763" s="4"/>
+      <c r="D763" s="8"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
@@ -21729,7 +21760,7 @@
     <row r="764" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="C764" s="4"/>
-      <c r="D764" s="4"/>
+      <c r="D764" s="8"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
@@ -21756,7 +21787,7 @@
     <row r="765" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="C765" s="4"/>
-      <c r="D765" s="4"/>
+      <c r="D765" s="8"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
@@ -21783,7 +21814,7 @@
     <row r="766" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="C766" s="4"/>
-      <c r="D766" s="4"/>
+      <c r="D766" s="8"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
@@ -21810,7 +21841,7 @@
     <row r="767" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="C767" s="4"/>
-      <c r="D767" s="4"/>
+      <c r="D767" s="8"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
@@ -21837,7 +21868,7 @@
     <row r="768" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="C768" s="4"/>
-      <c r="D768" s="4"/>
+      <c r="D768" s="8"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
@@ -21864,7 +21895,7 @@
     <row r="769" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="C769" s="4"/>
-      <c r="D769" s="4"/>
+      <c r="D769" s="8"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
@@ -21891,7 +21922,7 @@
     <row r="770" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="C770" s="4"/>
-      <c r="D770" s="4"/>
+      <c r="D770" s="8"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
@@ -21918,7 +21949,7 @@
     <row r="771" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="C771" s="4"/>
-      <c r="D771" s="4"/>
+      <c r="D771" s="8"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
@@ -21945,7 +21976,7 @@
     <row r="772" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="C772" s="4"/>
-      <c r="D772" s="4"/>
+      <c r="D772" s="8"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
@@ -21972,7 +22003,7 @@
     <row r="773" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="C773" s="4"/>
-      <c r="D773" s="4"/>
+      <c r="D773" s="8"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
@@ -21999,7 +22030,7 @@
     <row r="774" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="C774" s="4"/>
-      <c r="D774" s="4"/>
+      <c r="D774" s="8"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
@@ -22026,7 +22057,7 @@
     <row r="775" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="C775" s="4"/>
-      <c r="D775" s="4"/>
+      <c r="D775" s="8"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
@@ -22053,7 +22084,7 @@
     <row r="776" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="C776" s="4"/>
-      <c r="D776" s="4"/>
+      <c r="D776" s="8"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
@@ -22080,7 +22111,7 @@
     <row r="777" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="C777" s="4"/>
-      <c r="D777" s="4"/>
+      <c r="D777" s="8"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
@@ -22107,7 +22138,7 @@
     <row r="778" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="C778" s="4"/>
-      <c r="D778" s="4"/>
+      <c r="D778" s="8"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
@@ -22134,7 +22165,7 @@
     <row r="779" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="C779" s="4"/>
-      <c r="D779" s="4"/>
+      <c r="D779" s="8"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
@@ -22161,7 +22192,7 @@
     <row r="780" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="C780" s="4"/>
-      <c r="D780" s="4"/>
+      <c r="D780" s="8"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
@@ -22188,7 +22219,7 @@
     <row r="781" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="C781" s="4"/>
-      <c r="D781" s="4"/>
+      <c r="D781" s="8"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
@@ -22215,7 +22246,7 @@
     <row r="782" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="C782" s="4"/>
-      <c r="D782" s="4"/>
+      <c r="D782" s="8"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
@@ -22242,7 +22273,7 @@
     <row r="783" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="C783" s="4"/>
-      <c r="D783" s="4"/>
+      <c r="D783" s="8"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
@@ -22269,7 +22300,7 @@
     <row r="784" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="C784" s="4"/>
-      <c r="D784" s="4"/>
+      <c r="D784" s="8"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
@@ -22296,7 +22327,7 @@
     <row r="785" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="C785" s="4"/>
-      <c r="D785" s="4"/>
+      <c r="D785" s="8"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
@@ -22323,7 +22354,7 @@
     <row r="786" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="C786" s="4"/>
-      <c r="D786" s="4"/>
+      <c r="D786" s="8"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
@@ -22350,7 +22381,7 @@
     <row r="787" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="C787" s="4"/>
-      <c r="D787" s="4"/>
+      <c r="D787" s="8"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
@@ -22377,7 +22408,7 @@
     <row r="788" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="C788" s="4"/>
-      <c r="D788" s="4"/>
+      <c r="D788" s="8"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
@@ -22404,7 +22435,7 @@
     <row r="789" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="C789" s="4"/>
-      <c r="D789" s="4"/>
+      <c r="D789" s="8"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
@@ -22431,7 +22462,7 @@
     <row r="790" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="C790" s="4"/>
-      <c r="D790" s="4"/>
+      <c r="D790" s="8"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
@@ -22458,7 +22489,7 @@
     <row r="791" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="C791" s="4"/>
-      <c r="D791" s="4"/>
+      <c r="D791" s="8"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
@@ -22485,7 +22516,7 @@
     <row r="792" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="C792" s="4"/>
-      <c r="D792" s="4"/>
+      <c r="D792" s="8"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
@@ -22512,7 +22543,7 @@
     <row r="793" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="C793" s="4"/>
-      <c r="D793" s="4"/>
+      <c r="D793" s="8"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
@@ -22539,7 +22570,7 @@
     <row r="794" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="C794" s="4"/>
-      <c r="D794" s="4"/>
+      <c r="D794" s="8"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
@@ -22566,7 +22597,7 @@
     <row r="795" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="C795" s="4"/>
-      <c r="D795" s="4"/>
+      <c r="D795" s="8"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
@@ -22593,7 +22624,7 @@
     <row r="796" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="C796" s="4"/>
-      <c r="D796" s="4"/>
+      <c r="D796" s="8"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
@@ -22620,7 +22651,7 @@
     <row r="797" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="C797" s="4"/>
-      <c r="D797" s="4"/>
+      <c r="D797" s="8"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
@@ -22647,7 +22678,7 @@
     <row r="798" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="C798" s="4"/>
-      <c r="D798" s="4"/>
+      <c r="D798" s="8"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
@@ -22674,7 +22705,7 @@
     <row r="799" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
+      <c r="D799" s="8"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
@@ -22701,7 +22732,7 @@
     <row r="800" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="C800" s="4"/>
-      <c r="D800" s="4"/>
+      <c r="D800" s="8"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
@@ -22728,7 +22759,7 @@
     <row r="801" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="C801" s="4"/>
-      <c r="D801" s="4"/>
+      <c r="D801" s="8"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
@@ -22755,7 +22786,7 @@
     <row r="802" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="C802" s="4"/>
-      <c r="D802" s="4"/>
+      <c r="D802" s="8"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
@@ -22782,7 +22813,7 @@
     <row r="803" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="C803" s="4"/>
-      <c r="D803" s="4"/>
+      <c r="D803" s="8"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
@@ -22809,7 +22840,7 @@
     <row r="804" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="C804" s="4"/>
-      <c r="D804" s="4"/>
+      <c r="D804" s="8"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
@@ -22836,7 +22867,7 @@
     <row r="805" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="C805" s="4"/>
-      <c r="D805" s="4"/>
+      <c r="D805" s="8"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
@@ -22863,7 +22894,7 @@
     <row r="806" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="C806" s="4"/>
-      <c r="D806" s="4"/>
+      <c r="D806" s="8"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
@@ -22890,7 +22921,7 @@
     <row r="807" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="C807" s="4"/>
-      <c r="D807" s="4"/>
+      <c r="D807" s="8"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
@@ -22917,7 +22948,7 @@
     <row r="808" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="C808" s="4"/>
-      <c r="D808" s="4"/>
+      <c r="D808" s="8"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
@@ -22944,7 +22975,7 @@
     <row r="809" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="C809" s="4"/>
-      <c r="D809" s="4"/>
+      <c r="D809" s="8"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
@@ -22971,7 +23002,7 @@
     <row r="810" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="C810" s="4"/>
-      <c r="D810" s="4"/>
+      <c r="D810" s="8"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
@@ -22998,7 +23029,7 @@
     <row r="811" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="C811" s="4"/>
-      <c r="D811" s="4"/>
+      <c r="D811" s="8"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
@@ -23025,7 +23056,7 @@
     <row r="812" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="C812" s="4"/>
-      <c r="D812" s="4"/>
+      <c r="D812" s="8"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
@@ -23052,7 +23083,7 @@
     <row r="813" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="C813" s="4"/>
-      <c r="D813" s="4"/>
+      <c r="D813" s="8"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
@@ -23079,7 +23110,7 @@
     <row r="814" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="C814" s="4"/>
-      <c r="D814" s="4"/>
+      <c r="D814" s="8"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
@@ -23106,7 +23137,7 @@
     <row r="815" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="C815" s="4"/>
-      <c r="D815" s="4"/>
+      <c r="D815" s="8"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
@@ -23133,7 +23164,7 @@
     <row r="816" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="C816" s="4"/>
-      <c r="D816" s="4"/>
+      <c r="D816" s="8"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
@@ -23160,7 +23191,7 @@
     <row r="817" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="C817" s="4"/>
-      <c r="D817" s="4"/>
+      <c r="D817" s="8"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
@@ -23187,7 +23218,7 @@
     <row r="818" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="C818" s="4"/>
-      <c r="D818" s="4"/>
+      <c r="D818" s="8"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
@@ -23214,7 +23245,7 @@
     <row r="819" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="C819" s="4"/>
-      <c r="D819" s="4"/>
+      <c r="D819" s="8"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
@@ -23241,7 +23272,7 @@
     <row r="820" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="C820" s="4"/>
-      <c r="D820" s="4"/>
+      <c r="D820" s="8"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
@@ -23268,7 +23299,7 @@
     <row r="821" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="C821" s="4"/>
-      <c r="D821" s="4"/>
+      <c r="D821" s="8"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
@@ -23295,7 +23326,7 @@
     <row r="822" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="C822" s="4"/>
-      <c r="D822" s="4"/>
+      <c r="D822" s="8"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
@@ -23322,7 +23353,7 @@
     <row r="823" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="C823" s="4"/>
-      <c r="D823" s="4"/>
+      <c r="D823" s="8"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
@@ -23349,7 +23380,7 @@
     <row r="824" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="C824" s="4"/>
-      <c r="D824" s="4"/>
+      <c r="D824" s="8"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
@@ -23376,7 +23407,7 @@
     <row r="825" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="C825" s="4"/>
-      <c r="D825" s="4"/>
+      <c r="D825" s="8"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
@@ -23403,7 +23434,7 @@
     <row r="826" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="C826" s="4"/>
-      <c r="D826" s="4"/>
+      <c r="D826" s="8"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
@@ -23430,7 +23461,7 @@
     <row r="827" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="C827" s="4"/>
-      <c r="D827" s="4"/>
+      <c r="D827" s="8"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
@@ -23457,7 +23488,7 @@
     <row r="828" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="C828" s="4"/>
-      <c r="D828" s="4"/>
+      <c r="D828" s="8"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
@@ -23484,7 +23515,7 @@
     <row r="829" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="C829" s="4"/>
-      <c r="D829" s="4"/>
+      <c r="D829" s="8"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
@@ -23511,7 +23542,7 @@
     <row r="830" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="C830" s="4"/>
-      <c r="D830" s="4"/>
+      <c r="D830" s="8"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
@@ -23538,7 +23569,7 @@
     <row r="831" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="C831" s="4"/>
-      <c r="D831" s="4"/>
+      <c r="D831" s="8"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
@@ -23565,7 +23596,7 @@
     <row r="832" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="C832" s="4"/>
-      <c r="D832" s="4"/>
+      <c r="D832" s="8"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
@@ -23592,7 +23623,7 @@
     <row r="833" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="C833" s="4"/>
-      <c r="D833" s="4"/>
+      <c r="D833" s="8"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
@@ -23619,7 +23650,7 @@
     <row r="834" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="C834" s="4"/>
-      <c r="D834" s="4"/>
+      <c r="D834" s="8"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
@@ -23646,7 +23677,7 @@
     <row r="835" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="C835" s="4"/>
-      <c r="D835" s="4"/>
+      <c r="D835" s="8"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
@@ -23673,7 +23704,7 @@
     <row r="836" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="C836" s="4"/>
-      <c r="D836" s="4"/>
+      <c r="D836" s="8"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
@@ -23700,7 +23731,7 @@
     <row r="837" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="C837" s="4"/>
-      <c r="D837" s="4"/>
+      <c r="D837" s="8"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
@@ -23727,7 +23758,7 @@
     <row r="838" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="C838" s="4"/>
-      <c r="D838" s="4"/>
+      <c r="D838" s="8"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
@@ -23754,7 +23785,7 @@
     <row r="839" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="C839" s="4"/>
-      <c r="D839" s="4"/>
+      <c r="D839" s="8"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
@@ -23781,7 +23812,7 @@
     <row r="840" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="C840" s="4"/>
-      <c r="D840" s="4"/>
+      <c r="D840" s="8"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
@@ -23808,7 +23839,7 @@
     <row r="841" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="C841" s="4"/>
-      <c r="D841" s="4"/>
+      <c r="D841" s="8"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
@@ -23835,7 +23866,7 @@
     <row r="842" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="C842" s="4"/>
-      <c r="D842" s="4"/>
+      <c r="D842" s="8"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
@@ -23862,7 +23893,7 @@
     <row r="843" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="C843" s="4"/>
-      <c r="D843" s="4"/>
+      <c r="D843" s="8"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
@@ -23889,7 +23920,7 @@
     <row r="844" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="C844" s="4"/>
-      <c r="D844" s="4"/>
+      <c r="D844" s="8"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
@@ -23916,7 +23947,7 @@
     <row r="845" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="C845" s="4"/>
-      <c r="D845" s="4"/>
+      <c r="D845" s="8"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
@@ -23943,7 +23974,7 @@
     <row r="846" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="C846" s="4"/>
-      <c r="D846" s="4"/>
+      <c r="D846" s="8"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
@@ -23970,7 +24001,7 @@
     <row r="847" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
+      <c r="D847" s="8"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
@@ -23997,7 +24028,7 @@
     <row r="848" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
+      <c r="D848" s="8"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
@@ -24024,7 +24055,7 @@
     <row r="849" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
+      <c r="D849" s="8"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
@@ -24051,7 +24082,7 @@
     <row r="850" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
+      <c r="D850" s="8"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
@@ -24078,7 +24109,7 @@
     <row r="851" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="C851" s="4"/>
-      <c r="D851" s="4"/>
+      <c r="D851" s="8"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
@@ -24105,7 +24136,7 @@
     <row r="852" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="C852" s="4"/>
-      <c r="D852" s="4"/>
+      <c r="D852" s="8"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
@@ -24132,7 +24163,7 @@
     <row r="853" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="C853" s="4"/>
-      <c r="D853" s="4"/>
+      <c r="D853" s="8"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
@@ -24159,7 +24190,7 @@
     <row r="854" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="C854" s="4"/>
-      <c r="D854" s="4"/>
+      <c r="D854" s="8"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
@@ -24186,7 +24217,7 @@
     <row r="855" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="C855" s="4"/>
-      <c r="D855" s="4"/>
+      <c r="D855" s="8"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
@@ -24213,7 +24244,7 @@
     <row r="856" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="C856" s="4"/>
-      <c r="D856" s="4"/>
+      <c r="D856" s="8"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
@@ -24240,7 +24271,7 @@
     <row r="857" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="C857" s="4"/>
-      <c r="D857" s="4"/>
+      <c r="D857" s="8"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
@@ -24267,7 +24298,7 @@
     <row r="858" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="C858" s="4"/>
-      <c r="D858" s="4"/>
+      <c r="D858" s="8"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
@@ -24294,7 +24325,7 @@
     <row r="859" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="C859" s="4"/>
-      <c r="D859" s="4"/>
+      <c r="D859" s="8"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
@@ -24321,7 +24352,7 @@
     <row r="860" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="C860" s="4"/>
-      <c r="D860" s="4"/>
+      <c r="D860" s="8"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
@@ -24348,7 +24379,7 @@
     <row r="861" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="C861" s="4"/>
-      <c r="D861" s="4"/>
+      <c r="D861" s="8"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
@@ -24375,7 +24406,7 @@
     <row r="862" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="C862" s="4"/>
-      <c r="D862" s="4"/>
+      <c r="D862" s="8"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
@@ -24402,7 +24433,7 @@
     <row r="863" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="C863" s="4"/>
-      <c r="D863" s="4"/>
+      <c r="D863" s="8"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
@@ -24429,7 +24460,7 @@
     <row r="864" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
+      <c r="D864" s="8"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
@@ -24456,7 +24487,7 @@
     <row r="865" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
+      <c r="D865" s="8"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
@@ -24483,7 +24514,7 @@
     <row r="866" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
+      <c r="D866" s="8"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
@@ -24510,7 +24541,7 @@
     <row r="867" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
+      <c r="D867" s="8"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
@@ -24537,7 +24568,7 @@
     <row r="868" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
+      <c r="D868" s="8"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
@@ -24564,7 +24595,7 @@
     <row r="869" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
+      <c r="D869" s="8"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
@@ -24591,7 +24622,7 @@
     <row r="870" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
+      <c r="D870" s="8"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
@@ -24618,7 +24649,7 @@
     <row r="871" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
+      <c r="D871" s="8"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
@@ -24645,7 +24676,7 @@
     <row r="872" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
+      <c r="D872" s="8"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
@@ -24672,7 +24703,7 @@
     <row r="873" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
+      <c r="D873" s="8"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
@@ -24699,7 +24730,7 @@
     <row r="874" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
+      <c r="D874" s="8"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
@@ -24726,7 +24757,7 @@
     <row r="875" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
+      <c r="D875" s="8"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
@@ -24753,7 +24784,7 @@
     <row r="876" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
+      <c r="D876" s="8"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
@@ -24780,7 +24811,7 @@
     <row r="877" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
+      <c r="D877" s="8"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
@@ -24807,7 +24838,7 @@
     <row r="878" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
+      <c r="D878" s="8"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
@@ -24834,7 +24865,7 @@
     <row r="879" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
+      <c r="D879" s="8"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
@@ -24861,7 +24892,7 @@
     <row r="880" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
+      <c r="D880" s="8"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
@@ -24888,7 +24919,7 @@
     <row r="881" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
+      <c r="D881" s="8"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
@@ -24915,7 +24946,7 @@
     <row r="882" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
+      <c r="D882" s="8"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
@@ -24942,7 +24973,7 @@
     <row r="883" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
+      <c r="D883" s="8"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
@@ -24969,7 +25000,7 @@
     <row r="884" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
+      <c r="D884" s="8"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
@@ -24996,7 +25027,7 @@
     <row r="885" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
+      <c r="D885" s="8"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
@@ -25023,7 +25054,7 @@
     <row r="886" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
+      <c r="D886" s="8"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
@@ -25050,7 +25081,7 @@
     <row r="887" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="C887" s="4"/>
-      <c r="D887" s="4"/>
+      <c r="D887" s="8"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
@@ -25077,7 +25108,7 @@
     <row r="888" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="C888" s="4"/>
-      <c r="D888" s="4"/>
+      <c r="D888" s="8"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
@@ -25104,7 +25135,7 @@
     <row r="889" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="C889" s="4"/>
-      <c r="D889" s="4"/>
+      <c r="D889" s="8"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
@@ -25131,7 +25162,7 @@
     <row r="890" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="C890" s="4"/>
-      <c r="D890" s="4"/>
+      <c r="D890" s="8"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
@@ -25158,7 +25189,7 @@
     <row r="891" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="C891" s="4"/>
-      <c r="D891" s="4"/>
+      <c r="D891" s="8"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
@@ -25185,7 +25216,7 @@
     <row r="892" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="C892" s="4"/>
-      <c r="D892" s="4"/>
+      <c r="D892" s="8"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
@@ -25212,7 +25243,7 @@
     <row r="893" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="C893" s="4"/>
-      <c r="D893" s="4"/>
+      <c r="D893" s="8"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
@@ -25239,7 +25270,7 @@
     <row r="894" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="C894" s="4"/>
-      <c r="D894" s="4"/>
+      <c r="D894" s="8"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
@@ -25266,7 +25297,7 @@
     <row r="895" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="C895" s="4"/>
-      <c r="D895" s="4"/>
+      <c r="D895" s="8"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
@@ -25293,7 +25324,7 @@
     <row r="896" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="C896" s="4"/>
-      <c r="D896" s="4"/>
+      <c r="D896" s="8"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
@@ -25320,7 +25351,7 @@
     <row r="897" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="C897" s="4"/>
-      <c r="D897" s="4"/>
+      <c r="D897" s="8"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
@@ -25347,7 +25378,7 @@
     <row r="898" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="C898" s="4"/>
-      <c r="D898" s="4"/>
+      <c r="D898" s="8"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
@@ -25374,7 +25405,7 @@
     <row r="899" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
+      <c r="D899" s="8"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
@@ -25401,7 +25432,7 @@
     <row r="900" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="C900" s="4"/>
-      <c r="D900" s="4"/>
+      <c r="D900" s="8"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
@@ -25428,7 +25459,7 @@
     <row r="901" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="C901" s="4"/>
-      <c r="D901" s="4"/>
+      <c r="D901" s="8"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
@@ -25455,7 +25486,7 @@
     <row r="902" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="C902" s="4"/>
-      <c r="D902" s="4"/>
+      <c r="D902" s="8"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
@@ -25482,7 +25513,7 @@
     <row r="903" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="C903" s="4"/>
-      <c r="D903" s="4"/>
+      <c r="D903" s="8"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
@@ -25509,7 +25540,7 @@
     <row r="904" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="C904" s="4"/>
-      <c r="D904" s="4"/>
+      <c r="D904" s="8"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
@@ -25536,7 +25567,7 @@
     <row r="905" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="C905" s="4"/>
-      <c r="D905" s="4"/>
+      <c r="D905" s="8"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
@@ -25563,7 +25594,7 @@
     <row r="906" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="C906" s="4"/>
-      <c r="D906" s="4"/>
+      <c r="D906" s="8"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
@@ -25590,7 +25621,7 @@
     <row r="907" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="C907" s="4"/>
-      <c r="D907" s="4"/>
+      <c r="D907" s="8"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
@@ -25617,7 +25648,7 @@
     <row r="908" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="C908" s="4"/>
-      <c r="D908" s="4"/>
+      <c r="D908" s="8"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
@@ -25644,7 +25675,7 @@
     <row r="909" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="C909" s="4"/>
-      <c r="D909" s="4"/>
+      <c r="D909" s="8"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
@@ -25671,7 +25702,7 @@
     <row r="910" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="C910" s="4"/>
-      <c r="D910" s="4"/>
+      <c r="D910" s="8"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
@@ -25698,7 +25729,7 @@
     <row r="911" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="C911" s="4"/>
-      <c r="D911" s="4"/>
+      <c r="D911" s="8"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
@@ -25725,7 +25756,7 @@
     <row r="912" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="C912" s="4"/>
-      <c r="D912" s="4"/>
+      <c r="D912" s="8"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
@@ -25752,7 +25783,7 @@
     <row r="913" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="C913" s="4"/>
-      <c r="D913" s="4"/>
+      <c r="D913" s="8"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
@@ -25779,7 +25810,7 @@
     <row r="914" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="C914" s="4"/>
-      <c r="D914" s="4"/>
+      <c r="D914" s="8"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
@@ -25806,7 +25837,7 @@
     <row r="915" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="C915" s="4"/>
-      <c r="D915" s="4"/>
+      <c r="D915" s="8"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
@@ -25833,7 +25864,7 @@
     <row r="916" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="C916" s="4"/>
-      <c r="D916" s="4"/>
+      <c r="D916" s="8"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
@@ -25860,7 +25891,7 @@
     <row r="917" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="C917" s="4"/>
-      <c r="D917" s="4"/>
+      <c r="D917" s="8"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
@@ -25887,7 +25918,7 @@
     <row r="918" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="C918" s="4"/>
-      <c r="D918" s="4"/>
+      <c r="D918" s="8"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
@@ -25914,7 +25945,7 @@
     <row r="919" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="C919" s="4"/>
-      <c r="D919" s="4"/>
+      <c r="D919" s="8"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
@@ -25941,7 +25972,7 @@
     <row r="920" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="C920" s="4"/>
-      <c r="D920" s="4"/>
+      <c r="D920" s="8"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
@@ -25968,7 +25999,7 @@
     <row r="921" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="C921" s="4"/>
-      <c r="D921" s="4"/>
+      <c r="D921" s="8"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
@@ -25995,7 +26026,7 @@
     <row r="922" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="C922" s="4"/>
-      <c r="D922" s="4"/>
+      <c r="D922" s="8"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
@@ -26022,7 +26053,7 @@
     <row r="923" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="C923" s="4"/>
-      <c r="D923" s="4"/>
+      <c r="D923" s="8"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
@@ -26049,7 +26080,7 @@
     <row r="924" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="C924" s="4"/>
-      <c r="D924" s="4"/>
+      <c r="D924" s="8"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
@@ -26076,7 +26107,7 @@
     <row r="925" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="C925" s="4"/>
-      <c r="D925" s="4"/>
+      <c r="D925" s="8"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
@@ -26103,7 +26134,7 @@
     <row r="926" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="C926" s="4"/>
-      <c r="D926" s="4"/>
+      <c r="D926" s="8"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
@@ -26130,7 +26161,7 @@
     <row r="927" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
+      <c r="D927" s="8"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
@@ -26157,7 +26188,7 @@
     <row r="928" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
+      <c r="D928" s="8"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
@@ -26184,7 +26215,7 @@
     <row r="929" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
+      <c r="D929" s="8"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
@@ -26211,7 +26242,7 @@
     <row r="930" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
+      <c r="D930" s="8"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
@@ -26238,7 +26269,7 @@
     <row r="931" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
+      <c r="D931" s="8"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
@@ -26265,7 +26296,7 @@
     <row r="932" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
+      <c r="D932" s="8"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
@@ -26292,7 +26323,7 @@
     <row r="933" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
+      <c r="D933" s="8"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
@@ -26319,7 +26350,7 @@
     <row r="934" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
+      <c r="D934" s="8"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
@@ -26346,7 +26377,7 @@
     <row r="935" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
+      <c r="D935" s="8"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
@@ -26373,7 +26404,7 @@
     <row r="936" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
+      <c r="D936" s="8"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
@@ -26400,7 +26431,7 @@
     <row r="937" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
+      <c r="D937" s="8"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
@@ -26427,7 +26458,7 @@
     <row r="938" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
+      <c r="D938" s="8"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
@@ -26454,7 +26485,7 @@
     <row r="939" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
+      <c r="D939" s="8"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
@@ -26481,7 +26512,7 @@
     <row r="940" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="C940" s="4"/>
-      <c r="D940" s="4"/>
+      <c r="D940" s="8"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
@@ -26508,7 +26539,7 @@
     <row r="941" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="C941" s="4"/>
-      <c r="D941" s="4"/>
+      <c r="D941" s="8"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
@@ -26535,7 +26566,7 @@
     <row r="942" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="C942" s="4"/>
-      <c r="D942" s="4"/>
+      <c r="D942" s="8"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
@@ -26562,7 +26593,7 @@
     <row r="943" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="C943" s="4"/>
-      <c r="D943" s="4"/>
+      <c r="D943" s="8"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
@@ -26589,7 +26620,7 @@
     <row r="944" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="C944" s="4"/>
-      <c r="D944" s="4"/>
+      <c r="D944" s="8"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
@@ -26616,7 +26647,7 @@
     <row r="945" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
+      <c r="D945" s="8"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
@@ -26643,7 +26674,7 @@
     <row r="946" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
+      <c r="D946" s="8"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
@@ -26670,7 +26701,7 @@
     <row r="947" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
+      <c r="D947" s="8"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
@@ -26697,7 +26728,7 @@
     <row r="948" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
+      <c r="D948" s="8"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
@@ -26724,7 +26755,7 @@
     <row r="949" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
+      <c r="D949" s="8"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
@@ -26751,7 +26782,7 @@
     <row r="950" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
+      <c r="D950" s="8"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
@@ -26778,7 +26809,7 @@
     <row r="951" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
+      <c r="D951" s="8"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
@@ -26805,7 +26836,7 @@
     <row r="952" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
+      <c r="D952" s="8"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
@@ -26832,7 +26863,7 @@
     <row r="953" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
+      <c r="D953" s="8"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
@@ -26859,7 +26890,7 @@
     <row r="954" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
+      <c r="D954" s="8"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
@@ -26886,7 +26917,7 @@
     <row r="955" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
+      <c r="D955" s="8"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
@@ -26913,7 +26944,7 @@
     <row r="956" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
+      <c r="D956" s="8"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
@@ -26940,7 +26971,7 @@
     <row r="957" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
+      <c r="D957" s="8"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
@@ -26967,7 +26998,7 @@
     <row r="958" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
+      <c r="D958" s="8"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
@@ -26994,7 +27025,7 @@
     <row r="959" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
+      <c r="D959" s="8"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
@@ -27021,7 +27052,7 @@
     <row r="960" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
+      <c r="D960" s="8"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
@@ -27048,7 +27079,7 @@
     <row r="961" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
+      <c r="D961" s="8"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
@@ -27075,7 +27106,7 @@
     <row r="962" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
+      <c r="D962" s="8"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
@@ -27102,7 +27133,7 @@
     <row r="963" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
+      <c r="D963" s="8"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
@@ -27129,7 +27160,7 @@
     <row r="964" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
+      <c r="D964" s="8"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
@@ -27156,7 +27187,7 @@
     <row r="965" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
+      <c r="D965" s="8"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
@@ -27183,7 +27214,7 @@
     <row r="966" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
+      <c r="D966" s="8"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
@@ -27210,7 +27241,7 @@
     <row r="967" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
+      <c r="D967" s="8"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
@@ -27237,7 +27268,7 @@
     <row r="968" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
+      <c r="D968" s="8"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
@@ -27264,7 +27295,7 @@
     <row r="969" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
+      <c r="D969" s="8"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
@@ -27291,7 +27322,7 @@
     <row r="970" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
+      <c r="D970" s="8"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
@@ -27318,7 +27349,7 @@
     <row r="971" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
+      <c r="D971" s="8"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
@@ -27345,7 +27376,7 @@
     <row r="972" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
+      <c r="D972" s="8"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
@@ -27372,7 +27403,7 @@
     <row r="973" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
+      <c r="D973" s="8"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
@@ -27399,7 +27430,7 @@
     <row r="974" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
+      <c r="D974" s="8"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
@@ -27426,7 +27457,7 @@
     <row r="975" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
+      <c r="D975" s="8"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
@@ -27453,7 +27484,7 @@
     <row r="976" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
+      <c r="D976" s="8"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
@@ -27480,7 +27511,7 @@
     <row r="977" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
+      <c r="D977" s="8"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
@@ -27507,7 +27538,7 @@
     <row r="978" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
+      <c r="D978" s="8"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
@@ -27534,7 +27565,7 @@
     <row r="979" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
+      <c r="D979" s="8"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
@@ -27561,7 +27592,7 @@
     <row r="980" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
+      <c r="D980" s="8"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
@@ -27588,7 +27619,7 @@
     <row r="981" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
+      <c r="D981" s="8"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
@@ -27615,7 +27646,7 @@
     <row r="982" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
+      <c r="D982" s="8"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
@@ -27642,7 +27673,7 @@
     <row r="983" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
+      <c r="D983" s="8"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
@@ -27669,7 +27700,7 @@
     <row r="984" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
+      <c r="D984" s="8"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
@@ -27696,7 +27727,7 @@
     <row r="985" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
+      <c r="D985" s="8"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
@@ -27723,7 +27754,7 @@
     <row r="986" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
+      <c r="D986" s="8"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
@@ -27750,7 +27781,7 @@
     <row r="987" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
+      <c r="D987" s="8"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
@@ -27777,7 +27808,7 @@
     <row r="988" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
+      <c r="D988" s="8"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
@@ -27804,7 +27835,7 @@
     <row r="989" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
+      <c r="D989" s="8"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
@@ -27831,7 +27862,7 @@
     <row r="990" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
+      <c r="D990" s="8"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
@@ -27858,7 +27889,7 @@
     <row r="991" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
+      <c r="D991" s="8"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
@@ -27885,7 +27916,7 @@
     <row r="992" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
+      <c r="D992" s="8"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
@@ -27912,7 +27943,7 @@
     <row r="993" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
+      <c r="D993" s="8"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
@@ -27939,7 +27970,7 @@
     <row r="994" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
+      <c r="D994" s="8"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
@@ -27966,7 +27997,7 @@
     <row r="995" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
+      <c r="D995" s="8"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
@@ -27993,7 +28024,7 @@
     <row r="996" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
+      <c r="D996" s="8"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
@@ -28020,7 +28051,7 @@
     <row r="997" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
+      <c r="D997" s="8"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
@@ -28047,7 +28078,7 @@
     <row r="998" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
+      <c r="D998" s="8"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
@@ -28074,7 +28105,7 @@
     <row r="999" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
+      <c r="D999" s="8"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
@@ -28101,7 +28132,7 @@
     <row r="1000" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
+      <c r="D1000" s="8"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
@@ -28128,7 +28159,7 @@
     <row r="1001" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="4"/>
       <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
+      <c r="D1001" s="8"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
@@ -28155,7 +28186,7 @@
     <row r="1002" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="4"/>
       <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
+      <c r="D1002" s="8"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
       <c r="G1002" s="4"/>
@@ -28182,7 +28213,7 @@
     <row r="1003" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="4"/>
       <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
+      <c r="D1003" s="8"/>
       <c r="E1003" s="4"/>
       <c r="F1003" s="4"/>
       <c r="G1003" s="4"/>
@@ -28209,7 +28240,7 @@
     <row r="1004" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="4"/>
       <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
+      <c r="D1004" s="8"/>
       <c r="E1004" s="4"/>
       <c r="F1004" s="4"/>
       <c r="G1004" s="4"/>
@@ -28236,7 +28267,7 @@
     <row r="1005" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="4"/>
       <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
+      <c r="D1005" s="8"/>
       <c r="E1005" s="4"/>
       <c r="F1005" s="4"/>
       <c r="G1005" s="4"/>
@@ -28263,7 +28294,7 @@
     <row r="1006" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="4"/>
       <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
+      <c r="D1006" s="8"/>
       <c r="E1006" s="4"/>
       <c r="F1006" s="4"/>
       <c r="G1006" s="4"/>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27714B87-EFD2-FA46-8E04-1B8D847E5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA267B-56EC-6146-9E22-ACBE4ED59132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dev" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>2 test cases failing</t>
+  </si>
+  <si>
+    <t>Smallest subarray with maximum frequency ocurrence of elements</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -718,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1770,9 +1776,16 @@
     </row>
     <row r="32" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA267B-56EC-6146-9E22-ACBE4ED59132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09082B9-E3FD-FE43-A536-6C212FB72DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1544,7 +1544,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -1557,7 +1557,9 @@
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09082B9-E3FD-FE43-A536-6C212FB72DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB75AB-0EBD-CB45-87B3-175BD2D9E8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2177,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -2185,7 +2185,9 @@
       <c r="C45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2278,7 @@
     </row>
     <row r="48" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB75AB-0EBD-CB45-87B3-175BD2D9E8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A8F14-7CFC-8540-829F-1C48EC99EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dev" sheetId="2" r:id="rId2"/>
+    <sheet name="Self Rev" sheetId="3" r:id="rId2"/>
+    <sheet name="Dev" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -295,6 +296,27 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Constructor of BT</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Pre in post traversal</t>
+  </si>
+  <si>
+    <t>Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Size, Min, max, height</t>
+  </si>
+  <si>
+    <t>Node to root path</t>
+  </si>
+  <si>
+    <t>Didn't try</t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -724,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2410,7 +2433,7 @@
     </row>
     <row r="52" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2419,7 +2442,9 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -28381,6 +28406,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F2AEBE-F0CB-2146-A21B-E183450199D2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B700801-C5A7-E248-947B-370713DC0001}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A8F14-7CFC-8540-829F-1C48EC99EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72A4D4-D95F-9C45-91E4-CEC81E5653DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -745,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2524,16 +2524,14 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>3</v>
+      <c r="C55" s="4"/>
+      <c r="D55" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2561,13 +2559,13 @@
     <row r="56" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2595,7 +2593,7 @@
     <row r="57" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
@@ -2629,13 +2627,13 @@
     <row r="58" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2663,13 +2661,13 @@
     <row r="59" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2697,13 +2695,13 @@
     <row r="60" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2730,8 +2728,15 @@
     </row>
     <row r="61" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2757,9 +2762,6 @@
     </row>
     <row r="62" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8"/>
       <c r="E62" s="4"/>
@@ -2787,15 +2789,11 @@
     </row>
     <row r="63" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="1" t="s">
-        <v>58</v>
+      <c r="B63" s="12" t="s">
+        <v>57</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2822,13 +2820,13 @@
     <row r="64" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2856,13 +2854,13 @@
     <row r="65" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2890,13 +2888,13 @@
     <row r="66" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -2923,8 +2921,15 @@
     </row>
     <row r="67" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2950,9 +2955,6 @@
     </row>
     <row r="68" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8"/>
       <c r="E68" s="4"/>
@@ -2980,15 +2982,11 @@
     </row>
     <row r="69" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="1" t="s">
-        <v>64</v>
+      <c r="B69" s="13" t="s">
+        <v>63</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3015,13 +3013,13 @@
     <row r="70" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3049,13 +3047,13 @@
     <row r="71" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3083,13 +3081,13 @@
     <row r="72" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3117,13 +3115,13 @@
     <row r="73" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -3151,13 +3149,13 @@
     <row r="74" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -3184,8 +3182,15 @@
     </row>
     <row r="75" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="8"/>
+      <c r="B75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3211,12 +3216,7 @@
     </row>
     <row r="76" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="8"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3244,9 +3244,11 @@
     <row r="77" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3274,7 +3276,7 @@
     <row r="78" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="8"/>
@@ -3304,7 +3306,7 @@
     <row r="79" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="8"/>
@@ -3333,6 +3335,9 @@
     </row>
     <row r="80" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
+      <c r="B80" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C80" s="4"/>
       <c r="D80" s="8"/>
       <c r="E80" s="4"/>
@@ -28360,6 +28365,33 @@
       <c r="Y1006" s="4"/>
       <c r="Z1006" s="4"/>
     </row>
+    <row r="1007" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="4"/>
+      <c r="C1007" s="4"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="4"/>
+      <c r="F1007" s="4"/>
+      <c r="G1007" s="4"/>
+      <c r="H1007" s="4"/>
+      <c r="I1007" s="4"/>
+      <c r="J1007" s="4"/>
+      <c r="K1007" s="4"/>
+      <c r="L1007" s="4"/>
+      <c r="M1007" s="4"/>
+      <c r="N1007" s="4"/>
+      <c r="O1007" s="4"/>
+      <c r="P1007" s="4"/>
+      <c r="Q1007" s="4"/>
+      <c r="R1007" s="4"/>
+      <c r="S1007" s="4"/>
+      <c r="T1007" s="4"/>
+      <c r="U1007" s="4"/>
+      <c r="V1007" s="4"/>
+      <c r="W1007" s="4"/>
+      <c r="X1007" s="4"/>
+      <c r="Y1007" s="4"/>
+      <c r="Z1007" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" display="https://nados.io/question/count-of-subarrays-with-equal-number-of-zeroes-and-ones" xr:uid="{56B39D9D-F484-F746-9FCC-20F1666E8089}"/>
@@ -28383,23 +28415,23 @@
     <hyperlink ref="C50" r:id="rId19" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{D6150988-5F2F-D84B-9393-AC61278C2B80}"/>
     <hyperlink ref="C51" r:id="rId20" display="https://practice.geeksforgeeks.org/problems/burning-tree/1" xr:uid="{B2AA558E-FA27-4745-9587-F69F48FE6C4F}"/>
     <hyperlink ref="C52" r:id="rId21" display="https://leetcode.com/problems/house-robber-iii/" xr:uid="{D2ADC581-2A9E-6F42-8C90-15F560D29050}"/>
-    <hyperlink ref="C55" r:id="rId22" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{352901EA-708C-E345-8B07-35342EC80B16}"/>
-    <hyperlink ref="C56" r:id="rId23" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{23C8BF3A-D0F9-6F4E-BF3B-D000978E2A65}"/>
-    <hyperlink ref="C57" r:id="rId24" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{B95791CD-94D1-9C49-91ED-A12FEC662880}"/>
-    <hyperlink ref="C58" r:id="rId25" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{C3618A33-1AC7-8840-8855-5D95193F0D74}"/>
-    <hyperlink ref="C59" r:id="rId26" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{7A02D06B-655D-3245-AB5C-FAB2BC32750A}"/>
-    <hyperlink ref="C60" r:id="rId27" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/" xr:uid="{AB7C35B9-E5BA-5A46-B632-E4C5C5EDA7C5}"/>
-    <hyperlink ref="C63" r:id="rId28" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{B62633A5-9C0D-1349-940F-8996FB8D52C0}"/>
-    <hyperlink ref="C64" r:id="rId29" display="https://leetcode.com/problems/maximum-width-of-binary-tree/" xr:uid="{0EF776BC-79DB-8F4C-A6B3-3C41F10D0C99}"/>
-    <hyperlink ref="C65" r:id="rId30" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{2DA67615-C78B-0A4A-A100-1245B6C1F33D}"/>
-    <hyperlink ref="C66" r:id="rId31" display="https://practice.geeksforgeeks.org/problems/diagonal-traversal-of-binary-tree/1" xr:uid="{6C0083EA-D9A3-DE4F-96A2-CBB805FACAA2}"/>
-    <hyperlink ref="C69" r:id="rId32" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5ADFF790-5F13-EC4D-86F7-619868333EB4}"/>
-    <hyperlink ref="C70" r:id="rId33" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{0F38431C-CC31-A142-BE0B-DB8391ACFD00}"/>
-    <hyperlink ref="C71" r:id="rId34" display="https://practice.geeksforgeeks.org/problems/construct-tree-from-inorder-and-levelorder/1" xr:uid="{E59B0279-83B0-0749-B933-4F96E9F7CC51}"/>
-    <hyperlink ref="C72" r:id="rId35" display="https://practice.geeksforgeeks.org/problems/convert-level-order-traversal-to-bst/1" xr:uid="{7D0DE4AC-4969-1641-8AC6-D714DD283541}"/>
-    <hyperlink ref="C73" r:id="rId36" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{04C325E7-9976-4C43-B32E-CBCCDB933775}"/>
-    <hyperlink ref="C74" r:id="rId37" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C7D357-D22F-D844-AAB8-142B6AA3789D}"/>
-    <hyperlink ref="C76" r:id="rId38" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/" xr:uid="{95D944FD-B1B0-BF46-99BA-F0440C4722CC}"/>
+    <hyperlink ref="C56" r:id="rId22" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{352901EA-708C-E345-8B07-35342EC80B16}"/>
+    <hyperlink ref="C57" r:id="rId23" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{23C8BF3A-D0F9-6F4E-BF3B-D000978E2A65}"/>
+    <hyperlink ref="C58" r:id="rId24" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{B95791CD-94D1-9C49-91ED-A12FEC662880}"/>
+    <hyperlink ref="C59" r:id="rId25" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{C3618A33-1AC7-8840-8855-5D95193F0D74}"/>
+    <hyperlink ref="C60" r:id="rId26" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{7A02D06B-655D-3245-AB5C-FAB2BC32750A}"/>
+    <hyperlink ref="C61" r:id="rId27" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/" xr:uid="{AB7C35B9-E5BA-5A46-B632-E4C5C5EDA7C5}"/>
+    <hyperlink ref="C64" r:id="rId28" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{B62633A5-9C0D-1349-940F-8996FB8D52C0}"/>
+    <hyperlink ref="C65" r:id="rId29" display="https://leetcode.com/problems/maximum-width-of-binary-tree/" xr:uid="{0EF776BC-79DB-8F4C-A6B3-3C41F10D0C99}"/>
+    <hyperlink ref="C66" r:id="rId30" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{2DA67615-C78B-0A4A-A100-1245B6C1F33D}"/>
+    <hyperlink ref="C67" r:id="rId31" display="https://practice.geeksforgeeks.org/problems/diagonal-traversal-of-binary-tree/1" xr:uid="{6C0083EA-D9A3-DE4F-96A2-CBB805FACAA2}"/>
+    <hyperlink ref="C70" r:id="rId32" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5ADFF790-5F13-EC4D-86F7-619868333EB4}"/>
+    <hyperlink ref="C71" r:id="rId33" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{0F38431C-CC31-A142-BE0B-DB8391ACFD00}"/>
+    <hyperlink ref="C72" r:id="rId34" display="https://practice.geeksforgeeks.org/problems/construct-tree-from-inorder-and-levelorder/1" xr:uid="{E59B0279-83B0-0749-B933-4F96E9F7CC51}"/>
+    <hyperlink ref="C73" r:id="rId35" display="https://practice.geeksforgeeks.org/problems/convert-level-order-traversal-to-bst/1" xr:uid="{7D0DE4AC-4969-1641-8AC6-D714DD283541}"/>
+    <hyperlink ref="C74" r:id="rId36" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{04C325E7-9976-4C43-B32E-CBCCDB933775}"/>
+    <hyperlink ref="C75" r:id="rId37" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C7D357-D22F-D844-AAB8-142B6AA3789D}"/>
+    <hyperlink ref="C77" r:id="rId38" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/" xr:uid="{95D944FD-B1B0-BF46-99BA-F0440C4722CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72A4D4-D95F-9C45-91E4-CEC81E5653DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC45CBC-677A-5549-A38B-BBC34AAE0C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,6 +368,17 @@
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color rgb="FF333333"/>
+      <name val="Var(--monospace)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -402,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +441,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,20 +760,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="20" customHeight="1">
       <c r="A1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="8"/>
@@ -786,7 +799,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="20" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -814,7 +827,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -850,7 +863,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -886,7 +899,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -922,7 +935,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -958,7 +971,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="20" customHeight="1">
       <c r="A7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="8"/>
@@ -985,7 +998,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="20" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>8</v>
@@ -1015,7 +1028,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1051,7 +1064,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1087,7 +1100,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1123,7 +1136,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1159,7 +1172,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1197,7 +1210,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1233,7 +1246,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1269,7 +1282,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1305,7 +1318,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="20" customHeight="1">
       <c r="A17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
@@ -1332,7 +1345,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="20" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="13" t="s">
         <v>18</v>
@@ -1362,7 +1375,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1400,7 +1413,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1436,7 +1449,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="20" customHeight="1">
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
@@ -1463,7 +1476,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="20" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
         <v>21</v>
@@ -1493,7 +1506,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="20" customHeight="1">
       <c r="A23" s="4">
         <v>15</v>
       </c>
@@ -1529,7 +1542,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>16</v>
       </c>
@@ -1567,7 +1580,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="34">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -1605,7 +1618,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="20" customHeight="1">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -1643,7 +1656,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="20" customHeight="1">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -1681,7 +1694,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="8"/>
@@ -1708,7 +1721,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="12" t="s">
         <v>29</v>
@@ -1738,7 +1751,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
@@ -1765,7 +1778,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="34">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>80</v>
@@ -1799,7 +1812,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>84</v>
@@ -1833,7 +1846,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="20" customHeight="1">
       <c r="A33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
@@ -1860,7 +1873,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="20" customHeight="1">
       <c r="A34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
@@ -1887,7 +1900,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="20" customHeight="1">
       <c r="A35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="8"/>
@@ -1914,7 +1927,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="20" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="13" t="s">
         <v>30</v>
@@ -1944,7 +1957,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="20" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>31</v>
@@ -1976,7 +1989,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="20" customHeight="1">
       <c r="A38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="8"/>
@@ -2003,7 +2016,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="20" customHeight="1">
       <c r="A39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
@@ -2030,7 +2043,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="20" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="12" t="s">
         <v>33</v>
@@ -2060,7 +2073,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="20" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -2096,7 +2109,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="20" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>36</v>
@@ -2132,7 +2145,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="20" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>37</v>
@@ -2166,7 +2179,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="20" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>39</v>
@@ -2200,7 +2213,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="34">
       <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -2236,7 +2249,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="20" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -2272,7 +2285,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="20" customHeight="1">
       <c r="A47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
@@ -2299,7 +2312,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="20" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="12" t="s">
         <v>43</v>
@@ -2329,7 +2342,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="20" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>44</v>
@@ -2363,7 +2376,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="20" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
         <v>45</v>
@@ -2397,7 +2410,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="20" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>46</v>
@@ -2431,7 +2444,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="20" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="14" t="s">
         <v>48</v>
@@ -2467,7 +2480,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="20" customHeight="1">
       <c r="A53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="8"/>
@@ -2494,7 +2507,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="20" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="13" t="s">
         <v>49</v>
@@ -2524,15 +2537,9 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="16">
       <c r="A55" s="4"/>
-      <c r="B55" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2556,7 +2563,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="20" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -2590,7 +2597,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="20" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>51</v>
@@ -2624,7 +2631,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="20" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>52</v>
@@ -2658,7 +2665,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="20" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>53</v>
@@ -2669,7 +2676,9 @@
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -2692,7 +2701,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="20" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>54</v>
@@ -2726,7 +2735,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="20" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>55</v>
@@ -2760,7 +2769,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="20" customHeight="1">
       <c r="A62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="8"/>
@@ -2787,7 +2796,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="20" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="12" t="s">
         <v>57</v>
@@ -2817,7 +2826,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="20" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>58</v>
@@ -2851,7 +2860,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="20" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>59</v>
@@ -2885,7 +2894,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="20" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>61</v>
@@ -2919,7 +2928,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="34">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>62</v>
@@ -2930,7 +2939,9 @@
       <c r="D67" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -2953,7 +2964,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="20" customHeight="1">
       <c r="A68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="8"/>
@@ -2980,7 +2991,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="20" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="13" t="s">
         <v>63</v>
@@ -3010,7 +3021,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="20" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="1" t="s">
         <v>64</v>
@@ -3044,7 +3055,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="20" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>65</v>
@@ -3078,7 +3089,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="20" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>67</v>
@@ -3112,7 +3123,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="20" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>68</v>
@@ -3146,7 +3157,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="20" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>69</v>
@@ -3180,7 +3191,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="20" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>71</v>
@@ -3214,7 +3225,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="20" customHeight="1">
       <c r="A76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="8"/>
@@ -3241,7 +3252,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="20" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="1" t="s">
         <v>73</v>
@@ -3273,7 +3284,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="20" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
         <v>74</v>
@@ -3303,7 +3314,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="20" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
         <v>75</v>
@@ -3333,7 +3344,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="20" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="1" t="s">
         <v>76</v>
@@ -3363,7 +3374,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="20" customHeight="1">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="8"/>
@@ -3390,7 +3401,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="20" customHeight="1">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="8"/>
@@ -3417,11 +3428,11 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="20" customHeight="1">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -3444,7 +3455,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="20" customHeight="1">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="8"/>
@@ -3471,11 +3482,11 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="20" customHeight="1">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -3498,7 +3509,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="20" customHeight="1">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="8"/>
@@ -3525,7 +3536,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="20" customHeight="1">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="8"/>
@@ -3552,7 +3563,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="20" customHeight="1">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="8"/>
@@ -3579,7 +3590,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="20" customHeight="1">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="8"/>
@@ -3606,7 +3617,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="20" customHeight="1">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="8"/>
@@ -3633,7 +3644,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="20" customHeight="1">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="8"/>
@@ -3660,7 +3671,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="20" customHeight="1">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="8"/>
@@ -3687,7 +3698,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="20" customHeight="1">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="8"/>
@@ -3714,7 +3725,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="20" customHeight="1">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="8"/>
@@ -3741,7 +3752,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="20" customHeight="1">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="8"/>
@@ -3768,7 +3779,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="20" customHeight="1">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="8"/>
@@ -3795,7 +3806,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="20" customHeight="1">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="8"/>
@@ -3822,7 +3833,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="20" customHeight="1">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="8"/>
@@ -3849,7 +3860,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="20" customHeight="1">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="8"/>
@@ -3876,7 +3887,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="20" customHeight="1">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="8"/>
@@ -3903,7 +3914,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="20" customHeight="1">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="8"/>
@@ -3930,7 +3941,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="20" customHeight="1">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="8"/>
@@ -3957,7 +3968,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="20" customHeight="1">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="8"/>
@@ -3984,7 +3995,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="20" customHeight="1">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="8"/>
@@ -4011,7 +4022,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="20" customHeight="1">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="8"/>
@@ -4038,7 +4049,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="20" customHeight="1">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="8"/>
@@ -4065,7 +4076,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="20" customHeight="1">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="8"/>
@@ -4092,7 +4103,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="20" customHeight="1">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="8"/>
@@ -4119,7 +4130,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="20" customHeight="1">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="8"/>
@@ -4146,7 +4157,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="20" customHeight="1">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="8"/>
@@ -4173,7 +4184,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="20" customHeight="1">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="8"/>
@@ -4200,7 +4211,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="20" customHeight="1">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="8"/>
@@ -4227,7 +4238,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="20" customHeight="1">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="8"/>
@@ -4254,7 +4265,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="20" customHeight="1">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="8"/>
@@ -4281,7 +4292,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="20" customHeight="1">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="8"/>
@@ -4308,7 +4319,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="20" customHeight="1">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="8"/>
@@ -4335,7 +4346,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="20" customHeight="1">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="8"/>
@@ -4362,7 +4373,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="20" customHeight="1">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="8"/>
@@ -4389,7 +4400,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="20" customHeight="1">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="8"/>
@@ -4416,7 +4427,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="20" customHeight="1">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="8"/>
@@ -4443,7 +4454,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="20" customHeight="1">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="8"/>
@@ -4470,7 +4481,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="20" customHeight="1">
       <c r="A122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="8"/>
@@ -4497,7 +4508,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="20" customHeight="1">
       <c r="A123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="8"/>
@@ -4524,7 +4535,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="20" customHeight="1">
       <c r="A124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="8"/>
@@ -4551,7 +4562,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="20" customHeight="1">
       <c r="A125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="8"/>
@@ -4578,7 +4589,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="20" customHeight="1">
       <c r="A126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="8"/>
@@ -4605,7 +4616,7 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="20" customHeight="1">
       <c r="A127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="8"/>
@@ -4632,7 +4643,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="20" customHeight="1">
       <c r="A128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="8"/>
@@ -4659,7 +4670,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="20" customHeight="1">
       <c r="A129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8"/>
@@ -4686,7 +4697,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="20" customHeight="1">
       <c r="A130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="8"/>
@@ -4713,7 +4724,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="20" customHeight="1">
       <c r="A131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="8"/>
@@ -4740,7 +4751,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="20" customHeight="1">
       <c r="A132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="8"/>
@@ -4767,7 +4778,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="20" customHeight="1">
       <c r="A133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="8"/>
@@ -4794,7 +4805,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="20" customHeight="1">
       <c r="A134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="8"/>
@@ -4821,7 +4832,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="20" customHeight="1">
       <c r="A135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="8"/>
@@ -4848,7 +4859,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="20" customHeight="1">
       <c r="A136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="8"/>
@@ -4875,7 +4886,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="20" customHeight="1">
       <c r="A137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="8"/>
@@ -4902,7 +4913,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="20" customHeight="1">
       <c r="A138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="8"/>
@@ -4929,7 +4940,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="20" customHeight="1">
       <c r="A139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="8"/>
@@ -4956,7 +4967,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="20" customHeight="1">
       <c r="A140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="8"/>
@@ -4983,7 +4994,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="20" customHeight="1">
       <c r="A141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="8"/>
@@ -5010,7 +5021,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="20" customHeight="1">
       <c r="A142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="8"/>
@@ -5037,7 +5048,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="20" customHeight="1">
       <c r="A143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="8"/>
@@ -5064,7 +5075,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="20" customHeight="1">
       <c r="A144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="8"/>
@@ -5091,7 +5102,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="20" customHeight="1">
       <c r="A145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="8"/>
@@ -5118,7 +5129,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="20" customHeight="1">
       <c r="A146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="8"/>
@@ -5145,7 +5156,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="20" customHeight="1">
       <c r="A147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="8"/>
@@ -5172,7 +5183,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="20" customHeight="1">
       <c r="A148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="8"/>
@@ -5199,7 +5210,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="20" customHeight="1">
       <c r="A149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="8"/>
@@ -5226,7 +5237,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="20" customHeight="1">
       <c r="A150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="8"/>
@@ -5253,7 +5264,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="20" customHeight="1">
       <c r="A151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="8"/>
@@ -5280,7 +5291,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="20" customHeight="1">
       <c r="A152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="8"/>
@@ -5307,7 +5318,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="20" customHeight="1">
       <c r="A153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="8"/>
@@ -5334,7 +5345,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="20" customHeight="1">
       <c r="A154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="8"/>
@@ -5361,7 +5372,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="20" customHeight="1">
       <c r="A155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="8"/>
@@ -5388,7 +5399,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="20" customHeight="1">
       <c r="A156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="8"/>
@@ -5415,7 +5426,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="20" customHeight="1">
       <c r="A157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="8"/>
@@ -5442,7 +5453,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="20" customHeight="1">
       <c r="A158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="8"/>
@@ -5469,7 +5480,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="20" customHeight="1">
       <c r="A159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="8"/>
@@ -5496,7 +5507,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="20" customHeight="1">
       <c r="A160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="8"/>
@@ -5523,7 +5534,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="20" customHeight="1">
       <c r="A161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="8"/>
@@ -5550,7 +5561,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="20" customHeight="1">
       <c r="A162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="8"/>
@@ -5577,7 +5588,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="20" customHeight="1">
       <c r="A163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="8"/>
@@ -5604,7 +5615,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="20" customHeight="1">
       <c r="A164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="8"/>
@@ -5631,7 +5642,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="20" customHeight="1">
       <c r="A165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="8"/>
@@ -5658,7 +5669,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="20" customHeight="1">
       <c r="A166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="8"/>
@@ -5685,7 +5696,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="20" customHeight="1">
       <c r="A167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="8"/>
@@ -5712,7 +5723,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="20" customHeight="1">
       <c r="A168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="8"/>
@@ -5739,7 +5750,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="20" customHeight="1">
       <c r="A169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="8"/>
@@ -5766,7 +5777,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="20" customHeight="1">
       <c r="A170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="8"/>
@@ -5793,7 +5804,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="20" customHeight="1">
       <c r="A171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="8"/>
@@ -5820,7 +5831,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="20" customHeight="1">
       <c r="A172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="8"/>
@@ -5847,7 +5858,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="20" customHeight="1">
       <c r="A173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="8"/>
@@ -5874,7 +5885,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="20" customHeight="1">
       <c r="A174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="8"/>
@@ -5901,7 +5912,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="20" customHeight="1">
       <c r="A175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="8"/>
@@ -5928,7 +5939,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="20" customHeight="1">
       <c r="A176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="8"/>
@@ -5955,7 +5966,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="20" customHeight="1">
       <c r="A177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="8"/>
@@ -5982,7 +5993,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="20" customHeight="1">
       <c r="A178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="8"/>
@@ -6009,7 +6020,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="20" customHeight="1">
       <c r="A179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="8"/>
@@ -6036,7 +6047,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="20" customHeight="1">
       <c r="A180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="8"/>
@@ -6063,7 +6074,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="20" customHeight="1">
       <c r="A181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="8"/>
@@ -6090,7 +6101,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="20" customHeight="1">
       <c r="A182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="8"/>
@@ -6117,7 +6128,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="20" customHeight="1">
       <c r="A183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="8"/>
@@ -6144,7 +6155,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="20" customHeight="1">
       <c r="A184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="8"/>
@@ -6171,7 +6182,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="20" customHeight="1">
       <c r="A185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="8"/>
@@ -6198,7 +6209,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="20" customHeight="1">
       <c r="A186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="8"/>
@@ -6225,7 +6236,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="20" customHeight="1">
       <c r="A187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="8"/>
@@ -6252,7 +6263,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="20" customHeight="1">
       <c r="A188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="8"/>
@@ -6279,7 +6290,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="20" customHeight="1">
       <c r="A189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="8"/>
@@ -6306,7 +6317,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="20" customHeight="1">
       <c r="A190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="8"/>
@@ -6333,7 +6344,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="20" customHeight="1">
       <c r="A191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="8"/>
@@ -6360,7 +6371,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="20" customHeight="1">
       <c r="A192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="8"/>
@@ -6387,7 +6398,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="20" customHeight="1">
       <c r="A193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="8"/>
@@ -6414,7 +6425,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="20" customHeight="1">
       <c r="A194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="8"/>
@@ -6441,7 +6452,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="20" customHeight="1">
       <c r="A195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="8"/>
@@ -6468,7 +6479,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="20" customHeight="1">
       <c r="A196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="8"/>
@@ -6495,7 +6506,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="20" customHeight="1">
       <c r="A197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="8"/>
@@ -6522,7 +6533,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="20" customHeight="1">
       <c r="A198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="8"/>
@@ -6549,7 +6560,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="20" customHeight="1">
       <c r="A199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="8"/>
@@ -6576,7 +6587,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="20" customHeight="1">
       <c r="A200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="8"/>
@@ -6603,7 +6614,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="20" customHeight="1">
       <c r="A201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="8"/>
@@ -6630,7 +6641,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="20" customHeight="1">
       <c r="A202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="8"/>
@@ -6657,7 +6668,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="20" customHeight="1">
       <c r="A203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="8"/>
@@ -6684,7 +6695,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="20" customHeight="1">
       <c r="A204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="8"/>
@@ -6711,7 +6722,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="20" customHeight="1">
       <c r="A205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="8"/>
@@ -6738,7 +6749,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="20" customHeight="1">
       <c r="A206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="8"/>
@@ -6765,7 +6776,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="20" customHeight="1">
       <c r="A207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="8"/>
@@ -6792,7 +6803,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="20" customHeight="1">
       <c r="A208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="8"/>
@@ -6819,7 +6830,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="20" customHeight="1">
       <c r="A209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="8"/>
@@ -6846,7 +6857,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="20" customHeight="1">
       <c r="A210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="8"/>
@@ -6873,7 +6884,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="20" customHeight="1">
       <c r="A211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="8"/>
@@ -6900,7 +6911,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="20" customHeight="1">
       <c r="A212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="8"/>
@@ -6927,7 +6938,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="20" customHeight="1">
       <c r="A213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="8"/>
@@ -6954,7 +6965,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="20" customHeight="1">
       <c r="A214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="8"/>
@@ -6981,7 +6992,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="20" customHeight="1">
       <c r="A215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="8"/>
@@ -7008,7 +7019,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="20" customHeight="1">
       <c r="A216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="8"/>
@@ -7035,7 +7046,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="20" customHeight="1">
       <c r="A217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="8"/>
@@ -7062,7 +7073,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="20" customHeight="1">
       <c r="A218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="8"/>
@@ -7089,7 +7100,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="20" customHeight="1">
       <c r="A219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="8"/>
@@ -7116,7 +7127,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="20" customHeight="1">
       <c r="A220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="8"/>
@@ -7143,7 +7154,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="20" customHeight="1">
       <c r="A221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="8"/>
@@ -7170,7 +7181,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="20" customHeight="1">
       <c r="A222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="8"/>
@@ -7197,7 +7208,7 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="20" customHeight="1">
       <c r="A223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="8"/>
@@ -7224,7 +7235,7 @@
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
     </row>
-    <row r="224" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="20" customHeight="1">
       <c r="A224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="8"/>
@@ -7251,7 +7262,7 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="20" customHeight="1">
       <c r="A225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="8"/>
@@ -7278,7 +7289,7 @@
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
     </row>
-    <row r="226" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="20" customHeight="1">
       <c r="A226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="8"/>
@@ -7305,7 +7316,7 @@
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
     </row>
-    <row r="227" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="20" customHeight="1">
       <c r="A227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="8"/>
@@ -7332,7 +7343,7 @@
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
     </row>
-    <row r="228" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="20" customHeight="1">
       <c r="A228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="8"/>
@@ -7359,7 +7370,7 @@
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
-    <row r="229" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="20" customHeight="1">
       <c r="A229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="8"/>
@@ -7386,7 +7397,7 @@
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
     </row>
-    <row r="230" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="20" customHeight="1">
       <c r="A230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="8"/>
@@ -7413,7 +7424,7 @@
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
     </row>
-    <row r="231" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="20" customHeight="1">
       <c r="A231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="8"/>
@@ -7440,7 +7451,7 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="20" customHeight="1">
       <c r="A232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="8"/>
@@ -7467,7 +7478,7 @@
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
     </row>
-    <row r="233" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="20" customHeight="1">
       <c r="A233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="8"/>
@@ -7494,7 +7505,7 @@
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
     </row>
-    <row r="234" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="20" customHeight="1">
       <c r="A234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="8"/>
@@ -7521,7 +7532,7 @@
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
     </row>
-    <row r="235" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="20" customHeight="1">
       <c r="A235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="8"/>
@@ -7548,7 +7559,7 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="20" customHeight="1">
       <c r="A236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="8"/>
@@ -7575,7 +7586,7 @@
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
     </row>
-    <row r="237" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="20" customHeight="1">
       <c r="A237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="8"/>
@@ -7602,7 +7613,7 @@
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="20" customHeight="1">
       <c r="A238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="8"/>
@@ -7629,7 +7640,7 @@
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
     </row>
-    <row r="239" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="20" customHeight="1">
       <c r="A239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="8"/>
@@ -7656,7 +7667,7 @@
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
     </row>
-    <row r="240" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="20" customHeight="1">
       <c r="A240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="8"/>
@@ -7683,7 +7694,7 @@
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
     </row>
-    <row r="241" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="20" customHeight="1">
       <c r="A241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="8"/>
@@ -7710,7 +7721,7 @@
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
     </row>
-    <row r="242" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="20" customHeight="1">
       <c r="A242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="8"/>
@@ -7737,7 +7748,7 @@
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
     </row>
-    <row r="243" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="20" customHeight="1">
       <c r="A243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="8"/>
@@ -7764,7 +7775,7 @@
       <c r="Y243" s="4"/>
       <c r="Z243" s="4"/>
     </row>
-    <row r="244" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="20" customHeight="1">
       <c r="A244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="8"/>
@@ -7791,7 +7802,7 @@
       <c r="Y244" s="4"/>
       <c r="Z244" s="4"/>
     </row>
-    <row r="245" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="20" customHeight="1">
       <c r="A245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="8"/>
@@ -7818,7 +7829,7 @@
       <c r="Y245" s="4"/>
       <c r="Z245" s="4"/>
     </row>
-    <row r="246" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="20" customHeight="1">
       <c r="A246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="8"/>
@@ -7845,7 +7856,7 @@
       <c r="Y246" s="4"/>
       <c r="Z246" s="4"/>
     </row>
-    <row r="247" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="20" customHeight="1">
       <c r="A247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="8"/>
@@ -7872,7 +7883,7 @@
       <c r="Y247" s="4"/>
       <c r="Z247" s="4"/>
     </row>
-    <row r="248" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="20" customHeight="1">
       <c r="A248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="8"/>
@@ -7899,7 +7910,7 @@
       <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
     </row>
-    <row r="249" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="20" customHeight="1">
       <c r="A249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="8"/>
@@ -7926,7 +7937,7 @@
       <c r="Y249" s="4"/>
       <c r="Z249" s="4"/>
     </row>
-    <row r="250" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="20" customHeight="1">
       <c r="A250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="8"/>
@@ -7953,7 +7964,7 @@
       <c r="Y250" s="4"/>
       <c r="Z250" s="4"/>
     </row>
-    <row r="251" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="20" customHeight="1">
       <c r="A251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="8"/>
@@ -7980,7 +7991,7 @@
       <c r="Y251" s="4"/>
       <c r="Z251" s="4"/>
     </row>
-    <row r="252" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="20" customHeight="1">
       <c r="A252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="8"/>
@@ -8007,7 +8018,7 @@
       <c r="Y252" s="4"/>
       <c r="Z252" s="4"/>
     </row>
-    <row r="253" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="20" customHeight="1">
       <c r="A253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="8"/>
@@ -8034,7 +8045,7 @@
       <c r="Y253" s="4"/>
       <c r="Z253" s="4"/>
     </row>
-    <row r="254" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="20" customHeight="1">
       <c r="A254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="8"/>
@@ -8061,7 +8072,7 @@
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
     </row>
-    <row r="255" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="20" customHeight="1">
       <c r="A255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="8"/>
@@ -8088,7 +8099,7 @@
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
     </row>
-    <row r="256" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="20" customHeight="1">
       <c r="A256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="8"/>
@@ -8115,7 +8126,7 @@
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
     </row>
-    <row r="257" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="20" customHeight="1">
       <c r="A257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="8"/>
@@ -8142,7 +8153,7 @@
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
     </row>
-    <row r="258" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="20" customHeight="1">
       <c r="A258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="8"/>
@@ -8169,7 +8180,7 @@
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
     </row>
-    <row r="259" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="20" customHeight="1">
       <c r="A259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="8"/>
@@ -8196,7 +8207,7 @@
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
     </row>
-    <row r="260" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="20" customHeight="1">
       <c r="A260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="8"/>
@@ -8223,7 +8234,7 @@
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
     </row>
-    <row r="261" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="20" customHeight="1">
       <c r="A261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="8"/>
@@ -8250,7 +8261,7 @@
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
     </row>
-    <row r="262" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="20" customHeight="1">
       <c r="A262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="8"/>
@@ -8277,7 +8288,7 @@
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
     </row>
-    <row r="263" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="20" customHeight="1">
       <c r="A263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="8"/>
@@ -8304,7 +8315,7 @@
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
     </row>
-    <row r="264" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="20" customHeight="1">
       <c r="A264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="8"/>
@@ -8331,7 +8342,7 @@
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
     </row>
-    <row r="265" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="20" customHeight="1">
       <c r="A265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="8"/>
@@ -8358,7 +8369,7 @@
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
     </row>
-    <row r="266" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="20" customHeight="1">
       <c r="A266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="8"/>
@@ -8385,7 +8396,7 @@
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
     </row>
-    <row r="267" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="20" customHeight="1">
       <c r="A267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="8"/>
@@ -8412,7 +8423,7 @@
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
     </row>
-    <row r="268" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="20" customHeight="1">
       <c r="A268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="8"/>
@@ -8439,7 +8450,7 @@
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
     </row>
-    <row r="269" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="20" customHeight="1">
       <c r="A269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="8"/>
@@ -8466,7 +8477,7 @@
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
     </row>
-    <row r="270" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="20" customHeight="1">
       <c r="A270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="8"/>
@@ -8493,7 +8504,7 @@
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
     </row>
-    <row r="271" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="20" customHeight="1">
       <c r="A271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="8"/>
@@ -8520,7 +8531,7 @@
       <c r="Y271" s="4"/>
       <c r="Z271" s="4"/>
     </row>
-    <row r="272" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="20" customHeight="1">
       <c r="A272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="8"/>
@@ -8547,7 +8558,7 @@
       <c r="Y272" s="4"/>
       <c r="Z272" s="4"/>
     </row>
-    <row r="273" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="20" customHeight="1">
       <c r="A273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="8"/>
@@ -8574,7 +8585,7 @@
       <c r="Y273" s="4"/>
       <c r="Z273" s="4"/>
     </row>
-    <row r="274" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="20" customHeight="1">
       <c r="A274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="8"/>
@@ -8601,7 +8612,7 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="20" customHeight="1">
       <c r="A275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="8"/>
@@ -8628,7 +8639,7 @@
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
     </row>
-    <row r="276" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="20" customHeight="1">
       <c r="A276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="8"/>
@@ -8655,7 +8666,7 @@
       <c r="Y276" s="4"/>
       <c r="Z276" s="4"/>
     </row>
-    <row r="277" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="20" customHeight="1">
       <c r="A277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="8"/>
@@ -8682,7 +8693,7 @@
       <c r="Y277" s="4"/>
       <c r="Z277" s="4"/>
     </row>
-    <row r="278" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="20" customHeight="1">
       <c r="A278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="8"/>
@@ -8709,7 +8720,7 @@
       <c r="Y278" s="4"/>
       <c r="Z278" s="4"/>
     </row>
-    <row r="279" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="20" customHeight="1">
       <c r="A279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="8"/>
@@ -8736,7 +8747,7 @@
       <c r="Y279" s="4"/>
       <c r="Z279" s="4"/>
     </row>
-    <row r="280" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="20" customHeight="1">
       <c r="A280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="8"/>
@@ -8763,7 +8774,7 @@
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
     </row>
-    <row r="281" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="20" customHeight="1">
       <c r="A281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="8"/>
@@ -8790,7 +8801,7 @@
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
     </row>
-    <row r="282" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="20" customHeight="1">
       <c r="A282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="8"/>
@@ -8817,7 +8828,7 @@
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
     </row>
-    <row r="283" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="20" customHeight="1">
       <c r="A283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="8"/>
@@ -8844,7 +8855,7 @@
       <c r="Y283" s="4"/>
       <c r="Z283" s="4"/>
     </row>
-    <row r="284" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="20" customHeight="1">
       <c r="A284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="8"/>
@@ -8871,7 +8882,7 @@
       <c r="Y284" s="4"/>
       <c r="Z284" s="4"/>
     </row>
-    <row r="285" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="20" customHeight="1">
       <c r="A285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="8"/>
@@ -8898,7 +8909,7 @@
       <c r="Y285" s="4"/>
       <c r="Z285" s="4"/>
     </row>
-    <row r="286" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="20" customHeight="1">
       <c r="A286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="8"/>
@@ -8925,7 +8936,7 @@
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
     </row>
-    <row r="287" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="20" customHeight="1">
       <c r="A287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="8"/>
@@ -8952,7 +8963,7 @@
       <c r="Y287" s="4"/>
       <c r="Z287" s="4"/>
     </row>
-    <row r="288" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="20" customHeight="1">
       <c r="A288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="8"/>
@@ -8979,7 +8990,7 @@
       <c r="Y288" s="4"/>
       <c r="Z288" s="4"/>
     </row>
-    <row r="289" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="20" customHeight="1">
       <c r="A289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="8"/>
@@ -9006,7 +9017,7 @@
       <c r="Y289" s="4"/>
       <c r="Z289" s="4"/>
     </row>
-    <row r="290" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="20" customHeight="1">
       <c r="A290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="8"/>
@@ -9033,7 +9044,7 @@
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
     </row>
-    <row r="291" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="20" customHeight="1">
       <c r="A291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="8"/>
@@ -9060,7 +9071,7 @@
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
     </row>
-    <row r="292" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="20" customHeight="1">
       <c r="A292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="8"/>
@@ -9087,7 +9098,7 @@
       <c r="Y292" s="4"/>
       <c r="Z292" s="4"/>
     </row>
-    <row r="293" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="20" customHeight="1">
       <c r="A293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="8"/>
@@ -9114,7 +9125,7 @@
       <c r="Y293" s="4"/>
       <c r="Z293" s="4"/>
     </row>
-    <row r="294" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="20" customHeight="1">
       <c r="A294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="8"/>
@@ -9141,7 +9152,7 @@
       <c r="Y294" s="4"/>
       <c r="Z294" s="4"/>
     </row>
-    <row r="295" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="20" customHeight="1">
       <c r="A295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="8"/>
@@ -9168,7 +9179,7 @@
       <c r="Y295" s="4"/>
       <c r="Z295" s="4"/>
     </row>
-    <row r="296" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="20" customHeight="1">
       <c r="A296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="8"/>
@@ -9195,7 +9206,7 @@
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
     </row>
-    <row r="297" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="20" customHeight="1">
       <c r="A297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="8"/>
@@ -9222,7 +9233,7 @@
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
     </row>
-    <row r="298" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="20" customHeight="1">
       <c r="A298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="8"/>
@@ -9249,7 +9260,7 @@
       <c r="Y298" s="4"/>
       <c r="Z298" s="4"/>
     </row>
-    <row r="299" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="20" customHeight="1">
       <c r="A299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="8"/>
@@ -9276,7 +9287,7 @@
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
     </row>
-    <row r="300" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="20" customHeight="1">
       <c r="A300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="8"/>
@@ -9303,7 +9314,7 @@
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
     </row>
-    <row r="301" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="20" customHeight="1">
       <c r="A301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="8"/>
@@ -9330,7 +9341,7 @@
       <c r="Y301" s="4"/>
       <c r="Z301" s="4"/>
     </row>
-    <row r="302" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="20" customHeight="1">
       <c r="A302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="8"/>
@@ -9357,7 +9368,7 @@
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
     </row>
-    <row r="303" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="20" customHeight="1">
       <c r="A303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="8"/>
@@ -9384,7 +9395,7 @@
       <c r="Y303" s="4"/>
       <c r="Z303" s="4"/>
     </row>
-    <row r="304" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="20" customHeight="1">
       <c r="A304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="8"/>
@@ -9411,7 +9422,7 @@
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
     </row>
-    <row r="305" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="20" customHeight="1">
       <c r="A305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="8"/>
@@ -9438,7 +9449,7 @@
       <c r="Y305" s="4"/>
       <c r="Z305" s="4"/>
     </row>
-    <row r="306" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="20" customHeight="1">
       <c r="A306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="8"/>
@@ -9465,7 +9476,7 @@
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
     </row>
-    <row r="307" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="20" customHeight="1">
       <c r="A307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="8"/>
@@ -9492,7 +9503,7 @@
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
     </row>
-    <row r="308" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="20" customHeight="1">
       <c r="A308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="8"/>
@@ -9519,7 +9530,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="20" customHeight="1">
       <c r="A309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="8"/>
@@ -9546,7 +9557,7 @@
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
     </row>
-    <row r="310" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="20" customHeight="1">
       <c r="A310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="8"/>
@@ -9573,7 +9584,7 @@
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
     </row>
-    <row r="311" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="20" customHeight="1">
       <c r="A311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="8"/>
@@ -9600,7 +9611,7 @@
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
     </row>
-    <row r="312" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="20" customHeight="1">
       <c r="A312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="8"/>
@@ -9627,7 +9638,7 @@
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
     </row>
-    <row r="313" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="20" customHeight="1">
       <c r="A313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="8"/>
@@ -9654,7 +9665,7 @@
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
     </row>
-    <row r="314" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="20" customHeight="1">
       <c r="A314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="8"/>
@@ -9681,7 +9692,7 @@
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
     </row>
-    <row r="315" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="20" customHeight="1">
       <c r="A315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="8"/>
@@ -9708,7 +9719,7 @@
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
     </row>
-    <row r="316" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="20" customHeight="1">
       <c r="A316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="8"/>
@@ -9735,7 +9746,7 @@
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
     </row>
-    <row r="317" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="20" customHeight="1">
       <c r="A317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="8"/>
@@ -9762,7 +9773,7 @@
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
     </row>
-    <row r="318" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="20" customHeight="1">
       <c r="A318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="8"/>
@@ -9789,7 +9800,7 @@
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
     </row>
-    <row r="319" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="20" customHeight="1">
       <c r="A319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="8"/>
@@ -9816,7 +9827,7 @@
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
     </row>
-    <row r="320" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="20" customHeight="1">
       <c r="A320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="8"/>
@@ -9843,7 +9854,7 @@
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
     </row>
-    <row r="321" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="20" customHeight="1">
       <c r="A321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="8"/>
@@ -9870,7 +9881,7 @@
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
     </row>
-    <row r="322" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="20" customHeight="1">
       <c r="A322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="8"/>
@@ -9897,7 +9908,7 @@
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
     </row>
-    <row r="323" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="20" customHeight="1">
       <c r="A323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="8"/>
@@ -9924,7 +9935,7 @@
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
     </row>
-    <row r="324" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="20" customHeight="1">
       <c r="A324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="8"/>
@@ -9951,7 +9962,7 @@
       <c r="Y324" s="4"/>
       <c r="Z324" s="4"/>
     </row>
-    <row r="325" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="20" customHeight="1">
       <c r="A325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="8"/>
@@ -9978,7 +9989,7 @@
       <c r="Y325" s="4"/>
       <c r="Z325" s="4"/>
     </row>
-    <row r="326" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="20" customHeight="1">
       <c r="A326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="8"/>
@@ -10005,7 +10016,7 @@
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
     </row>
-    <row r="327" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="20" customHeight="1">
       <c r="A327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="8"/>
@@ -10032,7 +10043,7 @@
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
     </row>
-    <row r="328" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="20" customHeight="1">
       <c r="A328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="8"/>
@@ -10059,7 +10070,7 @@
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
     </row>
-    <row r="329" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="20" customHeight="1">
       <c r="A329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="8"/>
@@ -10086,7 +10097,7 @@
       <c r="Y329" s="4"/>
       <c r="Z329" s="4"/>
     </row>
-    <row r="330" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="20" customHeight="1">
       <c r="A330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="8"/>
@@ -10113,7 +10124,7 @@
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
     </row>
-    <row r="331" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="20" customHeight="1">
       <c r="A331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="8"/>
@@ -10140,7 +10151,7 @@
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
     </row>
-    <row r="332" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="20" customHeight="1">
       <c r="A332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="8"/>
@@ -10167,7 +10178,7 @@
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
     </row>
-    <row r="333" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="20" customHeight="1">
       <c r="A333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="8"/>
@@ -10194,7 +10205,7 @@
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
     </row>
-    <row r="334" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="20" customHeight="1">
       <c r="A334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="8"/>
@@ -10221,7 +10232,7 @@
       <c r="Y334" s="4"/>
       <c r="Z334" s="4"/>
     </row>
-    <row r="335" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="20" customHeight="1">
       <c r="A335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="8"/>
@@ -10248,7 +10259,7 @@
       <c r="Y335" s="4"/>
       <c r="Z335" s="4"/>
     </row>
-    <row r="336" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="20" customHeight="1">
       <c r="A336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="8"/>
@@ -10275,7 +10286,7 @@
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
     </row>
-    <row r="337" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="20" customHeight="1">
       <c r="A337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="8"/>
@@ -10302,7 +10313,7 @@
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
     </row>
-    <row r="338" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="20" customHeight="1">
       <c r="A338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="8"/>
@@ -10329,7 +10340,7 @@
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
     </row>
-    <row r="339" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="20" customHeight="1">
       <c r="A339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="8"/>
@@ -10356,7 +10367,7 @@
       <c r="Y339" s="4"/>
       <c r="Z339" s="4"/>
     </row>
-    <row r="340" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="20" customHeight="1">
       <c r="A340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="8"/>
@@ -10383,7 +10394,7 @@
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
     </row>
-    <row r="341" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="20" customHeight="1">
       <c r="A341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="8"/>
@@ -10410,7 +10421,7 @@
       <c r="Y341" s="4"/>
       <c r="Z341" s="4"/>
     </row>
-    <row r="342" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="20" customHeight="1">
       <c r="A342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="8"/>
@@ -10437,7 +10448,7 @@
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
     </row>
-    <row r="343" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="20" customHeight="1">
       <c r="A343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="8"/>
@@ -10464,7 +10475,7 @@
       <c r="Y343" s="4"/>
       <c r="Z343" s="4"/>
     </row>
-    <row r="344" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="20" customHeight="1">
       <c r="A344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="8"/>
@@ -10491,7 +10502,7 @@
       <c r="Y344" s="4"/>
       <c r="Z344" s="4"/>
     </row>
-    <row r="345" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="20" customHeight="1">
       <c r="A345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="8"/>
@@ -10518,7 +10529,7 @@
       <c r="Y345" s="4"/>
       <c r="Z345" s="4"/>
     </row>
-    <row r="346" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="20" customHeight="1">
       <c r="A346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="8"/>
@@ -10545,7 +10556,7 @@
       <c r="Y346" s="4"/>
       <c r="Z346" s="4"/>
     </row>
-    <row r="347" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="20" customHeight="1">
       <c r="A347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="8"/>
@@ -10572,7 +10583,7 @@
       <c r="Y347" s="4"/>
       <c r="Z347" s="4"/>
     </row>
-    <row r="348" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="20" customHeight="1">
       <c r="A348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="8"/>
@@ -10599,7 +10610,7 @@
       <c r="Y348" s="4"/>
       <c r="Z348" s="4"/>
     </row>
-    <row r="349" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="20" customHeight="1">
       <c r="A349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="8"/>
@@ -10626,7 +10637,7 @@
       <c r="Y349" s="4"/>
       <c r="Z349" s="4"/>
     </row>
-    <row r="350" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="20" customHeight="1">
       <c r="A350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="8"/>
@@ -10653,7 +10664,7 @@
       <c r="Y350" s="4"/>
       <c r="Z350" s="4"/>
     </row>
-    <row r="351" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="20" customHeight="1">
       <c r="A351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="8"/>
@@ -10680,7 +10691,7 @@
       <c r="Y351" s="4"/>
       <c r="Z351" s="4"/>
     </row>
-    <row r="352" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="20" customHeight="1">
       <c r="A352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="8"/>
@@ -10707,7 +10718,7 @@
       <c r="Y352" s="4"/>
       <c r="Z352" s="4"/>
     </row>
-    <row r="353" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="20" customHeight="1">
       <c r="A353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="8"/>
@@ -10734,7 +10745,7 @@
       <c r="Y353" s="4"/>
       <c r="Z353" s="4"/>
     </row>
-    <row r="354" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="20" customHeight="1">
       <c r="A354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="8"/>
@@ -10761,7 +10772,7 @@
       <c r="Y354" s="4"/>
       <c r="Z354" s="4"/>
     </row>
-    <row r="355" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="20" customHeight="1">
       <c r="A355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="8"/>
@@ -10788,7 +10799,7 @@
       <c r="Y355" s="4"/>
       <c r="Z355" s="4"/>
     </row>
-    <row r="356" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="20" customHeight="1">
       <c r="A356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="8"/>
@@ -10815,7 +10826,7 @@
       <c r="Y356" s="4"/>
       <c r="Z356" s="4"/>
     </row>
-    <row r="357" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="20" customHeight="1">
       <c r="A357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="8"/>
@@ -10842,7 +10853,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="4"/>
     </row>
-    <row r="358" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="20" customHeight="1">
       <c r="A358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="8"/>
@@ -10869,7 +10880,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="4"/>
     </row>
-    <row r="359" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="20" customHeight="1">
       <c r="A359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="8"/>
@@ -10896,7 +10907,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="4"/>
     </row>
-    <row r="360" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="20" customHeight="1">
       <c r="A360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="8"/>
@@ -10923,7 +10934,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="4"/>
     </row>
-    <row r="361" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="20" customHeight="1">
       <c r="A361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="8"/>
@@ -10950,7 +10961,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="4"/>
     </row>
-    <row r="362" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="20" customHeight="1">
       <c r="A362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="8"/>
@@ -10977,7 +10988,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
     </row>
-    <row r="363" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="20" customHeight="1">
       <c r="A363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="8"/>
@@ -11004,7 +11015,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="4"/>
     </row>
-    <row r="364" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="20" customHeight="1">
       <c r="A364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="8"/>
@@ -11031,7 +11042,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="4"/>
     </row>
-    <row r="365" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="20" customHeight="1">
       <c r="A365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="8"/>
@@ -11058,7 +11069,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="4"/>
     </row>
-    <row r="366" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="20" customHeight="1">
       <c r="A366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="8"/>
@@ -11085,7 +11096,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="4"/>
     </row>
-    <row r="367" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="20" customHeight="1">
       <c r="A367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="8"/>
@@ -11112,7 +11123,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
     </row>
-    <row r="368" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="20" customHeight="1">
       <c r="A368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="8"/>
@@ -11139,7 +11150,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="4"/>
     </row>
-    <row r="369" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="20" customHeight="1">
       <c r="A369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="8"/>
@@ -11166,7 +11177,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="4"/>
     </row>
-    <row r="370" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="20" customHeight="1">
       <c r="A370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="8"/>
@@ -11193,7 +11204,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="4"/>
     </row>
-    <row r="371" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="20" customHeight="1">
       <c r="A371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="8"/>
@@ -11220,7 +11231,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="4"/>
     </row>
-    <row r="372" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="20" customHeight="1">
       <c r="A372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="8"/>
@@ -11247,7 +11258,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="4"/>
     </row>
-    <row r="373" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="20" customHeight="1">
       <c r="A373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="8"/>
@@ -11274,7 +11285,7 @@
       <c r="Y373" s="4"/>
       <c r="Z373" s="4"/>
     </row>
-    <row r="374" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="20" customHeight="1">
       <c r="A374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="8"/>
@@ -11301,7 +11312,7 @@
       <c r="Y374" s="4"/>
       <c r="Z374" s="4"/>
     </row>
-    <row r="375" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="20" customHeight="1">
       <c r="A375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="8"/>
@@ -11328,7 +11339,7 @@
       <c r="Y375" s="4"/>
       <c r="Z375" s="4"/>
     </row>
-    <row r="376" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="20" customHeight="1">
       <c r="A376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="8"/>
@@ -11355,7 +11366,7 @@
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
     </row>
-    <row r="377" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="20" customHeight="1">
       <c r="A377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="8"/>
@@ -11382,7 +11393,7 @@
       <c r="Y377" s="4"/>
       <c r="Z377" s="4"/>
     </row>
-    <row r="378" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="20" customHeight="1">
       <c r="A378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="8"/>
@@ -11409,7 +11420,7 @@
       <c r="Y378" s="4"/>
       <c r="Z378" s="4"/>
     </row>
-    <row r="379" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="20" customHeight="1">
       <c r="A379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="8"/>
@@ -11436,7 +11447,7 @@
       <c r="Y379" s="4"/>
       <c r="Z379" s="4"/>
     </row>
-    <row r="380" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="20" customHeight="1">
       <c r="A380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="8"/>
@@ -11463,7 +11474,7 @@
       <c r="Y380" s="4"/>
       <c r="Z380" s="4"/>
     </row>
-    <row r="381" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="20" customHeight="1">
       <c r="A381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="8"/>
@@ -11490,7 +11501,7 @@
       <c r="Y381" s="4"/>
       <c r="Z381" s="4"/>
     </row>
-    <row r="382" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="20" customHeight="1">
       <c r="A382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="8"/>
@@ -11517,7 +11528,7 @@
       <c r="Y382" s="4"/>
       <c r="Z382" s="4"/>
     </row>
-    <row r="383" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="20" customHeight="1">
       <c r="A383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="8"/>
@@ -11544,7 +11555,7 @@
       <c r="Y383" s="4"/>
       <c r="Z383" s="4"/>
     </row>
-    <row r="384" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="20" customHeight="1">
       <c r="A384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="8"/>
@@ -11571,7 +11582,7 @@
       <c r="Y384" s="4"/>
       <c r="Z384" s="4"/>
     </row>
-    <row r="385" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="20" customHeight="1">
       <c r="A385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="8"/>
@@ -11598,7 +11609,7 @@
       <c r="Y385" s="4"/>
       <c r="Z385" s="4"/>
     </row>
-    <row r="386" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="20" customHeight="1">
       <c r="A386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="8"/>
@@ -11625,7 +11636,7 @@
       <c r="Y386" s="4"/>
       <c r="Z386" s="4"/>
     </row>
-    <row r="387" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="20" customHeight="1">
       <c r="A387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="8"/>
@@ -11652,7 +11663,7 @@
       <c r="Y387" s="4"/>
       <c r="Z387" s="4"/>
     </row>
-    <row r="388" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="20" customHeight="1">
       <c r="A388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="8"/>
@@ -11679,7 +11690,7 @@
       <c r="Y388" s="4"/>
       <c r="Z388" s="4"/>
     </row>
-    <row r="389" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="20" customHeight="1">
       <c r="A389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="8"/>
@@ -11706,7 +11717,7 @@
       <c r="Y389" s="4"/>
       <c r="Z389" s="4"/>
     </row>
-    <row r="390" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="20" customHeight="1">
       <c r="A390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="8"/>
@@ -11733,7 +11744,7 @@
       <c r="Y390" s="4"/>
       <c r="Z390" s="4"/>
     </row>
-    <row r="391" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="20" customHeight="1">
       <c r="A391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="8"/>
@@ -11760,7 +11771,7 @@
       <c r="Y391" s="4"/>
       <c r="Z391" s="4"/>
     </row>
-    <row r="392" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="20" customHeight="1">
       <c r="A392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="8"/>
@@ -11787,7 +11798,7 @@
       <c r="Y392" s="4"/>
       <c r="Z392" s="4"/>
     </row>
-    <row r="393" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="20" customHeight="1">
       <c r="A393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="8"/>
@@ -11814,7 +11825,7 @@
       <c r="Y393" s="4"/>
       <c r="Z393" s="4"/>
     </row>
-    <row r="394" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="20" customHeight="1">
       <c r="A394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="8"/>
@@ -11841,7 +11852,7 @@
       <c r="Y394" s="4"/>
       <c r="Z394" s="4"/>
     </row>
-    <row r="395" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="20" customHeight="1">
       <c r="A395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="8"/>
@@ -11868,7 +11879,7 @@
       <c r="Y395" s="4"/>
       <c r="Z395" s="4"/>
     </row>
-    <row r="396" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="20" customHeight="1">
       <c r="A396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="8"/>
@@ -11895,7 +11906,7 @@
       <c r="Y396" s="4"/>
       <c r="Z396" s="4"/>
     </row>
-    <row r="397" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="20" customHeight="1">
       <c r="A397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="8"/>
@@ -11922,7 +11933,7 @@
       <c r="Y397" s="4"/>
       <c r="Z397" s="4"/>
     </row>
-    <row r="398" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="20" customHeight="1">
       <c r="A398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="8"/>
@@ -11949,7 +11960,7 @@
       <c r="Y398" s="4"/>
       <c r="Z398" s="4"/>
     </row>
-    <row r="399" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="20" customHeight="1">
       <c r="A399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="8"/>
@@ -11976,7 +11987,7 @@
       <c r="Y399" s="4"/>
       <c r="Z399" s="4"/>
     </row>
-    <row r="400" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="20" customHeight="1">
       <c r="A400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="8"/>
@@ -12003,7 +12014,7 @@
       <c r="Y400" s="4"/>
       <c r="Z400" s="4"/>
     </row>
-    <row r="401" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="20" customHeight="1">
       <c r="A401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="8"/>
@@ -12030,7 +12041,7 @@
       <c r="Y401" s="4"/>
       <c r="Z401" s="4"/>
     </row>
-    <row r="402" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="20" customHeight="1">
       <c r="A402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="8"/>
@@ -12057,7 +12068,7 @@
       <c r="Y402" s="4"/>
       <c r="Z402" s="4"/>
     </row>
-    <row r="403" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="20" customHeight="1">
       <c r="A403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="8"/>
@@ -12084,7 +12095,7 @@
       <c r="Y403" s="4"/>
       <c r="Z403" s="4"/>
     </row>
-    <row r="404" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="20" customHeight="1">
       <c r="A404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="8"/>
@@ -12111,7 +12122,7 @@
       <c r="Y404" s="4"/>
       <c r="Z404" s="4"/>
     </row>
-    <row r="405" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="20" customHeight="1">
       <c r="A405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="8"/>
@@ -12138,7 +12149,7 @@
       <c r="Y405" s="4"/>
       <c r="Z405" s="4"/>
     </row>
-    <row r="406" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="20" customHeight="1">
       <c r="A406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="8"/>
@@ -12165,7 +12176,7 @@
       <c r="Y406" s="4"/>
       <c r="Z406" s="4"/>
     </row>
-    <row r="407" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="20" customHeight="1">
       <c r="A407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="8"/>
@@ -12192,7 +12203,7 @@
       <c r="Y407" s="4"/>
       <c r="Z407" s="4"/>
     </row>
-    <row r="408" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="20" customHeight="1">
       <c r="A408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="8"/>
@@ -12219,7 +12230,7 @@
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
     </row>
-    <row r="409" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="20" customHeight="1">
       <c r="A409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="8"/>
@@ -12246,7 +12257,7 @@
       <c r="Y409" s="4"/>
       <c r="Z409" s="4"/>
     </row>
-    <row r="410" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="20" customHeight="1">
       <c r="A410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="8"/>
@@ -12273,7 +12284,7 @@
       <c r="Y410" s="4"/>
       <c r="Z410" s="4"/>
     </row>
-    <row r="411" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="20" customHeight="1">
       <c r="A411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="8"/>
@@ -12300,7 +12311,7 @@
       <c r="Y411" s="4"/>
       <c r="Z411" s="4"/>
     </row>
-    <row r="412" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="20" customHeight="1">
       <c r="A412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="8"/>
@@ -12327,7 +12338,7 @@
       <c r="Y412" s="4"/>
       <c r="Z412" s="4"/>
     </row>
-    <row r="413" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="20" customHeight="1">
       <c r="A413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="8"/>
@@ -12354,7 +12365,7 @@
       <c r="Y413" s="4"/>
       <c r="Z413" s="4"/>
     </row>
-    <row r="414" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="20" customHeight="1">
       <c r="A414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="8"/>
@@ -12381,7 +12392,7 @@
       <c r="Y414" s="4"/>
       <c r="Z414" s="4"/>
     </row>
-    <row r="415" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="20" customHeight="1">
       <c r="A415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="8"/>
@@ -12408,7 +12419,7 @@
       <c r="Y415" s="4"/>
       <c r="Z415" s="4"/>
     </row>
-    <row r="416" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="20" customHeight="1">
       <c r="A416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="8"/>
@@ -12435,7 +12446,7 @@
       <c r="Y416" s="4"/>
       <c r="Z416" s="4"/>
     </row>
-    <row r="417" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="20" customHeight="1">
       <c r="A417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="8"/>
@@ -12462,7 +12473,7 @@
       <c r="Y417" s="4"/>
       <c r="Z417" s="4"/>
     </row>
-    <row r="418" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="20" customHeight="1">
       <c r="A418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="8"/>
@@ -12489,7 +12500,7 @@
       <c r="Y418" s="4"/>
       <c r="Z418" s="4"/>
     </row>
-    <row r="419" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="20" customHeight="1">
       <c r="A419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="8"/>
@@ -12516,7 +12527,7 @@
       <c r="Y419" s="4"/>
       <c r="Z419" s="4"/>
     </row>
-    <row r="420" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="20" customHeight="1">
       <c r="A420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="8"/>
@@ -12543,7 +12554,7 @@
       <c r="Y420" s="4"/>
       <c r="Z420" s="4"/>
     </row>
-    <row r="421" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="20" customHeight="1">
       <c r="A421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="8"/>
@@ -12570,7 +12581,7 @@
       <c r="Y421" s="4"/>
       <c r="Z421" s="4"/>
     </row>
-    <row r="422" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="20" customHeight="1">
       <c r="A422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="8"/>
@@ -12597,7 +12608,7 @@
       <c r="Y422" s="4"/>
       <c r="Z422" s="4"/>
     </row>
-    <row r="423" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="20" customHeight="1">
       <c r="A423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="8"/>
@@ -12624,7 +12635,7 @@
       <c r="Y423" s="4"/>
       <c r="Z423" s="4"/>
     </row>
-    <row r="424" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="20" customHeight="1">
       <c r="A424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="8"/>
@@ -12651,7 +12662,7 @@
       <c r="Y424" s="4"/>
       <c r="Z424" s="4"/>
     </row>
-    <row r="425" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="20" customHeight="1">
       <c r="A425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="8"/>
@@ -12678,7 +12689,7 @@
       <c r="Y425" s="4"/>
       <c r="Z425" s="4"/>
     </row>
-    <row r="426" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="20" customHeight="1">
       <c r="A426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="8"/>
@@ -12705,7 +12716,7 @@
       <c r="Y426" s="4"/>
       <c r="Z426" s="4"/>
     </row>
-    <row r="427" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="20" customHeight="1">
       <c r="A427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="8"/>
@@ -12732,7 +12743,7 @@
       <c r="Y427" s="4"/>
       <c r="Z427" s="4"/>
     </row>
-    <row r="428" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="20" customHeight="1">
       <c r="A428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="8"/>
@@ -12759,7 +12770,7 @@
       <c r="Y428" s="4"/>
       <c r="Z428" s="4"/>
     </row>
-    <row r="429" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="20" customHeight="1">
       <c r="A429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="8"/>
@@ -12786,7 +12797,7 @@
       <c r="Y429" s="4"/>
       <c r="Z429" s="4"/>
     </row>
-    <row r="430" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="20" customHeight="1">
       <c r="A430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="8"/>
@@ -12813,7 +12824,7 @@
       <c r="Y430" s="4"/>
       <c r="Z430" s="4"/>
     </row>
-    <row r="431" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="20" customHeight="1">
       <c r="A431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="8"/>
@@ -12840,7 +12851,7 @@
       <c r="Y431" s="4"/>
       <c r="Z431" s="4"/>
     </row>
-    <row r="432" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="20" customHeight="1">
       <c r="A432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="8"/>
@@ -12867,7 +12878,7 @@
       <c r="Y432" s="4"/>
       <c r="Z432" s="4"/>
     </row>
-    <row r="433" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="20" customHeight="1">
       <c r="A433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="8"/>
@@ -12894,7 +12905,7 @@
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
     </row>
-    <row r="434" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="20" customHeight="1">
       <c r="A434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="8"/>
@@ -12921,7 +12932,7 @@
       <c r="Y434" s="4"/>
       <c r="Z434" s="4"/>
     </row>
-    <row r="435" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="20" customHeight="1">
       <c r="A435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="8"/>
@@ -12948,7 +12959,7 @@
       <c r="Y435" s="4"/>
       <c r="Z435" s="4"/>
     </row>
-    <row r="436" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="20" customHeight="1">
       <c r="A436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="8"/>
@@ -12975,7 +12986,7 @@
       <c r="Y436" s="4"/>
       <c r="Z436" s="4"/>
     </row>
-    <row r="437" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="20" customHeight="1">
       <c r="A437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="8"/>
@@ -13002,7 +13013,7 @@
       <c r="Y437" s="4"/>
       <c r="Z437" s="4"/>
     </row>
-    <row r="438" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="20" customHeight="1">
       <c r="A438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="8"/>
@@ -13029,7 +13040,7 @@
       <c r="Y438" s="4"/>
       <c r="Z438" s="4"/>
     </row>
-    <row r="439" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="20" customHeight="1">
       <c r="A439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="8"/>
@@ -13056,7 +13067,7 @@
       <c r="Y439" s="4"/>
       <c r="Z439" s="4"/>
     </row>
-    <row r="440" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="20" customHeight="1">
       <c r="A440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="8"/>
@@ -13083,7 +13094,7 @@
       <c r="Y440" s="4"/>
       <c r="Z440" s="4"/>
     </row>
-    <row r="441" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="20" customHeight="1">
       <c r="A441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="8"/>
@@ -13110,7 +13121,7 @@
       <c r="Y441" s="4"/>
       <c r="Z441" s="4"/>
     </row>
-    <row r="442" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="20" customHeight="1">
       <c r="A442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="8"/>
@@ -13137,7 +13148,7 @@
       <c r="Y442" s="4"/>
       <c r="Z442" s="4"/>
     </row>
-    <row r="443" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="20" customHeight="1">
       <c r="A443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="8"/>
@@ -13164,7 +13175,7 @@
       <c r="Y443" s="4"/>
       <c r="Z443" s="4"/>
     </row>
-    <row r="444" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="20" customHeight="1">
       <c r="A444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="8"/>
@@ -13191,7 +13202,7 @@
       <c r="Y444" s="4"/>
       <c r="Z444" s="4"/>
     </row>
-    <row r="445" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="20" customHeight="1">
       <c r="A445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="8"/>
@@ -13218,7 +13229,7 @@
       <c r="Y445" s="4"/>
       <c r="Z445" s="4"/>
     </row>
-    <row r="446" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="20" customHeight="1">
       <c r="A446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="8"/>
@@ -13245,7 +13256,7 @@
       <c r="Y446" s="4"/>
       <c r="Z446" s="4"/>
     </row>
-    <row r="447" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="20" customHeight="1">
       <c r="A447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="8"/>
@@ -13272,7 +13283,7 @@
       <c r="Y447" s="4"/>
       <c r="Z447" s="4"/>
     </row>
-    <row r="448" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="20" customHeight="1">
       <c r="A448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="8"/>
@@ -13299,7 +13310,7 @@
       <c r="Y448" s="4"/>
       <c r="Z448" s="4"/>
     </row>
-    <row r="449" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="20" customHeight="1">
       <c r="A449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="8"/>
@@ -13326,7 +13337,7 @@
       <c r="Y449" s="4"/>
       <c r="Z449" s="4"/>
     </row>
-    <row r="450" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="20" customHeight="1">
       <c r="A450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="8"/>
@@ -13353,7 +13364,7 @@
       <c r="Y450" s="4"/>
       <c r="Z450" s="4"/>
     </row>
-    <row r="451" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="20" customHeight="1">
       <c r="A451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="8"/>
@@ -13380,7 +13391,7 @@
       <c r="Y451" s="4"/>
       <c r="Z451" s="4"/>
     </row>
-    <row r="452" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="20" customHeight="1">
       <c r="A452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="8"/>
@@ -13407,7 +13418,7 @@
       <c r="Y452" s="4"/>
       <c r="Z452" s="4"/>
     </row>
-    <row r="453" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="20" customHeight="1">
       <c r="A453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="8"/>
@@ -13434,7 +13445,7 @@
       <c r="Y453" s="4"/>
       <c r="Z453" s="4"/>
     </row>
-    <row r="454" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="20" customHeight="1">
       <c r="A454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="8"/>
@@ -13461,7 +13472,7 @@
       <c r="Y454" s="4"/>
       <c r="Z454" s="4"/>
     </row>
-    <row r="455" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="20" customHeight="1">
       <c r="A455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="8"/>
@@ -13488,7 +13499,7 @@
       <c r="Y455" s="4"/>
       <c r="Z455" s="4"/>
     </row>
-    <row r="456" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="20" customHeight="1">
       <c r="A456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="8"/>
@@ -13515,7 +13526,7 @@
       <c r="Y456" s="4"/>
       <c r="Z456" s="4"/>
     </row>
-    <row r="457" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="20" customHeight="1">
       <c r="A457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="8"/>
@@ -13542,7 +13553,7 @@
       <c r="Y457" s="4"/>
       <c r="Z457" s="4"/>
     </row>
-    <row r="458" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="20" customHeight="1">
       <c r="A458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="8"/>
@@ -13569,7 +13580,7 @@
       <c r="Y458" s="4"/>
       <c r="Z458" s="4"/>
     </row>
-    <row r="459" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="20" customHeight="1">
       <c r="A459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="8"/>
@@ -13596,7 +13607,7 @@
       <c r="Y459" s="4"/>
       <c r="Z459" s="4"/>
     </row>
-    <row r="460" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="20" customHeight="1">
       <c r="A460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="8"/>
@@ -13623,7 +13634,7 @@
       <c r="Y460" s="4"/>
       <c r="Z460" s="4"/>
     </row>
-    <row r="461" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="20" customHeight="1">
       <c r="A461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="8"/>
@@ -13650,7 +13661,7 @@
       <c r="Y461" s="4"/>
       <c r="Z461" s="4"/>
     </row>
-    <row r="462" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="20" customHeight="1">
       <c r="A462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="8"/>
@@ -13677,7 +13688,7 @@
       <c r="Y462" s="4"/>
       <c r="Z462" s="4"/>
     </row>
-    <row r="463" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="20" customHeight="1">
       <c r="A463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="8"/>
@@ -13704,7 +13715,7 @@
       <c r="Y463" s="4"/>
       <c r="Z463" s="4"/>
     </row>
-    <row r="464" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="20" customHeight="1">
       <c r="A464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="8"/>
@@ -13731,7 +13742,7 @@
       <c r="Y464" s="4"/>
       <c r="Z464" s="4"/>
     </row>
-    <row r="465" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="20" customHeight="1">
       <c r="A465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="8"/>
@@ -13758,7 +13769,7 @@
       <c r="Y465" s="4"/>
       <c r="Z465" s="4"/>
     </row>
-    <row r="466" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="20" customHeight="1">
       <c r="A466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="8"/>
@@ -13785,7 +13796,7 @@
       <c r="Y466" s="4"/>
       <c r="Z466" s="4"/>
     </row>
-    <row r="467" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="20" customHeight="1">
       <c r="A467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="8"/>
@@ -13812,7 +13823,7 @@
       <c r="Y467" s="4"/>
       <c r="Z467" s="4"/>
     </row>
-    <row r="468" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="20" customHeight="1">
       <c r="A468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="8"/>
@@ -13839,7 +13850,7 @@
       <c r="Y468" s="4"/>
       <c r="Z468" s="4"/>
     </row>
-    <row r="469" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="20" customHeight="1">
       <c r="A469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="8"/>
@@ -13866,7 +13877,7 @@
       <c r="Y469" s="4"/>
       <c r="Z469" s="4"/>
     </row>
-    <row r="470" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="20" customHeight="1">
       <c r="A470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="8"/>
@@ -13893,7 +13904,7 @@
       <c r="Y470" s="4"/>
       <c r="Z470" s="4"/>
     </row>
-    <row r="471" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="20" customHeight="1">
       <c r="A471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="8"/>
@@ -13920,7 +13931,7 @@
       <c r="Y471" s="4"/>
       <c r="Z471" s="4"/>
     </row>
-    <row r="472" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="20" customHeight="1">
       <c r="A472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="8"/>
@@ -13947,7 +13958,7 @@
       <c r="Y472" s="4"/>
       <c r="Z472" s="4"/>
     </row>
-    <row r="473" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="20" customHeight="1">
       <c r="A473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="8"/>
@@ -13974,7 +13985,7 @@
       <c r="Y473" s="4"/>
       <c r="Z473" s="4"/>
     </row>
-    <row r="474" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="20" customHeight="1">
       <c r="A474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="8"/>
@@ -14001,7 +14012,7 @@
       <c r="Y474" s="4"/>
       <c r="Z474" s="4"/>
     </row>
-    <row r="475" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="20" customHeight="1">
       <c r="A475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="8"/>
@@ -14028,7 +14039,7 @@
       <c r="Y475" s="4"/>
       <c r="Z475" s="4"/>
     </row>
-    <row r="476" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="20" customHeight="1">
       <c r="A476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="8"/>
@@ -14055,7 +14066,7 @@
       <c r="Y476" s="4"/>
       <c r="Z476" s="4"/>
     </row>
-    <row r="477" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="20" customHeight="1">
       <c r="A477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="8"/>
@@ -14082,7 +14093,7 @@
       <c r="Y477" s="4"/>
       <c r="Z477" s="4"/>
     </row>
-    <row r="478" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="20" customHeight="1">
       <c r="A478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="8"/>
@@ -14109,7 +14120,7 @@
       <c r="Y478" s="4"/>
       <c r="Z478" s="4"/>
     </row>
-    <row r="479" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="20" customHeight="1">
       <c r="A479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="8"/>
@@ -14136,7 +14147,7 @@
       <c r="Y479" s="4"/>
       <c r="Z479" s="4"/>
     </row>
-    <row r="480" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="20" customHeight="1">
       <c r="A480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="8"/>
@@ -14163,7 +14174,7 @@
       <c r="Y480" s="4"/>
       <c r="Z480" s="4"/>
     </row>
-    <row r="481" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="20" customHeight="1">
       <c r="A481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="8"/>
@@ -14190,7 +14201,7 @@
       <c r="Y481" s="4"/>
       <c r="Z481" s="4"/>
     </row>
-    <row r="482" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="20" customHeight="1">
       <c r="A482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="8"/>
@@ -14217,7 +14228,7 @@
       <c r="Y482" s="4"/>
       <c r="Z482" s="4"/>
     </row>
-    <row r="483" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="20" customHeight="1">
       <c r="A483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="8"/>
@@ -14244,7 +14255,7 @@
       <c r="Y483" s="4"/>
       <c r="Z483" s="4"/>
     </row>
-    <row r="484" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="20" customHeight="1">
       <c r="A484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="8"/>
@@ -14271,7 +14282,7 @@
       <c r="Y484" s="4"/>
       <c r="Z484" s="4"/>
     </row>
-    <row r="485" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="20" customHeight="1">
       <c r="A485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="8"/>
@@ -14298,7 +14309,7 @@
       <c r="Y485" s="4"/>
       <c r="Z485" s="4"/>
     </row>
-    <row r="486" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="20" customHeight="1">
       <c r="A486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="8"/>
@@ -14325,7 +14336,7 @@
       <c r="Y486" s="4"/>
       <c r="Z486" s="4"/>
     </row>
-    <row r="487" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="20" customHeight="1">
       <c r="A487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="8"/>
@@ -14352,7 +14363,7 @@
       <c r="Y487" s="4"/>
       <c r="Z487" s="4"/>
     </row>
-    <row r="488" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="20" customHeight="1">
       <c r="A488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="8"/>
@@ -14379,7 +14390,7 @@
       <c r="Y488" s="4"/>
       <c r="Z488" s="4"/>
     </row>
-    <row r="489" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="20" customHeight="1">
       <c r="A489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="8"/>
@@ -14406,7 +14417,7 @@
       <c r="Y489" s="4"/>
       <c r="Z489" s="4"/>
     </row>
-    <row r="490" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="20" customHeight="1">
       <c r="A490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="8"/>
@@ -14433,7 +14444,7 @@
       <c r="Y490" s="4"/>
       <c r="Z490" s="4"/>
     </row>
-    <row r="491" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="20" customHeight="1">
       <c r="A491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="8"/>
@@ -14460,7 +14471,7 @@
       <c r="Y491" s="4"/>
       <c r="Z491" s="4"/>
     </row>
-    <row r="492" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="20" customHeight="1">
       <c r="A492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="8"/>
@@ -14487,7 +14498,7 @@
       <c r="Y492" s="4"/>
       <c r="Z492" s="4"/>
     </row>
-    <row r="493" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="20" customHeight="1">
       <c r="A493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="8"/>
@@ -14514,7 +14525,7 @@
       <c r="Y493" s="4"/>
       <c r="Z493" s="4"/>
     </row>
-    <row r="494" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="20" customHeight="1">
       <c r="A494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="8"/>
@@ -14541,7 +14552,7 @@
       <c r="Y494" s="4"/>
       <c r="Z494" s="4"/>
     </row>
-    <row r="495" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="20" customHeight="1">
       <c r="A495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="8"/>
@@ -14568,7 +14579,7 @@
       <c r="Y495" s="4"/>
       <c r="Z495" s="4"/>
     </row>
-    <row r="496" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="20" customHeight="1">
       <c r="A496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="8"/>
@@ -14595,7 +14606,7 @@
       <c r="Y496" s="4"/>
       <c r="Z496" s="4"/>
     </row>
-    <row r="497" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="20" customHeight="1">
       <c r="A497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="8"/>
@@ -14622,7 +14633,7 @@
       <c r="Y497" s="4"/>
       <c r="Z497" s="4"/>
     </row>
-    <row r="498" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="20" customHeight="1">
       <c r="A498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="8"/>
@@ -14649,7 +14660,7 @@
       <c r="Y498" s="4"/>
       <c r="Z498" s="4"/>
     </row>
-    <row r="499" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="20" customHeight="1">
       <c r="A499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="8"/>
@@ -14676,7 +14687,7 @@
       <c r="Y499" s="4"/>
       <c r="Z499" s="4"/>
     </row>
-    <row r="500" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="20" customHeight="1">
       <c r="A500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="8"/>
@@ -14703,7 +14714,7 @@
       <c r="Y500" s="4"/>
       <c r="Z500" s="4"/>
     </row>
-    <row r="501" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="20" customHeight="1">
       <c r="A501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="8"/>
@@ -14730,7 +14741,7 @@
       <c r="Y501" s="4"/>
       <c r="Z501" s="4"/>
     </row>
-    <row r="502" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="20" customHeight="1">
       <c r="A502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="8"/>
@@ -14757,7 +14768,7 @@
       <c r="Y502" s="4"/>
       <c r="Z502" s="4"/>
     </row>
-    <row r="503" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="20" customHeight="1">
       <c r="A503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="8"/>
@@ -14784,7 +14795,7 @@
       <c r="Y503" s="4"/>
       <c r="Z503" s="4"/>
     </row>
-    <row r="504" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="20" customHeight="1">
       <c r="A504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="8"/>
@@ -14811,7 +14822,7 @@
       <c r="Y504" s="4"/>
       <c r="Z504" s="4"/>
     </row>
-    <row r="505" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="20" customHeight="1">
       <c r="A505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="8"/>
@@ -14838,7 +14849,7 @@
       <c r="Y505" s="4"/>
       <c r="Z505" s="4"/>
     </row>
-    <row r="506" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="20" customHeight="1">
       <c r="A506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="8"/>
@@ -14865,7 +14876,7 @@
       <c r="Y506" s="4"/>
       <c r="Z506" s="4"/>
     </row>
-    <row r="507" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="20" customHeight="1">
       <c r="A507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="8"/>
@@ -14892,7 +14903,7 @@
       <c r="Y507" s="4"/>
       <c r="Z507" s="4"/>
     </row>
-    <row r="508" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="20" customHeight="1">
       <c r="A508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="8"/>
@@ -14919,7 +14930,7 @@
       <c r="Y508" s="4"/>
       <c r="Z508" s="4"/>
     </row>
-    <row r="509" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="20" customHeight="1">
       <c r="A509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="8"/>
@@ -14946,7 +14957,7 @@
       <c r="Y509" s="4"/>
       <c r="Z509" s="4"/>
     </row>
-    <row r="510" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="20" customHeight="1">
       <c r="A510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="8"/>
@@ -14973,7 +14984,7 @@
       <c r="Y510" s="4"/>
       <c r="Z510" s="4"/>
     </row>
-    <row r="511" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="20" customHeight="1">
       <c r="A511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="8"/>
@@ -15000,7 +15011,7 @@
       <c r="Y511" s="4"/>
       <c r="Z511" s="4"/>
     </row>
-    <row r="512" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="20" customHeight="1">
       <c r="A512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="8"/>
@@ -15027,7 +15038,7 @@
       <c r="Y512" s="4"/>
       <c r="Z512" s="4"/>
     </row>
-    <row r="513" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="20" customHeight="1">
       <c r="A513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="8"/>
@@ -15054,7 +15065,7 @@
       <c r="Y513" s="4"/>
       <c r="Z513" s="4"/>
     </row>
-    <row r="514" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="20" customHeight="1">
       <c r="A514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="8"/>
@@ -15081,7 +15092,7 @@
       <c r="Y514" s="4"/>
       <c r="Z514" s="4"/>
     </row>
-    <row r="515" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="20" customHeight="1">
       <c r="A515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="8"/>
@@ -15108,7 +15119,7 @@
       <c r="Y515" s="4"/>
       <c r="Z515" s="4"/>
     </row>
-    <row r="516" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="20" customHeight="1">
       <c r="A516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="8"/>
@@ -15135,7 +15146,7 @@
       <c r="Y516" s="4"/>
       <c r="Z516" s="4"/>
     </row>
-    <row r="517" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="20" customHeight="1">
       <c r="A517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="8"/>
@@ -15162,7 +15173,7 @@
       <c r="Y517" s="4"/>
       <c r="Z517" s="4"/>
     </row>
-    <row r="518" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="20" customHeight="1">
       <c r="A518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="8"/>
@@ -15189,7 +15200,7 @@
       <c r="Y518" s="4"/>
       <c r="Z518" s="4"/>
     </row>
-    <row r="519" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="20" customHeight="1">
       <c r="A519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="8"/>
@@ -15216,7 +15227,7 @@
       <c r="Y519" s="4"/>
       <c r="Z519" s="4"/>
     </row>
-    <row r="520" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="20" customHeight="1">
       <c r="A520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="8"/>
@@ -15243,7 +15254,7 @@
       <c r="Y520" s="4"/>
       <c r="Z520" s="4"/>
     </row>
-    <row r="521" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="20" customHeight="1">
       <c r="A521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="8"/>
@@ -15270,7 +15281,7 @@
       <c r="Y521" s="4"/>
       <c r="Z521" s="4"/>
     </row>
-    <row r="522" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="20" customHeight="1">
       <c r="A522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="8"/>
@@ -15297,7 +15308,7 @@
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
     </row>
-    <row r="523" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="20" customHeight="1">
       <c r="A523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="8"/>
@@ -15324,7 +15335,7 @@
       <c r="Y523" s="4"/>
       <c r="Z523" s="4"/>
     </row>
-    <row r="524" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="20" customHeight="1">
       <c r="A524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="8"/>
@@ -15351,7 +15362,7 @@
       <c r="Y524" s="4"/>
       <c r="Z524" s="4"/>
     </row>
-    <row r="525" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="20" customHeight="1">
       <c r="A525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="8"/>
@@ -15378,7 +15389,7 @@
       <c r="Y525" s="4"/>
       <c r="Z525" s="4"/>
     </row>
-    <row r="526" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="20" customHeight="1">
       <c r="A526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="8"/>
@@ -15405,7 +15416,7 @@
       <c r="Y526" s="4"/>
       <c r="Z526" s="4"/>
     </row>
-    <row r="527" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="20" customHeight="1">
       <c r="A527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="8"/>
@@ -15432,7 +15443,7 @@
       <c r="Y527" s="4"/>
       <c r="Z527" s="4"/>
     </row>
-    <row r="528" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="20" customHeight="1">
       <c r="A528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="8"/>
@@ -15459,7 +15470,7 @@
       <c r="Y528" s="4"/>
       <c r="Z528" s="4"/>
     </row>
-    <row r="529" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="20" customHeight="1">
       <c r="A529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="8"/>
@@ -15486,7 +15497,7 @@
       <c r="Y529" s="4"/>
       <c r="Z529" s="4"/>
     </row>
-    <row r="530" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="20" customHeight="1">
       <c r="A530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="8"/>
@@ -15513,7 +15524,7 @@
       <c r="Y530" s="4"/>
       <c r="Z530" s="4"/>
     </row>
-    <row r="531" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="20" customHeight="1">
       <c r="A531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="8"/>
@@ -15540,7 +15551,7 @@
       <c r="Y531" s="4"/>
       <c r="Z531" s="4"/>
     </row>
-    <row r="532" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="20" customHeight="1">
       <c r="A532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="8"/>
@@ -15567,7 +15578,7 @@
       <c r="Y532" s="4"/>
       <c r="Z532" s="4"/>
     </row>
-    <row r="533" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="20" customHeight="1">
       <c r="A533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="8"/>
@@ -15594,7 +15605,7 @@
       <c r="Y533" s="4"/>
       <c r="Z533" s="4"/>
     </row>
-    <row r="534" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="20" customHeight="1">
       <c r="A534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="8"/>
@@ -15621,7 +15632,7 @@
       <c r="Y534" s="4"/>
       <c r="Z534" s="4"/>
     </row>
-    <row r="535" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="20" customHeight="1">
       <c r="A535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="8"/>
@@ -15648,7 +15659,7 @@
       <c r="Y535" s="4"/>
       <c r="Z535" s="4"/>
     </row>
-    <row r="536" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="20" customHeight="1">
       <c r="A536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="8"/>
@@ -15675,7 +15686,7 @@
       <c r="Y536" s="4"/>
       <c r="Z536" s="4"/>
     </row>
-    <row r="537" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="20" customHeight="1">
       <c r="A537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="8"/>
@@ -15702,7 +15713,7 @@
       <c r="Y537" s="4"/>
       <c r="Z537" s="4"/>
     </row>
-    <row r="538" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="20" customHeight="1">
       <c r="A538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="8"/>
@@ -15729,7 +15740,7 @@
       <c r="Y538" s="4"/>
       <c r="Z538" s="4"/>
     </row>
-    <row r="539" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="20" customHeight="1">
       <c r="A539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="8"/>
@@ -15756,7 +15767,7 @@
       <c r="Y539" s="4"/>
       <c r="Z539" s="4"/>
     </row>
-    <row r="540" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="20" customHeight="1">
       <c r="A540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="8"/>
@@ -15783,7 +15794,7 @@
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
     </row>
-    <row r="541" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="20" customHeight="1">
       <c r="A541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="8"/>
@@ -15810,7 +15821,7 @@
       <c r="Y541" s="4"/>
       <c r="Z541" s="4"/>
     </row>
-    <row r="542" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="20" customHeight="1">
       <c r="A542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="8"/>
@@ -15837,7 +15848,7 @@
       <c r="Y542" s="4"/>
       <c r="Z542" s="4"/>
     </row>
-    <row r="543" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="20" customHeight="1">
       <c r="A543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="8"/>
@@ -15864,7 +15875,7 @@
       <c r="Y543" s="4"/>
       <c r="Z543" s="4"/>
     </row>
-    <row r="544" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="20" customHeight="1">
       <c r="A544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="8"/>
@@ -15891,7 +15902,7 @@
       <c r="Y544" s="4"/>
       <c r="Z544" s="4"/>
     </row>
-    <row r="545" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="20" customHeight="1">
       <c r="A545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="8"/>
@@ -15918,7 +15929,7 @@
       <c r="Y545" s="4"/>
       <c r="Z545" s="4"/>
     </row>
-    <row r="546" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="20" customHeight="1">
       <c r="A546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="8"/>
@@ -15945,7 +15956,7 @@
       <c r="Y546" s="4"/>
       <c r="Z546" s="4"/>
     </row>
-    <row r="547" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="20" customHeight="1">
       <c r="A547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="8"/>
@@ -15972,7 +15983,7 @@
       <c r="Y547" s="4"/>
       <c r="Z547" s="4"/>
     </row>
-    <row r="548" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="20" customHeight="1">
       <c r="A548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="8"/>
@@ -15999,7 +16010,7 @@
       <c r="Y548" s="4"/>
       <c r="Z548" s="4"/>
     </row>
-    <row r="549" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="20" customHeight="1">
       <c r="A549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="8"/>
@@ -16026,7 +16037,7 @@
       <c r="Y549" s="4"/>
       <c r="Z549" s="4"/>
     </row>
-    <row r="550" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="20" customHeight="1">
       <c r="A550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="8"/>
@@ -16053,7 +16064,7 @@
       <c r="Y550" s="4"/>
       <c r="Z550" s="4"/>
     </row>
-    <row r="551" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="20" customHeight="1">
       <c r="A551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="8"/>
@@ -16080,7 +16091,7 @@
       <c r="Y551" s="4"/>
       <c r="Z551" s="4"/>
     </row>
-    <row r="552" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="20" customHeight="1">
       <c r="A552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="8"/>
@@ -16107,7 +16118,7 @@
       <c r="Y552" s="4"/>
       <c r="Z552" s="4"/>
     </row>
-    <row r="553" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="20" customHeight="1">
       <c r="A553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="8"/>
@@ -16134,7 +16145,7 @@
       <c r="Y553" s="4"/>
       <c r="Z553" s="4"/>
     </row>
-    <row r="554" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="20" customHeight="1">
       <c r="A554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="8"/>
@@ -16161,7 +16172,7 @@
       <c r="Y554" s="4"/>
       <c r="Z554" s="4"/>
     </row>
-    <row r="555" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="20" customHeight="1">
       <c r="A555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="8"/>
@@ -16188,7 +16199,7 @@
       <c r="Y555" s="4"/>
       <c r="Z555" s="4"/>
     </row>
-    <row r="556" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="20" customHeight="1">
       <c r="A556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="8"/>
@@ -16215,7 +16226,7 @@
       <c r="Y556" s="4"/>
       <c r="Z556" s="4"/>
     </row>
-    <row r="557" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="20" customHeight="1">
       <c r="A557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="8"/>
@@ -16242,7 +16253,7 @@
       <c r="Y557" s="4"/>
       <c r="Z557" s="4"/>
     </row>
-    <row r="558" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="20" customHeight="1">
       <c r="A558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="8"/>
@@ -16269,7 +16280,7 @@
       <c r="Y558" s="4"/>
       <c r="Z558" s="4"/>
     </row>
-    <row r="559" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="20" customHeight="1">
       <c r="A559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="8"/>
@@ -16296,7 +16307,7 @@
       <c r="Y559" s="4"/>
       <c r="Z559" s="4"/>
     </row>
-    <row r="560" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="20" customHeight="1">
       <c r="A560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="8"/>
@@ -16323,7 +16334,7 @@
       <c r="Y560" s="4"/>
       <c r="Z560" s="4"/>
     </row>
-    <row r="561" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="20" customHeight="1">
       <c r="A561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="8"/>
@@ -16350,7 +16361,7 @@
       <c r="Y561" s="4"/>
       <c r="Z561" s="4"/>
     </row>
-    <row r="562" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="20" customHeight="1">
       <c r="A562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="8"/>
@@ -16377,7 +16388,7 @@
       <c r="Y562" s="4"/>
       <c r="Z562" s="4"/>
     </row>
-    <row r="563" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="20" customHeight="1">
       <c r="A563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="8"/>
@@ -16404,7 +16415,7 @@
       <c r="Y563" s="4"/>
       <c r="Z563" s="4"/>
     </row>
-    <row r="564" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="20" customHeight="1">
       <c r="A564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="8"/>
@@ -16431,7 +16442,7 @@
       <c r="Y564" s="4"/>
       <c r="Z564" s="4"/>
     </row>
-    <row r="565" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="20" customHeight="1">
       <c r="A565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="8"/>
@@ -16458,7 +16469,7 @@
       <c r="Y565" s="4"/>
       <c r="Z565" s="4"/>
     </row>
-    <row r="566" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="20" customHeight="1">
       <c r="A566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="8"/>
@@ -16485,7 +16496,7 @@
       <c r="Y566" s="4"/>
       <c r="Z566" s="4"/>
     </row>
-    <row r="567" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="20" customHeight="1">
       <c r="A567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="8"/>
@@ -16512,7 +16523,7 @@
       <c r="Y567" s="4"/>
       <c r="Z567" s="4"/>
     </row>
-    <row r="568" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="20" customHeight="1">
       <c r="A568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="8"/>
@@ -16539,7 +16550,7 @@
       <c r="Y568" s="4"/>
       <c r="Z568" s="4"/>
     </row>
-    <row r="569" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="20" customHeight="1">
       <c r="A569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="8"/>
@@ -16566,7 +16577,7 @@
       <c r="Y569" s="4"/>
       <c r="Z569" s="4"/>
     </row>
-    <row r="570" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="20" customHeight="1">
       <c r="A570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="8"/>
@@ -16593,7 +16604,7 @@
       <c r="Y570" s="4"/>
       <c r="Z570" s="4"/>
     </row>
-    <row r="571" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="20" customHeight="1">
       <c r="A571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="8"/>
@@ -16620,7 +16631,7 @@
       <c r="Y571" s="4"/>
       <c r="Z571" s="4"/>
     </row>
-    <row r="572" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="20" customHeight="1">
       <c r="A572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="8"/>
@@ -16647,7 +16658,7 @@
       <c r="Y572" s="4"/>
       <c r="Z572" s="4"/>
     </row>
-    <row r="573" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="20" customHeight="1">
       <c r="A573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="8"/>
@@ -16674,7 +16685,7 @@
       <c r="Y573" s="4"/>
       <c r="Z573" s="4"/>
     </row>
-    <row r="574" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="20" customHeight="1">
       <c r="A574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="8"/>
@@ -16701,7 +16712,7 @@
       <c r="Y574" s="4"/>
       <c r="Z574" s="4"/>
     </row>
-    <row r="575" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="20" customHeight="1">
       <c r="A575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="8"/>
@@ -16728,7 +16739,7 @@
       <c r="Y575" s="4"/>
       <c r="Z575" s="4"/>
     </row>
-    <row r="576" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="20" customHeight="1">
       <c r="A576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="8"/>
@@ -16755,7 +16766,7 @@
       <c r="Y576" s="4"/>
       <c r="Z576" s="4"/>
     </row>
-    <row r="577" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="20" customHeight="1">
       <c r="A577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="8"/>
@@ -16782,7 +16793,7 @@
       <c r="Y577" s="4"/>
       <c r="Z577" s="4"/>
     </row>
-    <row r="578" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="20" customHeight="1">
       <c r="A578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="8"/>
@@ -16809,7 +16820,7 @@
       <c r="Y578" s="4"/>
       <c r="Z578" s="4"/>
     </row>
-    <row r="579" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="20" customHeight="1">
       <c r="A579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="8"/>
@@ -16836,7 +16847,7 @@
       <c r="Y579" s="4"/>
       <c r="Z579" s="4"/>
     </row>
-    <row r="580" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="20" customHeight="1">
       <c r="A580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="8"/>
@@ -16863,7 +16874,7 @@
       <c r="Y580" s="4"/>
       <c r="Z580" s="4"/>
     </row>
-    <row r="581" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="20" customHeight="1">
       <c r="A581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="8"/>
@@ -16890,7 +16901,7 @@
       <c r="Y581" s="4"/>
       <c r="Z581" s="4"/>
     </row>
-    <row r="582" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="20" customHeight="1">
       <c r="A582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="8"/>
@@ -16917,7 +16928,7 @@
       <c r="Y582" s="4"/>
       <c r="Z582" s="4"/>
     </row>
-    <row r="583" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="20" customHeight="1">
       <c r="A583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="8"/>
@@ -16944,7 +16955,7 @@
       <c r="Y583" s="4"/>
       <c r="Z583" s="4"/>
     </row>
-    <row r="584" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="20" customHeight="1">
       <c r="A584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="8"/>
@@ -16971,7 +16982,7 @@
       <c r="Y584" s="4"/>
       <c r="Z584" s="4"/>
     </row>
-    <row r="585" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="20" customHeight="1">
       <c r="A585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="8"/>
@@ -16998,7 +17009,7 @@
       <c r="Y585" s="4"/>
       <c r="Z585" s="4"/>
     </row>
-    <row r="586" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="20" customHeight="1">
       <c r="A586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="8"/>
@@ -17025,7 +17036,7 @@
       <c r="Y586" s="4"/>
       <c r="Z586" s="4"/>
     </row>
-    <row r="587" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="20" customHeight="1">
       <c r="A587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="8"/>
@@ -17052,7 +17063,7 @@
       <c r="Y587" s="4"/>
       <c r="Z587" s="4"/>
     </row>
-    <row r="588" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="20" customHeight="1">
       <c r="A588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="8"/>
@@ -17079,7 +17090,7 @@
       <c r="Y588" s="4"/>
       <c r="Z588" s="4"/>
     </row>
-    <row r="589" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="20" customHeight="1">
       <c r="A589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="8"/>
@@ -17106,7 +17117,7 @@
       <c r="Y589" s="4"/>
       <c r="Z589" s="4"/>
     </row>
-    <row r="590" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="20" customHeight="1">
       <c r="A590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="8"/>
@@ -17133,7 +17144,7 @@
       <c r="Y590" s="4"/>
       <c r="Z590" s="4"/>
     </row>
-    <row r="591" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="20" customHeight="1">
       <c r="A591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="8"/>
@@ -17160,7 +17171,7 @@
       <c r="Y591" s="4"/>
       <c r="Z591" s="4"/>
     </row>
-    <row r="592" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="20" customHeight="1">
       <c r="A592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="8"/>
@@ -17187,7 +17198,7 @@
       <c r="Y592" s="4"/>
       <c r="Z592" s="4"/>
     </row>
-    <row r="593" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="20" customHeight="1">
       <c r="A593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="8"/>
@@ -17214,7 +17225,7 @@
       <c r="Y593" s="4"/>
       <c r="Z593" s="4"/>
     </row>
-    <row r="594" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="20" customHeight="1">
       <c r="A594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="8"/>
@@ -17241,7 +17252,7 @@
       <c r="Y594" s="4"/>
       <c r="Z594" s="4"/>
     </row>
-    <row r="595" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="20" customHeight="1">
       <c r="A595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="8"/>
@@ -17268,7 +17279,7 @@
       <c r="Y595" s="4"/>
       <c r="Z595" s="4"/>
     </row>
-    <row r="596" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="20" customHeight="1">
       <c r="A596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="8"/>
@@ -17295,7 +17306,7 @@
       <c r="Y596" s="4"/>
       <c r="Z596" s="4"/>
     </row>
-    <row r="597" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="20" customHeight="1">
       <c r="A597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="8"/>
@@ -17322,7 +17333,7 @@
       <c r="Y597" s="4"/>
       <c r="Z597" s="4"/>
     </row>
-    <row r="598" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="20" customHeight="1">
       <c r="A598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="8"/>
@@ -17349,7 +17360,7 @@
       <c r="Y598" s="4"/>
       <c r="Z598" s="4"/>
     </row>
-    <row r="599" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="20" customHeight="1">
       <c r="A599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="8"/>
@@ -17376,7 +17387,7 @@
       <c r="Y599" s="4"/>
       <c r="Z599" s="4"/>
     </row>
-    <row r="600" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="20" customHeight="1">
       <c r="A600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="8"/>
@@ -17403,7 +17414,7 @@
       <c r="Y600" s="4"/>
       <c r="Z600" s="4"/>
     </row>
-    <row r="601" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="20" customHeight="1">
       <c r="A601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="8"/>
@@ -17430,7 +17441,7 @@
       <c r="Y601" s="4"/>
       <c r="Z601" s="4"/>
     </row>
-    <row r="602" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="20" customHeight="1">
       <c r="A602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="8"/>
@@ -17457,7 +17468,7 @@
       <c r="Y602" s="4"/>
       <c r="Z602" s="4"/>
     </row>
-    <row r="603" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="20" customHeight="1">
       <c r="A603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="8"/>
@@ -17484,7 +17495,7 @@
       <c r="Y603" s="4"/>
       <c r="Z603" s="4"/>
     </row>
-    <row r="604" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="20" customHeight="1">
       <c r="A604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="8"/>
@@ -17511,7 +17522,7 @@
       <c r="Y604" s="4"/>
       <c r="Z604" s="4"/>
     </row>
-    <row r="605" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="20" customHeight="1">
       <c r="A605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="8"/>
@@ -17538,7 +17549,7 @@
       <c r="Y605" s="4"/>
       <c r="Z605" s="4"/>
     </row>
-    <row r="606" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="20" customHeight="1">
       <c r="A606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="8"/>
@@ -17565,7 +17576,7 @@
       <c r="Y606" s="4"/>
       <c r="Z606" s="4"/>
     </row>
-    <row r="607" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="20" customHeight="1">
       <c r="A607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="8"/>
@@ -17592,7 +17603,7 @@
       <c r="Y607" s="4"/>
       <c r="Z607" s="4"/>
     </row>
-    <row r="608" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="20" customHeight="1">
       <c r="A608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="8"/>
@@ -17619,7 +17630,7 @@
       <c r="Y608" s="4"/>
       <c r="Z608" s="4"/>
     </row>
-    <row r="609" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="20" customHeight="1">
       <c r="A609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="8"/>
@@ -17646,7 +17657,7 @@
       <c r="Y609" s="4"/>
       <c r="Z609" s="4"/>
     </row>
-    <row r="610" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="20" customHeight="1">
       <c r="A610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="8"/>
@@ -17673,7 +17684,7 @@
       <c r="Y610" s="4"/>
       <c r="Z610" s="4"/>
     </row>
-    <row r="611" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="20" customHeight="1">
       <c r="A611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="8"/>
@@ -17700,7 +17711,7 @@
       <c r="Y611" s="4"/>
       <c r="Z611" s="4"/>
     </row>
-    <row r="612" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="20" customHeight="1">
       <c r="A612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="8"/>
@@ -17727,7 +17738,7 @@
       <c r="Y612" s="4"/>
       <c r="Z612" s="4"/>
     </row>
-    <row r="613" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="20" customHeight="1">
       <c r="A613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="8"/>
@@ -17754,7 +17765,7 @@
       <c r="Y613" s="4"/>
       <c r="Z613" s="4"/>
     </row>
-    <row r="614" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="20" customHeight="1">
       <c r="A614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="8"/>
@@ -17781,7 +17792,7 @@
       <c r="Y614" s="4"/>
       <c r="Z614" s="4"/>
     </row>
-    <row r="615" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="20" customHeight="1">
       <c r="A615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="8"/>
@@ -17808,7 +17819,7 @@
       <c r="Y615" s="4"/>
       <c r="Z615" s="4"/>
     </row>
-    <row r="616" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="20" customHeight="1">
       <c r="A616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="8"/>
@@ -17835,7 +17846,7 @@
       <c r="Y616" s="4"/>
       <c r="Z616" s="4"/>
     </row>
-    <row r="617" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="20" customHeight="1">
       <c r="A617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="8"/>
@@ -17862,7 +17873,7 @@
       <c r="Y617" s="4"/>
       <c r="Z617" s="4"/>
     </row>
-    <row r="618" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="20" customHeight="1">
       <c r="A618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="8"/>
@@ -17889,7 +17900,7 @@
       <c r="Y618" s="4"/>
       <c r="Z618" s="4"/>
     </row>
-    <row r="619" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="20" customHeight="1">
       <c r="A619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="8"/>
@@ -17916,7 +17927,7 @@
       <c r="Y619" s="4"/>
       <c r="Z619" s="4"/>
     </row>
-    <row r="620" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="20" customHeight="1">
       <c r="A620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="8"/>
@@ -17943,7 +17954,7 @@
       <c r="Y620" s="4"/>
       <c r="Z620" s="4"/>
     </row>
-    <row r="621" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="20" customHeight="1">
       <c r="A621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="8"/>
@@ -17970,7 +17981,7 @@
       <c r="Y621" s="4"/>
       <c r="Z621" s="4"/>
     </row>
-    <row r="622" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="20" customHeight="1">
       <c r="A622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="8"/>
@@ -17997,7 +18008,7 @@
       <c r="Y622" s="4"/>
       <c r="Z622" s="4"/>
     </row>
-    <row r="623" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="20" customHeight="1">
       <c r="A623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="8"/>
@@ -18024,7 +18035,7 @@
       <c r="Y623" s="4"/>
       <c r="Z623" s="4"/>
     </row>
-    <row r="624" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="20" customHeight="1">
       <c r="A624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="8"/>
@@ -18051,7 +18062,7 @@
       <c r="Y624" s="4"/>
       <c r="Z624" s="4"/>
     </row>
-    <row r="625" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="20" customHeight="1">
       <c r="A625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="8"/>
@@ -18078,7 +18089,7 @@
       <c r="Y625" s="4"/>
       <c r="Z625" s="4"/>
     </row>
-    <row r="626" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="20" customHeight="1">
       <c r="A626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="8"/>
@@ -18105,7 +18116,7 @@
       <c r="Y626" s="4"/>
       <c r="Z626" s="4"/>
     </row>
-    <row r="627" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="20" customHeight="1">
       <c r="A627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="8"/>
@@ -18132,7 +18143,7 @@
       <c r="Y627" s="4"/>
       <c r="Z627" s="4"/>
     </row>
-    <row r="628" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="20" customHeight="1">
       <c r="A628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="8"/>
@@ -18159,7 +18170,7 @@
       <c r="Y628" s="4"/>
       <c r="Z628" s="4"/>
     </row>
-    <row r="629" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="20" customHeight="1">
       <c r="A629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="8"/>
@@ -18186,7 +18197,7 @@
       <c r="Y629" s="4"/>
       <c r="Z629" s="4"/>
     </row>
-    <row r="630" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="20" customHeight="1">
       <c r="A630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="8"/>
@@ -18213,7 +18224,7 @@
       <c r="Y630" s="4"/>
       <c r="Z630" s="4"/>
     </row>
-    <row r="631" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="20" customHeight="1">
       <c r="A631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="8"/>
@@ -18240,7 +18251,7 @@
       <c r="Y631" s="4"/>
       <c r="Z631" s="4"/>
     </row>
-    <row r="632" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="20" customHeight="1">
       <c r="A632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="8"/>
@@ -18267,7 +18278,7 @@
       <c r="Y632" s="4"/>
       <c r="Z632" s="4"/>
     </row>
-    <row r="633" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="20" customHeight="1">
       <c r="A633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="8"/>
@@ -18294,7 +18305,7 @@
       <c r="Y633" s="4"/>
       <c r="Z633" s="4"/>
     </row>
-    <row r="634" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="20" customHeight="1">
       <c r="A634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="8"/>
@@ -18321,7 +18332,7 @@
       <c r="Y634" s="4"/>
       <c r="Z634" s="4"/>
     </row>
-    <row r="635" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="20" customHeight="1">
       <c r="A635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="8"/>
@@ -18348,7 +18359,7 @@
       <c r="Y635" s="4"/>
       <c r="Z635" s="4"/>
     </row>
-    <row r="636" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="20" customHeight="1">
       <c r="A636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="8"/>
@@ -18375,7 +18386,7 @@
       <c r="Y636" s="4"/>
       <c r="Z636" s="4"/>
     </row>
-    <row r="637" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="20" customHeight="1">
       <c r="A637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="8"/>
@@ -18402,7 +18413,7 @@
       <c r="Y637" s="4"/>
       <c r="Z637" s="4"/>
     </row>
-    <row r="638" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="20" customHeight="1">
       <c r="A638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="8"/>
@@ -18429,7 +18440,7 @@
       <c r="Y638" s="4"/>
       <c r="Z638" s="4"/>
     </row>
-    <row r="639" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="20" customHeight="1">
       <c r="A639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="8"/>
@@ -18456,7 +18467,7 @@
       <c r="Y639" s="4"/>
       <c r="Z639" s="4"/>
     </row>
-    <row r="640" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="20" customHeight="1">
       <c r="A640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="8"/>
@@ -18483,7 +18494,7 @@
       <c r="Y640" s="4"/>
       <c r="Z640" s="4"/>
     </row>
-    <row r="641" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="20" customHeight="1">
       <c r="A641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="8"/>
@@ -18510,7 +18521,7 @@
       <c r="Y641" s="4"/>
       <c r="Z641" s="4"/>
     </row>
-    <row r="642" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="20" customHeight="1">
       <c r="A642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="8"/>
@@ -18537,7 +18548,7 @@
       <c r="Y642" s="4"/>
       <c r="Z642" s="4"/>
     </row>
-    <row r="643" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="20" customHeight="1">
       <c r="A643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="8"/>
@@ -18564,7 +18575,7 @@
       <c r="Y643" s="4"/>
       <c r="Z643" s="4"/>
     </row>
-    <row r="644" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="20" customHeight="1">
       <c r="A644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="8"/>
@@ -18591,7 +18602,7 @@
       <c r="Y644" s="4"/>
       <c r="Z644" s="4"/>
     </row>
-    <row r="645" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="20" customHeight="1">
       <c r="A645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="8"/>
@@ -18618,7 +18629,7 @@
       <c r="Y645" s="4"/>
       <c r="Z645" s="4"/>
     </row>
-    <row r="646" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="20" customHeight="1">
       <c r="A646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="8"/>
@@ -18645,7 +18656,7 @@
       <c r="Y646" s="4"/>
       <c r="Z646" s="4"/>
     </row>
-    <row r="647" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="20" customHeight="1">
       <c r="A647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="8"/>
@@ -18672,7 +18683,7 @@
       <c r="Y647" s="4"/>
       <c r="Z647" s="4"/>
     </row>
-    <row r="648" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="20" customHeight="1">
       <c r="A648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="8"/>
@@ -18699,7 +18710,7 @@
       <c r="Y648" s="4"/>
       <c r="Z648" s="4"/>
     </row>
-    <row r="649" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="20" customHeight="1">
       <c r="A649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="8"/>
@@ -18726,7 +18737,7 @@
       <c r="Y649" s="4"/>
       <c r="Z649" s="4"/>
     </row>
-    <row r="650" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="20" customHeight="1">
       <c r="A650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="8"/>
@@ -18753,7 +18764,7 @@
       <c r="Y650" s="4"/>
       <c r="Z650" s="4"/>
     </row>
-    <row r="651" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="20" customHeight="1">
       <c r="A651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="8"/>
@@ -18780,7 +18791,7 @@
       <c r="Y651" s="4"/>
       <c r="Z651" s="4"/>
     </row>
-    <row r="652" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="20" customHeight="1">
       <c r="A652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="8"/>
@@ -18807,7 +18818,7 @@
       <c r="Y652" s="4"/>
       <c r="Z652" s="4"/>
     </row>
-    <row r="653" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="20" customHeight="1">
       <c r="A653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="8"/>
@@ -18834,7 +18845,7 @@
       <c r="Y653" s="4"/>
       <c r="Z653" s="4"/>
     </row>
-    <row r="654" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="20" customHeight="1">
       <c r="A654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="8"/>
@@ -18861,7 +18872,7 @@
       <c r="Y654" s="4"/>
       <c r="Z654" s="4"/>
     </row>
-    <row r="655" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="20" customHeight="1">
       <c r="A655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="8"/>
@@ -18888,7 +18899,7 @@
       <c r="Y655" s="4"/>
       <c r="Z655" s="4"/>
     </row>
-    <row r="656" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="20" customHeight="1">
       <c r="A656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="8"/>
@@ -18915,7 +18926,7 @@
       <c r="Y656" s="4"/>
       <c r="Z656" s="4"/>
     </row>
-    <row r="657" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="20" customHeight="1">
       <c r="A657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="8"/>
@@ -18942,7 +18953,7 @@
       <c r="Y657" s="4"/>
       <c r="Z657" s="4"/>
     </row>
-    <row r="658" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="20" customHeight="1">
       <c r="A658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="8"/>
@@ -18969,7 +18980,7 @@
       <c r="Y658" s="4"/>
       <c r="Z658" s="4"/>
     </row>
-    <row r="659" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="20" customHeight="1">
       <c r="A659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="8"/>
@@ -18996,7 +19007,7 @@
       <c r="Y659" s="4"/>
       <c r="Z659" s="4"/>
     </row>
-    <row r="660" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="20" customHeight="1">
       <c r="A660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="8"/>
@@ -19023,7 +19034,7 @@
       <c r="Y660" s="4"/>
       <c r="Z660" s="4"/>
     </row>
-    <row r="661" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="20" customHeight="1">
       <c r="A661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="8"/>
@@ -19050,7 +19061,7 @@
       <c r="Y661" s="4"/>
       <c r="Z661" s="4"/>
     </row>
-    <row r="662" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="20" customHeight="1">
       <c r="A662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="8"/>
@@ -19077,7 +19088,7 @@
       <c r="Y662" s="4"/>
       <c r="Z662" s="4"/>
     </row>
-    <row r="663" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="20" customHeight="1">
       <c r="A663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="8"/>
@@ -19104,7 +19115,7 @@
       <c r="Y663" s="4"/>
       <c r="Z663" s="4"/>
     </row>
-    <row r="664" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="20" customHeight="1">
       <c r="A664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="8"/>
@@ -19131,7 +19142,7 @@
       <c r="Y664" s="4"/>
       <c r="Z664" s="4"/>
     </row>
-    <row r="665" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="20" customHeight="1">
       <c r="A665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="8"/>
@@ -19158,7 +19169,7 @@
       <c r="Y665" s="4"/>
       <c r="Z665" s="4"/>
     </row>
-    <row r="666" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="20" customHeight="1">
       <c r="A666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="8"/>
@@ -19185,7 +19196,7 @@
       <c r="Y666" s="4"/>
       <c r="Z666" s="4"/>
     </row>
-    <row r="667" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="20" customHeight="1">
       <c r="A667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="8"/>
@@ -19212,7 +19223,7 @@
       <c r="Y667" s="4"/>
       <c r="Z667" s="4"/>
     </row>
-    <row r="668" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="20" customHeight="1">
       <c r="A668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="8"/>
@@ -19239,7 +19250,7 @@
       <c r="Y668" s="4"/>
       <c r="Z668" s="4"/>
     </row>
-    <row r="669" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="20" customHeight="1">
       <c r="A669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="8"/>
@@ -19266,7 +19277,7 @@
       <c r="Y669" s="4"/>
       <c r="Z669" s="4"/>
     </row>
-    <row r="670" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="20" customHeight="1">
       <c r="A670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="8"/>
@@ -19293,7 +19304,7 @@
       <c r="Y670" s="4"/>
       <c r="Z670" s="4"/>
     </row>
-    <row r="671" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="20" customHeight="1">
       <c r="A671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="8"/>
@@ -19320,7 +19331,7 @@
       <c r="Y671" s="4"/>
       <c r="Z671" s="4"/>
     </row>
-    <row r="672" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="20" customHeight="1">
       <c r="A672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="8"/>
@@ -19347,7 +19358,7 @@
       <c r="Y672" s="4"/>
       <c r="Z672" s="4"/>
     </row>
-    <row r="673" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="20" customHeight="1">
       <c r="A673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="8"/>
@@ -19374,7 +19385,7 @@
       <c r="Y673" s="4"/>
       <c r="Z673" s="4"/>
     </row>
-    <row r="674" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="20" customHeight="1">
       <c r="A674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="8"/>
@@ -19401,7 +19412,7 @@
       <c r="Y674" s="4"/>
       <c r="Z674" s="4"/>
     </row>
-    <row r="675" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="20" customHeight="1">
       <c r="A675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="8"/>
@@ -19428,7 +19439,7 @@
       <c r="Y675" s="4"/>
       <c r="Z675" s="4"/>
     </row>
-    <row r="676" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="20" customHeight="1">
       <c r="A676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="8"/>
@@ -19455,7 +19466,7 @@
       <c r="Y676" s="4"/>
       <c r="Z676" s="4"/>
     </row>
-    <row r="677" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="20" customHeight="1">
       <c r="A677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="8"/>
@@ -19482,7 +19493,7 @@
       <c r="Y677" s="4"/>
       <c r="Z677" s="4"/>
     </row>
-    <row r="678" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="20" customHeight="1">
       <c r="A678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="8"/>
@@ -19509,7 +19520,7 @@
       <c r="Y678" s="4"/>
       <c r="Z678" s="4"/>
     </row>
-    <row r="679" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="20" customHeight="1">
       <c r="A679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="8"/>
@@ -19536,7 +19547,7 @@
       <c r="Y679" s="4"/>
       <c r="Z679" s="4"/>
     </row>
-    <row r="680" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="20" customHeight="1">
       <c r="A680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="8"/>
@@ -19563,7 +19574,7 @@
       <c r="Y680" s="4"/>
       <c r="Z680" s="4"/>
     </row>
-    <row r="681" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="20" customHeight="1">
       <c r="A681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="8"/>
@@ -19590,7 +19601,7 @@
       <c r="Y681" s="4"/>
       <c r="Z681" s="4"/>
     </row>
-    <row r="682" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="20" customHeight="1">
       <c r="A682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="8"/>
@@ -19617,7 +19628,7 @@
       <c r="Y682" s="4"/>
       <c r="Z682" s="4"/>
     </row>
-    <row r="683" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="20" customHeight="1">
       <c r="A683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="8"/>
@@ -19644,7 +19655,7 @@
       <c r="Y683" s="4"/>
       <c r="Z683" s="4"/>
     </row>
-    <row r="684" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="20" customHeight="1">
       <c r="A684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="8"/>
@@ -19671,7 +19682,7 @@
       <c r="Y684" s="4"/>
       <c r="Z684" s="4"/>
     </row>
-    <row r="685" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="20" customHeight="1">
       <c r="A685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="8"/>
@@ -19698,7 +19709,7 @@
       <c r="Y685" s="4"/>
       <c r="Z685" s="4"/>
     </row>
-    <row r="686" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="20" customHeight="1">
       <c r="A686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="8"/>
@@ -19725,7 +19736,7 @@
       <c r="Y686" s="4"/>
       <c r="Z686" s="4"/>
     </row>
-    <row r="687" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="20" customHeight="1">
       <c r="A687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="8"/>
@@ -19752,7 +19763,7 @@
       <c r="Y687" s="4"/>
       <c r="Z687" s="4"/>
     </row>
-    <row r="688" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="20" customHeight="1">
       <c r="A688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="8"/>
@@ -19779,7 +19790,7 @@
       <c r="Y688" s="4"/>
       <c r="Z688" s="4"/>
     </row>
-    <row r="689" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="20" customHeight="1">
       <c r="A689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="8"/>
@@ -19806,7 +19817,7 @@
       <c r="Y689" s="4"/>
       <c r="Z689" s="4"/>
     </row>
-    <row r="690" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="20" customHeight="1">
       <c r="A690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="8"/>
@@ -19833,7 +19844,7 @@
       <c r="Y690" s="4"/>
       <c r="Z690" s="4"/>
     </row>
-    <row r="691" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="20" customHeight="1">
       <c r="A691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="8"/>
@@ -19860,7 +19871,7 @@
       <c r="Y691" s="4"/>
       <c r="Z691" s="4"/>
     </row>
-    <row r="692" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="20" customHeight="1">
       <c r="A692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="8"/>
@@ -19887,7 +19898,7 @@
       <c r="Y692" s="4"/>
       <c r="Z692" s="4"/>
     </row>
-    <row r="693" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="20" customHeight="1">
       <c r="A693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="8"/>
@@ -19914,7 +19925,7 @@
       <c r="Y693" s="4"/>
       <c r="Z693" s="4"/>
     </row>
-    <row r="694" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="20" customHeight="1">
       <c r="A694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="8"/>
@@ -19941,7 +19952,7 @@
       <c r="Y694" s="4"/>
       <c r="Z694" s="4"/>
     </row>
-    <row r="695" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="20" customHeight="1">
       <c r="A695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="8"/>
@@ -19968,7 +19979,7 @@
       <c r="Y695" s="4"/>
       <c r="Z695" s="4"/>
     </row>
-    <row r="696" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="20" customHeight="1">
       <c r="A696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="8"/>
@@ -19995,7 +20006,7 @@
       <c r="Y696" s="4"/>
       <c r="Z696" s="4"/>
     </row>
-    <row r="697" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="20" customHeight="1">
       <c r="A697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="8"/>
@@ -20022,7 +20033,7 @@
       <c r="Y697" s="4"/>
       <c r="Z697" s="4"/>
     </row>
-    <row r="698" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="20" customHeight="1">
       <c r="A698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="8"/>
@@ -20049,7 +20060,7 @@
       <c r="Y698" s="4"/>
       <c r="Z698" s="4"/>
     </row>
-    <row r="699" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="20" customHeight="1">
       <c r="A699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="8"/>
@@ -20076,7 +20087,7 @@
       <c r="Y699" s="4"/>
       <c r="Z699" s="4"/>
     </row>
-    <row r="700" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="20" customHeight="1">
       <c r="A700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="8"/>
@@ -20103,7 +20114,7 @@
       <c r="Y700" s="4"/>
       <c r="Z700" s="4"/>
     </row>
-    <row r="701" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="20" customHeight="1">
       <c r="A701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="8"/>
@@ -20130,7 +20141,7 @@
       <c r="Y701" s="4"/>
       <c r="Z701" s="4"/>
     </row>
-    <row r="702" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="20" customHeight="1">
       <c r="A702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="8"/>
@@ -20157,7 +20168,7 @@
       <c r="Y702" s="4"/>
       <c r="Z702" s="4"/>
     </row>
-    <row r="703" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="20" customHeight="1">
       <c r="A703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="8"/>
@@ -20184,7 +20195,7 @@
       <c r="Y703" s="4"/>
       <c r="Z703" s="4"/>
     </row>
-    <row r="704" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="20" customHeight="1">
       <c r="A704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="8"/>
@@ -20211,7 +20222,7 @@
       <c r="Y704" s="4"/>
       <c r="Z704" s="4"/>
     </row>
-    <row r="705" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="20" customHeight="1">
       <c r="A705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="8"/>
@@ -20238,7 +20249,7 @@
       <c r="Y705" s="4"/>
       <c r="Z705" s="4"/>
     </row>
-    <row r="706" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="20" customHeight="1">
       <c r="A706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="8"/>
@@ -20265,7 +20276,7 @@
       <c r="Y706" s="4"/>
       <c r="Z706" s="4"/>
     </row>
-    <row r="707" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="20" customHeight="1">
       <c r="A707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="8"/>
@@ -20292,7 +20303,7 @@
       <c r="Y707" s="4"/>
       <c r="Z707" s="4"/>
     </row>
-    <row r="708" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="20" customHeight="1">
       <c r="A708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="8"/>
@@ -20319,7 +20330,7 @@
       <c r="Y708" s="4"/>
       <c r="Z708" s="4"/>
     </row>
-    <row r="709" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="20" customHeight="1">
       <c r="A709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="8"/>
@@ -20346,7 +20357,7 @@
       <c r="Y709" s="4"/>
       <c r="Z709" s="4"/>
     </row>
-    <row r="710" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="20" customHeight="1">
       <c r="A710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="8"/>
@@ -20373,7 +20384,7 @@
       <c r="Y710" s="4"/>
       <c r="Z710" s="4"/>
     </row>
-    <row r="711" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="20" customHeight="1">
       <c r="A711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="8"/>
@@ -20400,7 +20411,7 @@
       <c r="Y711" s="4"/>
       <c r="Z711" s="4"/>
     </row>
-    <row r="712" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="20" customHeight="1">
       <c r="A712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="8"/>
@@ -20427,7 +20438,7 @@
       <c r="Y712" s="4"/>
       <c r="Z712" s="4"/>
     </row>
-    <row r="713" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="20" customHeight="1">
       <c r="A713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="8"/>
@@ -20454,7 +20465,7 @@
       <c r="Y713" s="4"/>
       <c r="Z713" s="4"/>
     </row>
-    <row r="714" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="20" customHeight="1">
       <c r="A714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="8"/>
@@ -20481,7 +20492,7 @@
       <c r="Y714" s="4"/>
       <c r="Z714" s="4"/>
     </row>
-    <row r="715" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="20" customHeight="1">
       <c r="A715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="8"/>
@@ -20508,7 +20519,7 @@
       <c r="Y715" s="4"/>
       <c r="Z715" s="4"/>
     </row>
-    <row r="716" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="20" customHeight="1">
       <c r="A716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="8"/>
@@ -20535,7 +20546,7 @@
       <c r="Y716" s="4"/>
       <c r="Z716" s="4"/>
     </row>
-    <row r="717" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="20" customHeight="1">
       <c r="A717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="8"/>
@@ -20562,7 +20573,7 @@
       <c r="Y717" s="4"/>
       <c r="Z717" s="4"/>
     </row>
-    <row r="718" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="20" customHeight="1">
       <c r="A718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="8"/>
@@ -20589,7 +20600,7 @@
       <c r="Y718" s="4"/>
       <c r="Z718" s="4"/>
     </row>
-    <row r="719" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="20" customHeight="1">
       <c r="A719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="8"/>
@@ -20616,7 +20627,7 @@
       <c r="Y719" s="4"/>
       <c r="Z719" s="4"/>
     </row>
-    <row r="720" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="20" customHeight="1">
       <c r="A720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="8"/>
@@ -20643,7 +20654,7 @@
       <c r="Y720" s="4"/>
       <c r="Z720" s="4"/>
     </row>
-    <row r="721" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="20" customHeight="1">
       <c r="A721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="8"/>
@@ -20670,7 +20681,7 @@
       <c r="Y721" s="4"/>
       <c r="Z721" s="4"/>
     </row>
-    <row r="722" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="20" customHeight="1">
       <c r="A722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="8"/>
@@ -20697,7 +20708,7 @@
       <c r="Y722" s="4"/>
       <c r="Z722" s="4"/>
     </row>
-    <row r="723" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="20" customHeight="1">
       <c r="A723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="8"/>
@@ -20724,7 +20735,7 @@
       <c r="Y723" s="4"/>
       <c r="Z723" s="4"/>
     </row>
-    <row r="724" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="20" customHeight="1">
       <c r="A724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="8"/>
@@ -20751,7 +20762,7 @@
       <c r="Y724" s="4"/>
       <c r="Z724" s="4"/>
     </row>
-    <row r="725" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="20" customHeight="1">
       <c r="A725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="8"/>
@@ -20778,7 +20789,7 @@
       <c r="Y725" s="4"/>
       <c r="Z725" s="4"/>
     </row>
-    <row r="726" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="20" customHeight="1">
       <c r="A726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="8"/>
@@ -20805,7 +20816,7 @@
       <c r="Y726" s="4"/>
       <c r="Z726" s="4"/>
     </row>
-    <row r="727" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="20" customHeight="1">
       <c r="A727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="8"/>
@@ -20832,7 +20843,7 @@
       <c r="Y727" s="4"/>
       <c r="Z727" s="4"/>
     </row>
-    <row r="728" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="20" customHeight="1">
       <c r="A728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="8"/>
@@ -20859,7 +20870,7 @@
       <c r="Y728" s="4"/>
       <c r="Z728" s="4"/>
     </row>
-    <row r="729" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="20" customHeight="1">
       <c r="A729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="8"/>
@@ -20886,7 +20897,7 @@
       <c r="Y729" s="4"/>
       <c r="Z729" s="4"/>
     </row>
-    <row r="730" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="20" customHeight="1">
       <c r="A730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="8"/>
@@ -20913,7 +20924,7 @@
       <c r="Y730" s="4"/>
       <c r="Z730" s="4"/>
     </row>
-    <row r="731" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="20" customHeight="1">
       <c r="A731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="8"/>
@@ -20940,7 +20951,7 @@
       <c r="Y731" s="4"/>
       <c r="Z731" s="4"/>
     </row>
-    <row r="732" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="20" customHeight="1">
       <c r="A732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="8"/>
@@ -20967,7 +20978,7 @@
       <c r="Y732" s="4"/>
       <c r="Z732" s="4"/>
     </row>
-    <row r="733" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="20" customHeight="1">
       <c r="A733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="8"/>
@@ -20994,7 +21005,7 @@
       <c r="Y733" s="4"/>
       <c r="Z733" s="4"/>
     </row>
-    <row r="734" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="20" customHeight="1">
       <c r="A734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="8"/>
@@ -21021,7 +21032,7 @@
       <c r="Y734" s="4"/>
       <c r="Z734" s="4"/>
     </row>
-    <row r="735" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="20" customHeight="1">
       <c r="A735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="8"/>
@@ -21048,7 +21059,7 @@
       <c r="Y735" s="4"/>
       <c r="Z735" s="4"/>
     </row>
-    <row r="736" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="20" customHeight="1">
       <c r="A736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="8"/>
@@ -21075,7 +21086,7 @@
       <c r="Y736" s="4"/>
       <c r="Z736" s="4"/>
     </row>
-    <row r="737" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="20" customHeight="1">
       <c r="A737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="8"/>
@@ -21102,7 +21113,7 @@
       <c r="Y737" s="4"/>
       <c r="Z737" s="4"/>
     </row>
-    <row r="738" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="20" customHeight="1">
       <c r="A738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="8"/>
@@ -21129,7 +21140,7 @@
       <c r="Y738" s="4"/>
       <c r="Z738" s="4"/>
     </row>
-    <row r="739" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="20" customHeight="1">
       <c r="A739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="8"/>
@@ -21156,7 +21167,7 @@
       <c r="Y739" s="4"/>
       <c r="Z739" s="4"/>
     </row>
-    <row r="740" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="20" customHeight="1">
       <c r="A740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="8"/>
@@ -21183,7 +21194,7 @@
       <c r="Y740" s="4"/>
       <c r="Z740" s="4"/>
     </row>
-    <row r="741" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="20" customHeight="1">
       <c r="A741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="8"/>
@@ -21210,7 +21221,7 @@
       <c r="Y741" s="4"/>
       <c r="Z741" s="4"/>
     </row>
-    <row r="742" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="20" customHeight="1">
       <c r="A742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="8"/>
@@ -21237,7 +21248,7 @@
       <c r="Y742" s="4"/>
       <c r="Z742" s="4"/>
     </row>
-    <row r="743" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="20" customHeight="1">
       <c r="A743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="8"/>
@@ -21264,7 +21275,7 @@
       <c r="Y743" s="4"/>
       <c r="Z743" s="4"/>
     </row>
-    <row r="744" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="20" customHeight="1">
       <c r="A744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="8"/>
@@ -21291,7 +21302,7 @@
       <c r="Y744" s="4"/>
       <c r="Z744" s="4"/>
     </row>
-    <row r="745" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="20" customHeight="1">
       <c r="A745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="8"/>
@@ -21318,7 +21329,7 @@
       <c r="Y745" s="4"/>
       <c r="Z745" s="4"/>
     </row>
-    <row r="746" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="20" customHeight="1">
       <c r="A746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="8"/>
@@ -21345,7 +21356,7 @@
       <c r="Y746" s="4"/>
       <c r="Z746" s="4"/>
     </row>
-    <row r="747" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="20" customHeight="1">
       <c r="A747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="8"/>
@@ -21372,7 +21383,7 @@
       <c r="Y747" s="4"/>
       <c r="Z747" s="4"/>
     </row>
-    <row r="748" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="20" customHeight="1">
       <c r="A748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="8"/>
@@ -21399,7 +21410,7 @@
       <c r="Y748" s="4"/>
       <c r="Z748" s="4"/>
     </row>
-    <row r="749" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="20" customHeight="1">
       <c r="A749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="8"/>
@@ -21426,7 +21437,7 @@
       <c r="Y749" s="4"/>
       <c r="Z749" s="4"/>
     </row>
-    <row r="750" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="20" customHeight="1">
       <c r="A750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="8"/>
@@ -21453,7 +21464,7 @@
       <c r="Y750" s="4"/>
       <c r="Z750" s="4"/>
     </row>
-    <row r="751" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="20" customHeight="1">
       <c r="A751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="8"/>
@@ -21480,7 +21491,7 @@
       <c r="Y751" s="4"/>
       <c r="Z751" s="4"/>
     </row>
-    <row r="752" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="20" customHeight="1">
       <c r="A752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="8"/>
@@ -21507,7 +21518,7 @@
       <c r="Y752" s="4"/>
       <c r="Z752" s="4"/>
     </row>
-    <row r="753" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="20" customHeight="1">
       <c r="A753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="8"/>
@@ -21534,7 +21545,7 @@
       <c r="Y753" s="4"/>
       <c r="Z753" s="4"/>
     </row>
-    <row r="754" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="20" customHeight="1">
       <c r="A754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="8"/>
@@ -21561,7 +21572,7 @@
       <c r="Y754" s="4"/>
       <c r="Z754" s="4"/>
     </row>
-    <row r="755" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="20" customHeight="1">
       <c r="A755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="8"/>
@@ -21588,7 +21599,7 @@
       <c r="Y755" s="4"/>
       <c r="Z755" s="4"/>
     </row>
-    <row r="756" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="20" customHeight="1">
       <c r="A756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="8"/>
@@ -21615,7 +21626,7 @@
       <c r="Y756" s="4"/>
       <c r="Z756" s="4"/>
     </row>
-    <row r="757" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="20" customHeight="1">
       <c r="A757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="8"/>
@@ -21642,7 +21653,7 @@
       <c r="Y757" s="4"/>
       <c r="Z757" s="4"/>
     </row>
-    <row r="758" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="20" customHeight="1">
       <c r="A758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="8"/>
@@ -21669,7 +21680,7 @@
       <c r="Y758" s="4"/>
       <c r="Z758" s="4"/>
     </row>
-    <row r="759" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="20" customHeight="1">
       <c r="A759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="8"/>
@@ -21696,7 +21707,7 @@
       <c r="Y759" s="4"/>
       <c r="Z759" s="4"/>
     </row>
-    <row r="760" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="20" customHeight="1">
       <c r="A760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="8"/>
@@ -21723,7 +21734,7 @@
       <c r="Y760" s="4"/>
       <c r="Z760" s="4"/>
     </row>
-    <row r="761" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="20" customHeight="1">
       <c r="A761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="8"/>
@@ -21750,7 +21761,7 @@
       <c r="Y761" s="4"/>
       <c r="Z761" s="4"/>
     </row>
-    <row r="762" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="20" customHeight="1">
       <c r="A762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="8"/>
@@ -21777,7 +21788,7 @@
       <c r="Y762" s="4"/>
       <c r="Z762" s="4"/>
     </row>
-    <row r="763" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="20" customHeight="1">
       <c r="A763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="8"/>
@@ -21804,7 +21815,7 @@
       <c r="Y763" s="4"/>
       <c r="Z763" s="4"/>
     </row>
-    <row r="764" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="20" customHeight="1">
       <c r="A764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="8"/>
@@ -21831,7 +21842,7 @@
       <c r="Y764" s="4"/>
       <c r="Z764" s="4"/>
     </row>
-    <row r="765" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="20" customHeight="1">
       <c r="A765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="8"/>
@@ -21858,7 +21869,7 @@
       <c r="Y765" s="4"/>
       <c r="Z765" s="4"/>
     </row>
-    <row r="766" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="20" customHeight="1">
       <c r="A766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="8"/>
@@ -21885,7 +21896,7 @@
       <c r="Y766" s="4"/>
       <c r="Z766" s="4"/>
     </row>
-    <row r="767" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="20" customHeight="1">
       <c r="A767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="8"/>
@@ -21912,7 +21923,7 @@
       <c r="Y767" s="4"/>
       <c r="Z767" s="4"/>
     </row>
-    <row r="768" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="20" customHeight="1">
       <c r="A768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="8"/>
@@ -21939,7 +21950,7 @@
       <c r="Y768" s="4"/>
       <c r="Z768" s="4"/>
     </row>
-    <row r="769" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="20" customHeight="1">
       <c r="A769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="8"/>
@@ -21966,7 +21977,7 @@
       <c r="Y769" s="4"/>
       <c r="Z769" s="4"/>
     </row>
-    <row r="770" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="20" customHeight="1">
       <c r="A770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="8"/>
@@ -21993,7 +22004,7 @@
       <c r="Y770" s="4"/>
       <c r="Z770" s="4"/>
     </row>
-    <row r="771" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="20" customHeight="1">
       <c r="A771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="8"/>
@@ -22020,7 +22031,7 @@
       <c r="Y771" s="4"/>
       <c r="Z771" s="4"/>
     </row>
-    <row r="772" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="20" customHeight="1">
       <c r="A772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="8"/>
@@ -22047,7 +22058,7 @@
       <c r="Y772" s="4"/>
       <c r="Z772" s="4"/>
     </row>
-    <row r="773" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="20" customHeight="1">
       <c r="A773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="8"/>
@@ -22074,7 +22085,7 @@
       <c r="Y773" s="4"/>
       <c r="Z773" s="4"/>
     </row>
-    <row r="774" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="20" customHeight="1">
       <c r="A774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="8"/>
@@ -22101,7 +22112,7 @@
       <c r="Y774" s="4"/>
       <c r="Z774" s="4"/>
     </row>
-    <row r="775" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="20" customHeight="1">
       <c r="A775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="8"/>
@@ -22128,7 +22139,7 @@
       <c r="Y775" s="4"/>
       <c r="Z775" s="4"/>
     </row>
-    <row r="776" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="20" customHeight="1">
       <c r="A776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="8"/>
@@ -22155,7 +22166,7 @@
       <c r="Y776" s="4"/>
       <c r="Z776" s="4"/>
     </row>
-    <row r="777" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="20" customHeight="1">
       <c r="A777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="8"/>
@@ -22182,7 +22193,7 @@
       <c r="Y777" s="4"/>
       <c r="Z777" s="4"/>
     </row>
-    <row r="778" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="20" customHeight="1">
       <c r="A778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="8"/>
@@ -22209,7 +22220,7 @@
       <c r="Y778" s="4"/>
       <c r="Z778" s="4"/>
     </row>
-    <row r="779" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="20" customHeight="1">
       <c r="A779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="8"/>
@@ -22236,7 +22247,7 @@
       <c r="Y779" s="4"/>
       <c r="Z779" s="4"/>
     </row>
-    <row r="780" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="20" customHeight="1">
       <c r="A780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="8"/>
@@ -22263,7 +22274,7 @@
       <c r="Y780" s="4"/>
       <c r="Z780" s="4"/>
     </row>
-    <row r="781" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="20" customHeight="1">
       <c r="A781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="8"/>
@@ -22290,7 +22301,7 @@
       <c r="Y781" s="4"/>
       <c r="Z781" s="4"/>
     </row>
-    <row r="782" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="20" customHeight="1">
       <c r="A782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="8"/>
@@ -22317,7 +22328,7 @@
       <c r="Y782" s="4"/>
       <c r="Z782" s="4"/>
     </row>
-    <row r="783" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="20" customHeight="1">
       <c r="A783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="8"/>
@@ -22344,7 +22355,7 @@
       <c r="Y783" s="4"/>
       <c r="Z783" s="4"/>
     </row>
-    <row r="784" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="20" customHeight="1">
       <c r="A784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="8"/>
@@ -22371,7 +22382,7 @@
       <c r="Y784" s="4"/>
       <c r="Z784" s="4"/>
     </row>
-    <row r="785" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="20" customHeight="1">
       <c r="A785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="8"/>
@@ -22398,7 +22409,7 @@
       <c r="Y785" s="4"/>
       <c r="Z785" s="4"/>
     </row>
-    <row r="786" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="20" customHeight="1">
       <c r="A786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="8"/>
@@ -22425,7 +22436,7 @@
       <c r="Y786" s="4"/>
       <c r="Z786" s="4"/>
     </row>
-    <row r="787" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="20" customHeight="1">
       <c r="A787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="8"/>
@@ -22452,7 +22463,7 @@
       <c r="Y787" s="4"/>
       <c r="Z787" s="4"/>
     </row>
-    <row r="788" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="20" customHeight="1">
       <c r="A788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="8"/>
@@ -22479,7 +22490,7 @@
       <c r="Y788" s="4"/>
       <c r="Z788" s="4"/>
     </row>
-    <row r="789" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="20" customHeight="1">
       <c r="A789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="8"/>
@@ -22506,7 +22517,7 @@
       <c r="Y789" s="4"/>
       <c r="Z789" s="4"/>
     </row>
-    <row r="790" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="20" customHeight="1">
       <c r="A790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="8"/>
@@ -22533,7 +22544,7 @@
       <c r="Y790" s="4"/>
       <c r="Z790" s="4"/>
     </row>
-    <row r="791" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="20" customHeight="1">
       <c r="A791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="8"/>
@@ -22560,7 +22571,7 @@
       <c r="Y791" s="4"/>
       <c r="Z791" s="4"/>
     </row>
-    <row r="792" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="20" customHeight="1">
       <c r="A792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="8"/>
@@ -22587,7 +22598,7 @@
       <c r="Y792" s="4"/>
       <c r="Z792" s="4"/>
     </row>
-    <row r="793" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="20" customHeight="1">
       <c r="A793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="8"/>
@@ -22614,7 +22625,7 @@
       <c r="Y793" s="4"/>
       <c r="Z793" s="4"/>
     </row>
-    <row r="794" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="20" customHeight="1">
       <c r="A794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="8"/>
@@ -22641,7 +22652,7 @@
       <c r="Y794" s="4"/>
       <c r="Z794" s="4"/>
     </row>
-    <row r="795" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="20" customHeight="1">
       <c r="A795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="8"/>
@@ -22668,7 +22679,7 @@
       <c r="Y795" s="4"/>
       <c r="Z795" s="4"/>
     </row>
-    <row r="796" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="20" customHeight="1">
       <c r="A796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="8"/>
@@ -22695,7 +22706,7 @@
       <c r="Y796" s="4"/>
       <c r="Z796" s="4"/>
     </row>
-    <row r="797" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="20" customHeight="1">
       <c r="A797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="8"/>
@@ -22722,7 +22733,7 @@
       <c r="Y797" s="4"/>
       <c r="Z797" s="4"/>
     </row>
-    <row r="798" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="20" customHeight="1">
       <c r="A798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="8"/>
@@ -22749,7 +22760,7 @@
       <c r="Y798" s="4"/>
       <c r="Z798" s="4"/>
     </row>
-    <row r="799" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="20" customHeight="1">
       <c r="A799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="8"/>
@@ -22776,7 +22787,7 @@
       <c r="Y799" s="4"/>
       <c r="Z799" s="4"/>
     </row>
-    <row r="800" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="20" customHeight="1">
       <c r="A800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="8"/>
@@ -22803,7 +22814,7 @@
       <c r="Y800" s="4"/>
       <c r="Z800" s="4"/>
     </row>
-    <row r="801" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="20" customHeight="1">
       <c r="A801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="8"/>
@@ -22830,7 +22841,7 @@
       <c r="Y801" s="4"/>
       <c r="Z801" s="4"/>
     </row>
-    <row r="802" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="20" customHeight="1">
       <c r="A802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="8"/>
@@ -22857,7 +22868,7 @@
       <c r="Y802" s="4"/>
       <c r="Z802" s="4"/>
     </row>
-    <row r="803" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="20" customHeight="1">
       <c r="A803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="8"/>
@@ -22884,7 +22895,7 @@
       <c r="Y803" s="4"/>
       <c r="Z803" s="4"/>
     </row>
-    <row r="804" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="20" customHeight="1">
       <c r="A804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="8"/>
@@ -22911,7 +22922,7 @@
       <c r="Y804" s="4"/>
       <c r="Z804" s="4"/>
     </row>
-    <row r="805" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="20" customHeight="1">
       <c r="A805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="8"/>
@@ -22938,7 +22949,7 @@
       <c r="Y805" s="4"/>
       <c r="Z805" s="4"/>
     </row>
-    <row r="806" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="20" customHeight="1">
       <c r="A806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="8"/>
@@ -22965,7 +22976,7 @@
       <c r="Y806" s="4"/>
       <c r="Z806" s="4"/>
     </row>
-    <row r="807" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="20" customHeight="1">
       <c r="A807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="8"/>
@@ -22992,7 +23003,7 @@
       <c r="Y807" s="4"/>
       <c r="Z807" s="4"/>
     </row>
-    <row r="808" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="20" customHeight="1">
       <c r="A808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="8"/>
@@ -23019,7 +23030,7 @@
       <c r="Y808" s="4"/>
       <c r="Z808" s="4"/>
     </row>
-    <row r="809" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="20" customHeight="1">
       <c r="A809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="8"/>
@@ -23046,7 +23057,7 @@
       <c r="Y809" s="4"/>
       <c r="Z809" s="4"/>
     </row>
-    <row r="810" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="20" customHeight="1">
       <c r="A810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="8"/>
@@ -23073,7 +23084,7 @@
       <c r="Y810" s="4"/>
       <c r="Z810" s="4"/>
     </row>
-    <row r="811" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="20" customHeight="1">
       <c r="A811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="8"/>
@@ -23100,7 +23111,7 @@
       <c r="Y811" s="4"/>
       <c r="Z811" s="4"/>
     </row>
-    <row r="812" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="20" customHeight="1">
       <c r="A812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="8"/>
@@ -23127,7 +23138,7 @@
       <c r="Y812" s="4"/>
       <c r="Z812" s="4"/>
     </row>
-    <row r="813" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="20" customHeight="1">
       <c r="A813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="8"/>
@@ -23154,7 +23165,7 @@
       <c r="Y813" s="4"/>
       <c r="Z813" s="4"/>
     </row>
-    <row r="814" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="20" customHeight="1">
       <c r="A814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="8"/>
@@ -23181,7 +23192,7 @@
       <c r="Y814" s="4"/>
       <c r="Z814" s="4"/>
     </row>
-    <row r="815" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="20" customHeight="1">
       <c r="A815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="8"/>
@@ -23208,7 +23219,7 @@
       <c r="Y815" s="4"/>
       <c r="Z815" s="4"/>
     </row>
-    <row r="816" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="20" customHeight="1">
       <c r="A816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="8"/>
@@ -23235,7 +23246,7 @@
       <c r="Y816" s="4"/>
       <c r="Z816" s="4"/>
     </row>
-    <row r="817" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="20" customHeight="1">
       <c r="A817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="8"/>
@@ -23262,7 +23273,7 @@
       <c r="Y817" s="4"/>
       <c r="Z817" s="4"/>
     </row>
-    <row r="818" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="20" customHeight="1">
       <c r="A818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="8"/>
@@ -23289,7 +23300,7 @@
       <c r="Y818" s="4"/>
       <c r="Z818" s="4"/>
     </row>
-    <row r="819" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="20" customHeight="1">
       <c r="A819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="8"/>
@@ -23316,7 +23327,7 @@
       <c r="Y819" s="4"/>
       <c r="Z819" s="4"/>
     </row>
-    <row r="820" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="20" customHeight="1">
       <c r="A820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="8"/>
@@ -23343,7 +23354,7 @@
       <c r="Y820" s="4"/>
       <c r="Z820" s="4"/>
     </row>
-    <row r="821" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="20" customHeight="1">
       <c r="A821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="8"/>
@@ -23370,7 +23381,7 @@
       <c r="Y821" s="4"/>
       <c r="Z821" s="4"/>
     </row>
-    <row r="822" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="20" customHeight="1">
       <c r="A822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="8"/>
@@ -23397,7 +23408,7 @@
       <c r="Y822" s="4"/>
       <c r="Z822" s="4"/>
     </row>
-    <row r="823" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="20" customHeight="1">
       <c r="A823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="8"/>
@@ -23424,7 +23435,7 @@
       <c r="Y823" s="4"/>
       <c r="Z823" s="4"/>
     </row>
-    <row r="824" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="20" customHeight="1">
       <c r="A824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="8"/>
@@ -23451,7 +23462,7 @@
       <c r="Y824" s="4"/>
       <c r="Z824" s="4"/>
     </row>
-    <row r="825" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="20" customHeight="1">
       <c r="A825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="8"/>
@@ -23478,7 +23489,7 @@
       <c r="Y825" s="4"/>
       <c r="Z825" s="4"/>
     </row>
-    <row r="826" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="20" customHeight="1">
       <c r="A826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="8"/>
@@ -23505,7 +23516,7 @@
       <c r="Y826" s="4"/>
       <c r="Z826" s="4"/>
     </row>
-    <row r="827" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="20" customHeight="1">
       <c r="A827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="8"/>
@@ -23532,7 +23543,7 @@
       <c r="Y827" s="4"/>
       <c r="Z827" s="4"/>
     </row>
-    <row r="828" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="20" customHeight="1">
       <c r="A828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="8"/>
@@ -23559,7 +23570,7 @@
       <c r="Y828" s="4"/>
       <c r="Z828" s="4"/>
     </row>
-    <row r="829" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="20" customHeight="1">
       <c r="A829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="8"/>
@@ -23586,7 +23597,7 @@
       <c r="Y829" s="4"/>
       <c r="Z829" s="4"/>
     </row>
-    <row r="830" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="20" customHeight="1">
       <c r="A830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="8"/>
@@ -23613,7 +23624,7 @@
       <c r="Y830" s="4"/>
       <c r="Z830" s="4"/>
     </row>
-    <row r="831" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="20" customHeight="1">
       <c r="A831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="8"/>
@@ -23640,7 +23651,7 @@
       <c r="Y831" s="4"/>
       <c r="Z831" s="4"/>
     </row>
-    <row r="832" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="20" customHeight="1">
       <c r="A832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="8"/>
@@ -23667,7 +23678,7 @@
       <c r="Y832" s="4"/>
       <c r="Z832" s="4"/>
     </row>
-    <row r="833" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="20" customHeight="1">
       <c r="A833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="8"/>
@@ -23694,7 +23705,7 @@
       <c r="Y833" s="4"/>
       <c r="Z833" s="4"/>
     </row>
-    <row r="834" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="20" customHeight="1">
       <c r="A834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="8"/>
@@ -23721,7 +23732,7 @@
       <c r="Y834" s="4"/>
       <c r="Z834" s="4"/>
     </row>
-    <row r="835" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="20" customHeight="1">
       <c r="A835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="8"/>
@@ -23748,7 +23759,7 @@
       <c r="Y835" s="4"/>
       <c r="Z835" s="4"/>
     </row>
-    <row r="836" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="20" customHeight="1">
       <c r="A836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="8"/>
@@ -23775,7 +23786,7 @@
       <c r="Y836" s="4"/>
       <c r="Z836" s="4"/>
     </row>
-    <row r="837" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="20" customHeight="1">
       <c r="A837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="8"/>
@@ -23802,7 +23813,7 @@
       <c r="Y837" s="4"/>
       <c r="Z837" s="4"/>
     </row>
-    <row r="838" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="20" customHeight="1">
       <c r="A838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="8"/>
@@ -23829,7 +23840,7 @@
       <c r="Y838" s="4"/>
       <c r="Z838" s="4"/>
     </row>
-    <row r="839" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="20" customHeight="1">
       <c r="A839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="8"/>
@@ -23856,7 +23867,7 @@
       <c r="Y839" s="4"/>
       <c r="Z839" s="4"/>
     </row>
-    <row r="840" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="20" customHeight="1">
       <c r="A840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="8"/>
@@ -23883,7 +23894,7 @@
       <c r="Y840" s="4"/>
       <c r="Z840" s="4"/>
     </row>
-    <row r="841" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="20" customHeight="1">
       <c r="A841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="8"/>
@@ -23910,7 +23921,7 @@
       <c r="Y841" s="4"/>
       <c r="Z841" s="4"/>
     </row>
-    <row r="842" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="20" customHeight="1">
       <c r="A842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="8"/>
@@ -23937,7 +23948,7 @@
       <c r="Y842" s="4"/>
       <c r="Z842" s="4"/>
     </row>
-    <row r="843" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="20" customHeight="1">
       <c r="A843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="8"/>
@@ -23964,7 +23975,7 @@
       <c r="Y843" s="4"/>
       <c r="Z843" s="4"/>
     </row>
-    <row r="844" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="20" customHeight="1">
       <c r="A844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="8"/>
@@ -23991,7 +24002,7 @@
       <c r="Y844" s="4"/>
       <c r="Z844" s="4"/>
     </row>
-    <row r="845" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="20" customHeight="1">
       <c r="A845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="8"/>
@@ -24018,7 +24029,7 @@
       <c r="Y845" s="4"/>
       <c r="Z845" s="4"/>
     </row>
-    <row r="846" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="20" customHeight="1">
       <c r="A846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="8"/>
@@ -24045,7 +24056,7 @@
       <c r="Y846" s="4"/>
       <c r="Z846" s="4"/>
     </row>
-    <row r="847" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="20" customHeight="1">
       <c r="A847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="8"/>
@@ -24072,7 +24083,7 @@
       <c r="Y847" s="4"/>
       <c r="Z847" s="4"/>
     </row>
-    <row r="848" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="20" customHeight="1">
       <c r="A848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="8"/>
@@ -24099,7 +24110,7 @@
       <c r="Y848" s="4"/>
       <c r="Z848" s="4"/>
     </row>
-    <row r="849" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="20" customHeight="1">
       <c r="A849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="8"/>
@@ -24126,7 +24137,7 @@
       <c r="Y849" s="4"/>
       <c r="Z849" s="4"/>
     </row>
-    <row r="850" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="20" customHeight="1">
       <c r="A850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="8"/>
@@ -24153,7 +24164,7 @@
       <c r="Y850" s="4"/>
       <c r="Z850" s="4"/>
     </row>
-    <row r="851" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="20" customHeight="1">
       <c r="A851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="8"/>
@@ -24180,7 +24191,7 @@
       <c r="Y851" s="4"/>
       <c r="Z851" s="4"/>
     </row>
-    <row r="852" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="20" customHeight="1">
       <c r="A852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="8"/>
@@ -24207,7 +24218,7 @@
       <c r="Y852" s="4"/>
       <c r="Z852" s="4"/>
     </row>
-    <row r="853" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="20" customHeight="1">
       <c r="A853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="8"/>
@@ -24234,7 +24245,7 @@
       <c r="Y853" s="4"/>
       <c r="Z853" s="4"/>
     </row>
-    <row r="854" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="20" customHeight="1">
       <c r="A854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="8"/>
@@ -24261,7 +24272,7 @@
       <c r="Y854" s="4"/>
       <c r="Z854" s="4"/>
     </row>
-    <row r="855" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="20" customHeight="1">
       <c r="A855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="8"/>
@@ -24288,7 +24299,7 @@
       <c r="Y855" s="4"/>
       <c r="Z855" s="4"/>
     </row>
-    <row r="856" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="20" customHeight="1">
       <c r="A856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="8"/>
@@ -24315,7 +24326,7 @@
       <c r="Y856" s="4"/>
       <c r="Z856" s="4"/>
     </row>
-    <row r="857" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="20" customHeight="1">
       <c r="A857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="8"/>
@@ -24342,7 +24353,7 @@
       <c r="Y857" s="4"/>
       <c r="Z857" s="4"/>
     </row>
-    <row r="858" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="20" customHeight="1">
       <c r="A858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="8"/>
@@ -24369,7 +24380,7 @@
       <c r="Y858" s="4"/>
       <c r="Z858" s="4"/>
     </row>
-    <row r="859" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="20" customHeight="1">
       <c r="A859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="8"/>
@@ -24396,7 +24407,7 @@
       <c r="Y859" s="4"/>
       <c r="Z859" s="4"/>
     </row>
-    <row r="860" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="20" customHeight="1">
       <c r="A860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="8"/>
@@ -24423,7 +24434,7 @@
       <c r="Y860" s="4"/>
       <c r="Z860" s="4"/>
     </row>
-    <row r="861" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="20" customHeight="1">
       <c r="A861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="8"/>
@@ -24450,7 +24461,7 @@
       <c r="Y861" s="4"/>
       <c r="Z861" s="4"/>
     </row>
-    <row r="862" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="20" customHeight="1">
       <c r="A862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="8"/>
@@ -24477,7 +24488,7 @@
       <c r="Y862" s="4"/>
       <c r="Z862" s="4"/>
     </row>
-    <row r="863" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="20" customHeight="1">
       <c r="A863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="8"/>
@@ -24504,7 +24515,7 @@
       <c r="Y863" s="4"/>
       <c r="Z863" s="4"/>
     </row>
-    <row r="864" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="20" customHeight="1">
       <c r="A864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="8"/>
@@ -24531,7 +24542,7 @@
       <c r="Y864" s="4"/>
       <c r="Z864" s="4"/>
     </row>
-    <row r="865" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="20" customHeight="1">
       <c r="A865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="8"/>
@@ -24558,7 +24569,7 @@
       <c r="Y865" s="4"/>
       <c r="Z865" s="4"/>
     </row>
-    <row r="866" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="20" customHeight="1">
       <c r="A866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="8"/>
@@ -24585,7 +24596,7 @@
       <c r="Y866" s="4"/>
       <c r="Z866" s="4"/>
     </row>
-    <row r="867" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="20" customHeight="1">
       <c r="A867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="8"/>
@@ -24612,7 +24623,7 @@
       <c r="Y867" s="4"/>
       <c r="Z867" s="4"/>
     </row>
-    <row r="868" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="20" customHeight="1">
       <c r="A868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="8"/>
@@ -24639,7 +24650,7 @@
       <c r="Y868" s="4"/>
       <c r="Z868" s="4"/>
     </row>
-    <row r="869" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="20" customHeight="1">
       <c r="A869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="8"/>
@@ -24666,7 +24677,7 @@
       <c r="Y869" s="4"/>
       <c r="Z869" s="4"/>
     </row>
-    <row r="870" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="20" customHeight="1">
       <c r="A870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="8"/>
@@ -24693,7 +24704,7 @@
       <c r="Y870" s="4"/>
       <c r="Z870" s="4"/>
     </row>
-    <row r="871" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="20" customHeight="1">
       <c r="A871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="8"/>
@@ -24720,7 +24731,7 @@
       <c r="Y871" s="4"/>
       <c r="Z871" s="4"/>
     </row>
-    <row r="872" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="20" customHeight="1">
       <c r="A872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="8"/>
@@ -24747,7 +24758,7 @@
       <c r="Y872" s="4"/>
       <c r="Z872" s="4"/>
     </row>
-    <row r="873" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="20" customHeight="1">
       <c r="A873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="8"/>
@@ -24774,7 +24785,7 @@
       <c r="Y873" s="4"/>
       <c r="Z873" s="4"/>
     </row>
-    <row r="874" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="20" customHeight="1">
       <c r="A874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="8"/>
@@ -24801,7 +24812,7 @@
       <c r="Y874" s="4"/>
       <c r="Z874" s="4"/>
     </row>
-    <row r="875" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="20" customHeight="1">
       <c r="A875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="8"/>
@@ -24828,7 +24839,7 @@
       <c r="Y875" s="4"/>
       <c r="Z875" s="4"/>
     </row>
-    <row r="876" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="20" customHeight="1">
       <c r="A876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="8"/>
@@ -24855,7 +24866,7 @@
       <c r="Y876" s="4"/>
       <c r="Z876" s="4"/>
     </row>
-    <row r="877" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="20" customHeight="1">
       <c r="A877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="8"/>
@@ -24882,7 +24893,7 @@
       <c r="Y877" s="4"/>
       <c r="Z877" s="4"/>
     </row>
-    <row r="878" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="20" customHeight="1">
       <c r="A878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="8"/>
@@ -24909,7 +24920,7 @@
       <c r="Y878" s="4"/>
       <c r="Z878" s="4"/>
     </row>
-    <row r="879" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="20" customHeight="1">
       <c r="A879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="8"/>
@@ -24936,7 +24947,7 @@
       <c r="Y879" s="4"/>
       <c r="Z879" s="4"/>
     </row>
-    <row r="880" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="20" customHeight="1">
       <c r="A880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="8"/>
@@ -24963,7 +24974,7 @@
       <c r="Y880" s="4"/>
       <c r="Z880" s="4"/>
     </row>
-    <row r="881" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="20" customHeight="1">
       <c r="A881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="8"/>
@@ -24990,7 +25001,7 @@
       <c r="Y881" s="4"/>
       <c r="Z881" s="4"/>
     </row>
-    <row r="882" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="20" customHeight="1">
       <c r="A882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="8"/>
@@ -25017,7 +25028,7 @@
       <c r="Y882" s="4"/>
       <c r="Z882" s="4"/>
     </row>
-    <row r="883" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="20" customHeight="1">
       <c r="A883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="8"/>
@@ -25044,7 +25055,7 @@
       <c r="Y883" s="4"/>
       <c r="Z883" s="4"/>
     </row>
-    <row r="884" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="20" customHeight="1">
       <c r="A884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="8"/>
@@ -25071,7 +25082,7 @@
       <c r="Y884" s="4"/>
       <c r="Z884" s="4"/>
     </row>
-    <row r="885" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="20" customHeight="1">
       <c r="A885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="8"/>
@@ -25098,7 +25109,7 @@
       <c r="Y885" s="4"/>
       <c r="Z885" s="4"/>
     </row>
-    <row r="886" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="20" customHeight="1">
       <c r="A886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="8"/>
@@ -25125,7 +25136,7 @@
       <c r="Y886" s="4"/>
       <c r="Z886" s="4"/>
     </row>
-    <row r="887" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="20" customHeight="1">
       <c r="A887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="8"/>
@@ -25152,7 +25163,7 @@
       <c r="Y887" s="4"/>
       <c r="Z887" s="4"/>
     </row>
-    <row r="888" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="20" customHeight="1">
       <c r="A888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="8"/>
@@ -25179,7 +25190,7 @@
       <c r="Y888" s="4"/>
       <c r="Z888" s="4"/>
     </row>
-    <row r="889" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="20" customHeight="1">
       <c r="A889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="8"/>
@@ -25206,7 +25217,7 @@
       <c r="Y889" s="4"/>
       <c r="Z889" s="4"/>
     </row>
-    <row r="890" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="20" customHeight="1">
       <c r="A890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="8"/>
@@ -25233,7 +25244,7 @@
       <c r="Y890" s="4"/>
       <c r="Z890" s="4"/>
     </row>
-    <row r="891" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="20" customHeight="1">
       <c r="A891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="8"/>
@@ -25260,7 +25271,7 @@
       <c r="Y891" s="4"/>
       <c r="Z891" s="4"/>
     </row>
-    <row r="892" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="20" customHeight="1">
       <c r="A892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="8"/>
@@ -25287,7 +25298,7 @@
       <c r="Y892" s="4"/>
       <c r="Z892" s="4"/>
     </row>
-    <row r="893" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="20" customHeight="1">
       <c r="A893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="8"/>
@@ -25314,7 +25325,7 @@
       <c r="Y893" s="4"/>
       <c r="Z893" s="4"/>
     </row>
-    <row r="894" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="20" customHeight="1">
       <c r="A894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="8"/>
@@ -25341,7 +25352,7 @@
       <c r="Y894" s="4"/>
       <c r="Z894" s="4"/>
     </row>
-    <row r="895" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="20" customHeight="1">
       <c r="A895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="8"/>
@@ -25368,7 +25379,7 @@
       <c r="Y895" s="4"/>
       <c r="Z895" s="4"/>
     </row>
-    <row r="896" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="20" customHeight="1">
       <c r="A896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="8"/>
@@ -25395,7 +25406,7 @@
       <c r="Y896" s="4"/>
       <c r="Z896" s="4"/>
     </row>
-    <row r="897" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="20" customHeight="1">
       <c r="A897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="8"/>
@@ -25422,7 +25433,7 @@
       <c r="Y897" s="4"/>
       <c r="Z897" s="4"/>
     </row>
-    <row r="898" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="20" customHeight="1">
       <c r="A898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="8"/>
@@ -25449,7 +25460,7 @@
       <c r="Y898" s="4"/>
       <c r="Z898" s="4"/>
     </row>
-    <row r="899" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="20" customHeight="1">
       <c r="A899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="8"/>
@@ -25476,7 +25487,7 @@
       <c r="Y899" s="4"/>
       <c r="Z899" s="4"/>
     </row>
-    <row r="900" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="20" customHeight="1">
       <c r="A900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="8"/>
@@ -25503,7 +25514,7 @@
       <c r="Y900" s="4"/>
       <c r="Z900" s="4"/>
     </row>
-    <row r="901" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="20" customHeight="1">
       <c r="A901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="8"/>
@@ -25530,7 +25541,7 @@
       <c r="Y901" s="4"/>
       <c r="Z901" s="4"/>
     </row>
-    <row r="902" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="20" customHeight="1">
       <c r="A902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="8"/>
@@ -25557,7 +25568,7 @@
       <c r="Y902" s="4"/>
       <c r="Z902" s="4"/>
     </row>
-    <row r="903" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="20" customHeight="1">
       <c r="A903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="8"/>
@@ -25584,7 +25595,7 @@
       <c r="Y903" s="4"/>
       <c r="Z903" s="4"/>
     </row>
-    <row r="904" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="20" customHeight="1">
       <c r="A904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="8"/>
@@ -25611,7 +25622,7 @@
       <c r="Y904" s="4"/>
       <c r="Z904" s="4"/>
     </row>
-    <row r="905" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="20" customHeight="1">
       <c r="A905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="8"/>
@@ -25638,7 +25649,7 @@
       <c r="Y905" s="4"/>
       <c r="Z905" s="4"/>
     </row>
-    <row r="906" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="20" customHeight="1">
       <c r="A906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="8"/>
@@ -25665,7 +25676,7 @@
       <c r="Y906" s="4"/>
       <c r="Z906" s="4"/>
     </row>
-    <row r="907" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="20" customHeight="1">
       <c r="A907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="8"/>
@@ -25692,7 +25703,7 @@
       <c r="Y907" s="4"/>
       <c r="Z907" s="4"/>
     </row>
-    <row r="908" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="20" customHeight="1">
       <c r="A908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="8"/>
@@ -25719,7 +25730,7 @@
       <c r="Y908" s="4"/>
       <c r="Z908" s="4"/>
     </row>
-    <row r="909" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="20" customHeight="1">
       <c r="A909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="8"/>
@@ -25746,7 +25757,7 @@
       <c r="Y909" s="4"/>
       <c r="Z909" s="4"/>
     </row>
-    <row r="910" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="20" customHeight="1">
       <c r="A910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="8"/>
@@ -25773,7 +25784,7 @@
       <c r="Y910" s="4"/>
       <c r="Z910" s="4"/>
     </row>
-    <row r="911" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="20" customHeight="1">
       <c r="A911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="8"/>
@@ -25800,7 +25811,7 @@
       <c r="Y911" s="4"/>
       <c r="Z911" s="4"/>
     </row>
-    <row r="912" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="20" customHeight="1">
       <c r="A912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="8"/>
@@ -25827,7 +25838,7 @@
       <c r="Y912" s="4"/>
       <c r="Z912" s="4"/>
     </row>
-    <row r="913" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="20" customHeight="1">
       <c r="A913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="8"/>
@@ -25854,7 +25865,7 @@
       <c r="Y913" s="4"/>
       <c r="Z913" s="4"/>
     </row>
-    <row r="914" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="20" customHeight="1">
       <c r="A914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="8"/>
@@ -25881,7 +25892,7 @@
       <c r="Y914" s="4"/>
       <c r="Z914" s="4"/>
     </row>
-    <row r="915" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="20" customHeight="1">
       <c r="A915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="8"/>
@@ -25908,7 +25919,7 @@
       <c r="Y915" s="4"/>
       <c r="Z915" s="4"/>
     </row>
-    <row r="916" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="20" customHeight="1">
       <c r="A916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="8"/>
@@ -25935,7 +25946,7 @@
       <c r="Y916" s="4"/>
       <c r="Z916" s="4"/>
     </row>
-    <row r="917" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="20" customHeight="1">
       <c r="A917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="8"/>
@@ -25962,7 +25973,7 @@
       <c r="Y917" s="4"/>
       <c r="Z917" s="4"/>
     </row>
-    <row r="918" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="20" customHeight="1">
       <c r="A918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="8"/>
@@ -25989,7 +26000,7 @@
       <c r="Y918" s="4"/>
       <c r="Z918" s="4"/>
     </row>
-    <row r="919" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="20" customHeight="1">
       <c r="A919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="8"/>
@@ -26016,7 +26027,7 @@
       <c r="Y919" s="4"/>
       <c r="Z919" s="4"/>
     </row>
-    <row r="920" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="20" customHeight="1">
       <c r="A920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="8"/>
@@ -26043,7 +26054,7 @@
       <c r="Y920" s="4"/>
       <c r="Z920" s="4"/>
     </row>
-    <row r="921" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="20" customHeight="1">
       <c r="A921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="8"/>
@@ -26070,7 +26081,7 @@
       <c r="Y921" s="4"/>
       <c r="Z921" s="4"/>
     </row>
-    <row r="922" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="20" customHeight="1">
       <c r="A922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="8"/>
@@ -26097,7 +26108,7 @@
       <c r="Y922" s="4"/>
       <c r="Z922" s="4"/>
     </row>
-    <row r="923" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="20" customHeight="1">
       <c r="A923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="8"/>
@@ -26124,7 +26135,7 @@
       <c r="Y923" s="4"/>
       <c r="Z923" s="4"/>
     </row>
-    <row r="924" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="20" customHeight="1">
       <c r="A924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="8"/>
@@ -26151,7 +26162,7 @@
       <c r="Y924" s="4"/>
       <c r="Z924" s="4"/>
     </row>
-    <row r="925" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="20" customHeight="1">
       <c r="A925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="8"/>
@@ -26178,7 +26189,7 @@
       <c r="Y925" s="4"/>
       <c r="Z925" s="4"/>
     </row>
-    <row r="926" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="20" customHeight="1">
       <c r="A926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="8"/>
@@ -26205,7 +26216,7 @@
       <c r="Y926" s="4"/>
       <c r="Z926" s="4"/>
     </row>
-    <row r="927" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="20" customHeight="1">
       <c r="A927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="8"/>
@@ -26232,7 +26243,7 @@
       <c r="Y927" s="4"/>
       <c r="Z927" s="4"/>
     </row>
-    <row r="928" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="20" customHeight="1">
       <c r="A928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="8"/>
@@ -26259,7 +26270,7 @@
       <c r="Y928" s="4"/>
       <c r="Z928" s="4"/>
     </row>
-    <row r="929" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="20" customHeight="1">
       <c r="A929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="8"/>
@@ -26286,7 +26297,7 @@
       <c r="Y929" s="4"/>
       <c r="Z929" s="4"/>
     </row>
-    <row r="930" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="20" customHeight="1">
       <c r="A930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="8"/>
@@ -26313,7 +26324,7 @@
       <c r="Y930" s="4"/>
       <c r="Z930" s="4"/>
     </row>
-    <row r="931" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="20" customHeight="1">
       <c r="A931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="8"/>
@@ -26340,7 +26351,7 @@
       <c r="Y931" s="4"/>
       <c r="Z931" s="4"/>
     </row>
-    <row r="932" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="20" customHeight="1">
       <c r="A932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="8"/>
@@ -26367,7 +26378,7 @@
       <c r="Y932" s="4"/>
       <c r="Z932" s="4"/>
     </row>
-    <row r="933" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="20" customHeight="1">
       <c r="A933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="8"/>
@@ -26394,7 +26405,7 @@
       <c r="Y933" s="4"/>
       <c r="Z933" s="4"/>
     </row>
-    <row r="934" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="20" customHeight="1">
       <c r="A934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="8"/>
@@ -26421,7 +26432,7 @@
       <c r="Y934" s="4"/>
       <c r="Z934" s="4"/>
     </row>
-    <row r="935" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="20" customHeight="1">
       <c r="A935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="8"/>
@@ -26448,7 +26459,7 @@
       <c r="Y935" s="4"/>
       <c r="Z935" s="4"/>
     </row>
-    <row r="936" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="20" customHeight="1">
       <c r="A936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="8"/>
@@ -26475,7 +26486,7 @@
       <c r="Y936" s="4"/>
       <c r="Z936" s="4"/>
     </row>
-    <row r="937" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="20" customHeight="1">
       <c r="A937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="8"/>
@@ -26502,7 +26513,7 @@
       <c r="Y937" s="4"/>
       <c r="Z937" s="4"/>
     </row>
-    <row r="938" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="20" customHeight="1">
       <c r="A938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="8"/>
@@ -26529,7 +26540,7 @@
       <c r="Y938" s="4"/>
       <c r="Z938" s="4"/>
     </row>
-    <row r="939" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="20" customHeight="1">
       <c r="A939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="8"/>
@@ -26556,7 +26567,7 @@
       <c r="Y939" s="4"/>
       <c r="Z939" s="4"/>
     </row>
-    <row r="940" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="20" customHeight="1">
       <c r="A940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="8"/>
@@ -26583,7 +26594,7 @@
       <c r="Y940" s="4"/>
       <c r="Z940" s="4"/>
     </row>
-    <row r="941" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="20" customHeight="1">
       <c r="A941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="8"/>
@@ -26610,7 +26621,7 @@
       <c r="Y941" s="4"/>
       <c r="Z941" s="4"/>
     </row>
-    <row r="942" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="20" customHeight="1">
       <c r="A942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="8"/>
@@ -26637,7 +26648,7 @@
       <c r="Y942" s="4"/>
       <c r="Z942" s="4"/>
     </row>
-    <row r="943" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="20" customHeight="1">
       <c r="A943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="8"/>
@@ -26664,7 +26675,7 @@
       <c r="Y943" s="4"/>
       <c r="Z943" s="4"/>
     </row>
-    <row r="944" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="20" customHeight="1">
       <c r="A944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="8"/>
@@ -26691,7 +26702,7 @@
       <c r="Y944" s="4"/>
       <c r="Z944" s="4"/>
     </row>
-    <row r="945" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="20" customHeight="1">
       <c r="A945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="8"/>
@@ -26718,7 +26729,7 @@
       <c r="Y945" s="4"/>
       <c r="Z945" s="4"/>
     </row>
-    <row r="946" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="20" customHeight="1">
       <c r="A946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="8"/>
@@ -26745,7 +26756,7 @@
       <c r="Y946" s="4"/>
       <c r="Z946" s="4"/>
     </row>
-    <row r="947" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="20" customHeight="1">
       <c r="A947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="8"/>
@@ -26772,7 +26783,7 @@
       <c r="Y947" s="4"/>
       <c r="Z947" s="4"/>
     </row>
-    <row r="948" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="20" customHeight="1">
       <c r="A948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="8"/>
@@ -26799,7 +26810,7 @@
       <c r="Y948" s="4"/>
       <c r="Z948" s="4"/>
     </row>
-    <row r="949" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="20" customHeight="1">
       <c r="A949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="8"/>
@@ -26826,7 +26837,7 @@
       <c r="Y949" s="4"/>
       <c r="Z949" s="4"/>
     </row>
-    <row r="950" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="20" customHeight="1">
       <c r="A950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="8"/>
@@ -26853,7 +26864,7 @@
       <c r="Y950" s="4"/>
       <c r="Z950" s="4"/>
     </row>
-    <row r="951" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="20" customHeight="1">
       <c r="A951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="8"/>
@@ -26880,7 +26891,7 @@
       <c r="Y951" s="4"/>
       <c r="Z951" s="4"/>
     </row>
-    <row r="952" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="20" customHeight="1">
       <c r="A952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="8"/>
@@ -26907,7 +26918,7 @@
       <c r="Y952" s="4"/>
       <c r="Z952" s="4"/>
     </row>
-    <row r="953" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="20" customHeight="1">
       <c r="A953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="8"/>
@@ -26934,7 +26945,7 @@
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
     </row>
-    <row r="954" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="20" customHeight="1">
       <c r="A954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="8"/>
@@ -26961,7 +26972,7 @@
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
     </row>
-    <row r="955" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="20" customHeight="1">
       <c r="A955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="8"/>
@@ -26988,7 +26999,7 @@
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
     </row>
-    <row r="956" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="20" customHeight="1">
       <c r="A956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="8"/>
@@ -27015,7 +27026,7 @@
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
     </row>
-    <row r="957" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="20" customHeight="1">
       <c r="A957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="8"/>
@@ -27042,7 +27053,7 @@
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
     </row>
-    <row r="958" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="20" customHeight="1">
       <c r="A958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="8"/>
@@ -27069,7 +27080,7 @@
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
     </row>
-    <row r="959" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="20" customHeight="1">
       <c r="A959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="8"/>
@@ -27096,7 +27107,7 @@
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
     </row>
-    <row r="960" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="20" customHeight="1">
       <c r="A960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="8"/>
@@ -27123,7 +27134,7 @@
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
     </row>
-    <row r="961" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="20" customHeight="1">
       <c r="A961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="8"/>
@@ -27150,7 +27161,7 @@
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
     </row>
-    <row r="962" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="20" customHeight="1">
       <c r="A962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="8"/>
@@ -27177,7 +27188,7 @@
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
     </row>
-    <row r="963" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="20" customHeight="1">
       <c r="A963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="8"/>
@@ -27204,7 +27215,7 @@
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
     </row>
-    <row r="964" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="20" customHeight="1">
       <c r="A964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="8"/>
@@ -27231,7 +27242,7 @@
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
     </row>
-    <row r="965" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="20" customHeight="1">
       <c r="A965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="8"/>
@@ -27258,7 +27269,7 @@
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
     </row>
-    <row r="966" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="20" customHeight="1">
       <c r="A966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="8"/>
@@ -27285,7 +27296,7 @@
       <c r="Y966" s="4"/>
       <c r="Z966" s="4"/>
     </row>
-    <row r="967" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="20" customHeight="1">
       <c r="A967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="8"/>
@@ -27312,7 +27323,7 @@
       <c r="Y967" s="4"/>
       <c r="Z967" s="4"/>
     </row>
-    <row r="968" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="20" customHeight="1">
       <c r="A968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="8"/>
@@ -27339,7 +27350,7 @@
       <c r="Y968" s="4"/>
       <c r="Z968" s="4"/>
     </row>
-    <row r="969" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="20" customHeight="1">
       <c r="A969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="8"/>
@@ -27366,7 +27377,7 @@
       <c r="Y969" s="4"/>
       <c r="Z969" s="4"/>
     </row>
-    <row r="970" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="20" customHeight="1">
       <c r="A970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="8"/>
@@ -27393,7 +27404,7 @@
       <c r="Y970" s="4"/>
       <c r="Z970" s="4"/>
     </row>
-    <row r="971" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="20" customHeight="1">
       <c r="A971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="8"/>
@@ -27420,7 +27431,7 @@
       <c r="Y971" s="4"/>
       <c r="Z971" s="4"/>
     </row>
-    <row r="972" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="20" customHeight="1">
       <c r="A972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="8"/>
@@ -27447,7 +27458,7 @@
       <c r="Y972" s="4"/>
       <c r="Z972" s="4"/>
     </row>
-    <row r="973" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="20" customHeight="1">
       <c r="A973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="8"/>
@@ -27474,7 +27485,7 @@
       <c r="Y973" s="4"/>
       <c r="Z973" s="4"/>
     </row>
-    <row r="974" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="20" customHeight="1">
       <c r="A974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="8"/>
@@ -27501,7 +27512,7 @@
       <c r="Y974" s="4"/>
       <c r="Z974" s="4"/>
     </row>
-    <row r="975" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="20" customHeight="1">
       <c r="A975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="8"/>
@@ -27528,7 +27539,7 @@
       <c r="Y975" s="4"/>
       <c r="Z975" s="4"/>
     </row>
-    <row r="976" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="20" customHeight="1">
       <c r="A976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="8"/>
@@ -27555,7 +27566,7 @@
       <c r="Y976" s="4"/>
       <c r="Z976" s="4"/>
     </row>
-    <row r="977" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="20" customHeight="1">
       <c r="A977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="8"/>
@@ -27582,7 +27593,7 @@
       <c r="Y977" s="4"/>
       <c r="Z977" s="4"/>
     </row>
-    <row r="978" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="20" customHeight="1">
       <c r="A978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="8"/>
@@ -27609,7 +27620,7 @@
       <c r="Y978" s="4"/>
       <c r="Z978" s="4"/>
     </row>
-    <row r="979" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="20" customHeight="1">
       <c r="A979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="8"/>
@@ -27636,7 +27647,7 @@
       <c r="Y979" s="4"/>
       <c r="Z979" s="4"/>
     </row>
-    <row r="980" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="20" customHeight="1">
       <c r="A980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="8"/>
@@ -27663,7 +27674,7 @@
       <c r="Y980" s="4"/>
       <c r="Z980" s="4"/>
     </row>
-    <row r="981" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="20" customHeight="1">
       <c r="A981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="8"/>
@@ -27690,7 +27701,7 @@
       <c r="Y981" s="4"/>
       <c r="Z981" s="4"/>
     </row>
-    <row r="982" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="20" customHeight="1">
       <c r="A982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="8"/>
@@ -27717,7 +27728,7 @@
       <c r="Y982" s="4"/>
       <c r="Z982" s="4"/>
     </row>
-    <row r="983" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="20" customHeight="1">
       <c r="A983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="8"/>
@@ -27744,7 +27755,7 @@
       <c r="Y983" s="4"/>
       <c r="Z983" s="4"/>
     </row>
-    <row r="984" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="20" customHeight="1">
       <c r="A984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="8"/>
@@ -27771,7 +27782,7 @@
       <c r="Y984" s="4"/>
       <c r="Z984" s="4"/>
     </row>
-    <row r="985" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="20" customHeight="1">
       <c r="A985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="8"/>
@@ -27798,7 +27809,7 @@
       <c r="Y985" s="4"/>
       <c r="Z985" s="4"/>
     </row>
-    <row r="986" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="20" customHeight="1">
       <c r="A986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="8"/>
@@ -27825,7 +27836,7 @@
       <c r="Y986" s="4"/>
       <c r="Z986" s="4"/>
     </row>
-    <row r="987" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="20" customHeight="1">
       <c r="A987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="8"/>
@@ -27852,7 +27863,7 @@
       <c r="Y987" s="4"/>
       <c r="Z987" s="4"/>
     </row>
-    <row r="988" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="20" customHeight="1">
       <c r="A988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="8"/>
@@ -27879,7 +27890,7 @@
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
     </row>
-    <row r="989" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="20" customHeight="1">
       <c r="A989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="8"/>
@@ -27906,7 +27917,7 @@
       <c r="Y989" s="4"/>
       <c r="Z989" s="4"/>
     </row>
-    <row r="990" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="20" customHeight="1">
       <c r="A990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="8"/>
@@ -27933,7 +27944,7 @@
       <c r="Y990" s="4"/>
       <c r="Z990" s="4"/>
     </row>
-    <row r="991" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="20" customHeight="1">
       <c r="A991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="8"/>
@@ -27960,7 +27971,7 @@
       <c r="Y991" s="4"/>
       <c r="Z991" s="4"/>
     </row>
-    <row r="992" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="20" customHeight="1">
       <c r="A992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="8"/>
@@ -27987,7 +27998,7 @@
       <c r="Y992" s="4"/>
       <c r="Z992" s="4"/>
     </row>
-    <row r="993" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="20" customHeight="1">
       <c r="A993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="8"/>
@@ -28014,7 +28025,7 @@
       <c r="Y993" s="4"/>
       <c r="Z993" s="4"/>
     </row>
-    <row r="994" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="20" customHeight="1">
       <c r="A994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="8"/>
@@ -28041,7 +28052,7 @@
       <c r="Y994" s="4"/>
       <c r="Z994" s="4"/>
     </row>
-    <row r="995" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="20" customHeight="1">
       <c r="A995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="8"/>
@@ -28068,7 +28079,7 @@
       <c r="Y995" s="4"/>
       <c r="Z995" s="4"/>
     </row>
-    <row r="996" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="20" customHeight="1">
       <c r="A996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="8"/>
@@ -28095,7 +28106,7 @@
       <c r="Y996" s="4"/>
       <c r="Z996" s="4"/>
     </row>
-    <row r="997" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="20" customHeight="1">
       <c r="A997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="8"/>
@@ -28122,7 +28133,7 @@
       <c r="Y997" s="4"/>
       <c r="Z997" s="4"/>
     </row>
-    <row r="998" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="20" customHeight="1">
       <c r="A998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="8"/>
@@ -28149,7 +28160,7 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
-    <row r="999" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="20" customHeight="1">
       <c r="A999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="8"/>
@@ -28176,7 +28187,7 @@
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
     </row>
-    <row r="1000" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="20" customHeight="1">
       <c r="A1000" s="4"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="8"/>
@@ -28203,7 +28214,7 @@
       <c r="Y1000" s="4"/>
       <c r="Z1000" s="4"/>
     </row>
-    <row r="1001" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:26" ht="20" customHeight="1">
       <c r="A1001" s="4"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="8"/>
@@ -28230,7 +28241,7 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
-    <row r="1002" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:26" ht="20" customHeight="1">
       <c r="A1002" s="4"/>
       <c r="C1002" s="4"/>
       <c r="D1002" s="8"/>
@@ -28257,7 +28268,7 @@
       <c r="Y1002" s="4"/>
       <c r="Z1002" s="4"/>
     </row>
-    <row r="1003" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:26" ht="20" customHeight="1">
       <c r="A1003" s="4"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="8"/>
@@ -28284,7 +28295,7 @@
       <c r="Y1003" s="4"/>
       <c r="Z1003" s="4"/>
     </row>
-    <row r="1004" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:26" ht="20" customHeight="1">
       <c r="A1004" s="4"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="8"/>
@@ -28311,7 +28322,7 @@
       <c r="Y1004" s="4"/>
       <c r="Z1004" s="4"/>
     </row>
-    <row r="1005" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:26" ht="20" customHeight="1">
       <c r="A1005" s="4"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="8"/>
@@ -28338,7 +28349,7 @@
       <c r="Y1005" s="4"/>
       <c r="Z1005" s="4"/>
     </row>
-    <row r="1006" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:26" ht="20" customHeight="1">
       <c r="A1006" s="4"/>
       <c r="C1006" s="4"/>
       <c r="D1006" s="8"/>
@@ -28365,7 +28376,7 @@
       <c r="Y1006" s="4"/>
       <c r="Z1006" s="4"/>
     </row>
-    <row r="1007" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:26" ht="20" customHeight="1">
       <c r="A1007" s="4"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="8"/>
@@ -28445,12 +28456,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -28458,7 +28469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -28466,7 +28477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -28474,7 +28485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -28482,7 +28493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -28503,13 +28514,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D484ADA5-B11D-F44D-8250-6DBC50BAC152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82647AAB-BF8F-8547-BF5C-0D5F6BF9FC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="588">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -4212,9 +4212,6 @@
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="65" spans="1:26" ht="20" customHeight="1">
       <c r="A65" s="4"/>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -4407,8 +4404,8 @@
       <c r="D65" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="18" t="s">
-        <v>587</v>
+      <c r="E65" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -4466,7 +4463,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="34">
+    <row r="67" spans="1:26" ht="17">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>62</v>
@@ -4477,8 +4474,8 @@
       <c r="D67" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>81</v>
+      <c r="E67" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>

--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhammazumdar/Library/Mobile Documents/com~apple~CloudDocs/Level2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82647AAB-BF8F-8547-BF5C-0D5F6BF9FC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B71E1-8B83-444E-97EE-E3A2E9AEE17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{688ABEC1-99B5-A148-B24E-133D3C1DE4DF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="590">
   <si>
     <t>17th Aug 2022</t>
   </si>
@@ -1806,6 +1806,12 @@
   <si>
     <t>Try both ways again</t>
   </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Check the k/2 = rem divisibility reason</t>
+  </si>
 </sst>
 </file>
 
@@ -1942,7 +1948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1979,6 +1985,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2296,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82ACF5-6E46-2A4E-8CDB-3350DDC49501}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -2306,7 +2313,8 @@
     <col min="2" max="2" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="85.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20" customHeight="1">
@@ -2314,7 +2322,9 @@
       <c r="C1" s="4"/>
       <c r="D1" s="8"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -2449,8 +2459,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="24">
+        <f ca="1">TODAY()</f>
+        <v>44846</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2485,7 +2500,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="24">
+        <f ca="1">TODAY()</f>
+        <v>44846</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2650,7 +2668,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="24">
+        <f ca="1">TODAY()</f>
+        <v>44846</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -3116,7 +3137,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="34">
+    <row r="25" spans="1:26" ht="17">
       <c r="A25" s="4">
         <v>17</v>
       </c>
